--- a/Scraped data/Property Listing Report.xlsx
+++ b/Scraped data/Property Listing Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="24">
@@ -79,6 +79,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -87,15 +138,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,7 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,38 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -184,24 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,7 +239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +275,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,37 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,91 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,26 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,22 +467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +476,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +513,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,7 +975,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1327,11 +1327,21 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="8">
+        <v>44245</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1355,11 +1365,21 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="8">
+        <v>44249</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>

--- a/Scraped data/Property Listing Report.xlsx
+++ b/Scraped data/Property Listing Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\CarousellWebScraping\Scraped data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5FD84-EF9F-44C9-8A34-777B67A17E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -46,15 +52,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mmm\ d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,353 +80,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -432,251 +97,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -706,65 +129,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -962,11 +341,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -974,17 +354,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.4285714285714" style="2" customWidth="1"/>
-    <col min="2" max="5" width="14.4285714285714" style="3"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +401,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +439,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +477,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>44539</v>
       </c>
@@ -1136,7 +515,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>44202</v>
       </c>
@@ -1174,7 +553,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>44229</v>
       </c>
@@ -1212,7 +591,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:26">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>44232</v>
       </c>
@@ -1250,7 +629,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" customHeight="1" spans="1:26">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>44235</v>
       </c>
@@ -1288,7 +667,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" customHeight="1" spans="1:26">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>44238</v>
       </c>
@@ -1326,18 +705,18 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" customHeight="1" spans="1:26">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="8">
-        <v>44245</v>
+        <v>44242</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1364,18 +743,18 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" customHeight="1" spans="1:26">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="8">
-        <v>44249</v>
+        <v>44245</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1402,12 +781,22 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" customHeight="1" spans="1:26">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="8">
+        <v>44249</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1430,7 +819,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" customHeight="1" spans="1:26">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -1458,7 +847,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" customHeight="1" spans="1:26">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1486,7 +875,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" customHeight="1" spans="1:26">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1514,7 +903,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" customHeight="1" spans="1:26">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1542,7 +931,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" customHeight="1" spans="1:26">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -1570,7 +959,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" customHeight="1" spans="1:26">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -1598,7 +987,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" customHeight="1" spans="1:26">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -1626,7 +1015,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" customHeight="1" spans="1:26">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
@@ -1654,7 +1043,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" customHeight="1" spans="1:26">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
@@ -1682,7 +1071,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" customHeight="1" spans="1:26">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
@@ -1710,7 +1099,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" customHeight="1" spans="1:26">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4"/>
@@ -1738,7 +1127,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" customHeight="1" spans="1:26">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="4"/>
@@ -1766,7 +1155,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" customHeight="1" spans="1:26">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
@@ -1794,7 +1183,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" customHeight="1" spans="1:26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
@@ -1822,7 +1211,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" customHeight="1" spans="1:26">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
@@ -1850,7 +1239,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" customHeight="1" spans="1:26">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
@@ -1878,7 +1267,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" customHeight="1" spans="1:26">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4"/>
@@ -1906,7 +1295,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" customHeight="1" spans="1:26">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4"/>
@@ -1934,7 +1323,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" customHeight="1" spans="1:26">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
@@ -1962,7 +1351,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" customHeight="1" spans="1:26">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -1990,7 +1379,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" customHeight="1" spans="1:26">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -2018,7 +1407,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" customHeight="1" spans="1:26">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -2046,7 +1435,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" customHeight="1" spans="1:26">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
@@ -2074,7 +1463,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" customHeight="1" spans="1:26">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
@@ -2102,7 +1491,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" customHeight="1" spans="1:26">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
@@ -2130,7 +1519,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" customHeight="1" spans="1:26">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
@@ -2158,7 +1547,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" customHeight="1" spans="1:26">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
@@ -2186,7 +1575,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" customHeight="1" spans="1:26">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
@@ -2214,7 +1603,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" customHeight="1" spans="1:26">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
@@ -2242,7 +1631,7 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" customHeight="1" spans="1:26">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
@@ -2270,7 +1659,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" customHeight="1" spans="1:26">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
@@ -2298,7 +1687,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" customHeight="1" spans="1:26">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
@@ -2326,7 +1715,7 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" customHeight="1" spans="1:26">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
@@ -2354,7 +1743,7 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" customHeight="1" spans="1:26">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
@@ -2382,7 +1771,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" customHeight="1" spans="1:26">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
@@ -2410,7 +1799,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" customHeight="1" spans="1:26">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
@@ -2438,7 +1827,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" customHeight="1" spans="1:26">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
@@ -2466,7 +1855,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" customHeight="1" spans="1:26">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
@@ -2494,7 +1883,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" customHeight="1" spans="1:26">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
@@ -2522,7 +1911,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" customHeight="1" spans="1:26">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
@@ -2550,7 +1939,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" customHeight="1" spans="1:26">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
@@ -2578,7 +1967,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" customHeight="1" spans="1:26">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
@@ -2606,7 +1995,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" customHeight="1" spans="1:26">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
@@ -2634,7 +2023,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" customHeight="1" spans="1:26">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="C56" s="4"/>
@@ -2662,7 +2051,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" customHeight="1" spans="1:26">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="9"/>
       <c r="C57" s="4"/>
@@ -2690,7 +2079,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" customHeight="1" spans="1:26">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="9"/>
       <c r="C58" s="4"/>
@@ -2718,7 +2107,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" customHeight="1" spans="1:26">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="10"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
@@ -2746,7 +2135,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" customHeight="1" spans="1:26">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
@@ -2774,7 +2163,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" customHeight="1" spans="1:26">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="10"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
@@ -2802,7 +2191,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" customHeight="1" spans="1:26">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -2830,7 +2219,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" customHeight="1" spans="1:26">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
@@ -2858,7 +2247,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" customHeight="1" spans="1:26">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
@@ -2886,7 +2275,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" customHeight="1" spans="1:26">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
@@ -2914,7 +2303,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" customHeight="1" spans="1:26">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
@@ -2942,7 +2331,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" customHeight="1" spans="1:26">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -2970,7 +2359,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" customHeight="1" spans="1:26">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -2998,7 +2387,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" customHeight="1" spans="1:26">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -3026,7 +2415,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" customHeight="1" spans="1:26">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -3054,7 +2443,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" customHeight="1" spans="1:26">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -3082,7 +2471,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" customHeight="1" spans="1:26">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -3110,7 +2499,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" customHeight="1" spans="1:26">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -3138,7 +2527,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" customHeight="1" spans="1:26">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -3166,7 +2555,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" customHeight="1" spans="1:26">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -3194,7 +2583,7 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" customHeight="1" spans="1:26">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="10"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -3222,7 +2611,7 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" customHeight="1" spans="1:26">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -3250,7 +2639,7 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" customHeight="1" spans="1:26">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -3278,7 +2667,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" customHeight="1" spans="1:26">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -3306,7 +2695,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" customHeight="1" spans="1:26">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="10"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -3334,7 +2723,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" customHeight="1" spans="1:26">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="10"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -3362,7 +2751,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" customHeight="1" spans="1:26">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="10"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -3390,7 +2779,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" customHeight="1" spans="1:26">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="10"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -3418,7 +2807,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" customHeight="1" spans="1:26">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -3446,7 +2835,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" customHeight="1" spans="1:26">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -3474,7 +2863,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" customHeight="1" spans="1:26">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="10"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -3502,7 +2891,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" customHeight="1" spans="1:26">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -3530,7 +2919,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" customHeight="1" spans="1:26">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -3558,7 +2947,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" customHeight="1" spans="1:26">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="10"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -3586,7 +2975,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" customHeight="1" spans="1:26">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="10"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -3614,7 +3003,7 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" customHeight="1" spans="1:26">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="10"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -3642,7 +3031,7 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" customHeight="1" spans="1:26">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="10"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -3670,7 +3059,7 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" customHeight="1" spans="1:26">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="10"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -3698,7 +3087,7 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" customHeight="1" spans="1:26">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="10"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -3726,7 +3115,7 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" customHeight="1" spans="1:26">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="10"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -3754,7 +3143,7 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" customHeight="1" spans="1:26">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -3782,7 +3171,7 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" customHeight="1" spans="1:26">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="10"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -3810,7 +3199,7 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" customHeight="1" spans="1:26">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="10"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -3838,7 +3227,7 @@
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
     </row>
-    <row r="99" customHeight="1" spans="1:26">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="10"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -3866,7 +3255,7 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" customHeight="1" spans="1:26">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -3894,7 +3283,7 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" customHeight="1" spans="1:26">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="10"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -3922,7 +3311,7 @@
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" customHeight="1" spans="1:26">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="10"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -3950,7 +3339,7 @@
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
     </row>
-    <row r="103" customHeight="1" spans="1:26">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="10"/>
       <c r="B103" s="9"/>
       <c r="C103" s="4"/>
@@ -3978,7 +3367,7 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" customHeight="1" spans="1:26">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="10"/>
       <c r="B104" s="9"/>
       <c r="C104" s="4"/>
@@ -4006,7 +3395,7 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" customHeight="1" spans="1:26">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="10"/>
       <c r="B105" s="9"/>
       <c r="C105" s="4"/>
@@ -4034,7 +3423,7 @@
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
     </row>
-    <row r="106" customHeight="1" spans="1:26">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="10"/>
       <c r="B106" s="9"/>
       <c r="C106" s="4"/>
@@ -4062,7 +3451,7 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" customHeight="1" spans="1:26">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="10"/>
       <c r="B107" s="9"/>
       <c r="C107" s="4"/>
@@ -4090,7 +3479,7 @@
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
     </row>
-    <row r="108" customHeight="1" spans="1:26">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="10"/>
       <c r="B108" s="9"/>
       <c r="C108" s="4"/>
@@ -4118,7 +3507,7 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
     </row>
-    <row r="109" customHeight="1" spans="1:26">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="10"/>
       <c r="B109" s="9"/>
       <c r="C109" s="4"/>
@@ -4146,7 +3535,7 @@
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
     </row>
-    <row r="110" customHeight="1" spans="1:26">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="10"/>
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
@@ -4174,7 +3563,7 @@
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
     </row>
-    <row r="111" customHeight="1" spans="1:26">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="10"/>
       <c r="B111" s="9"/>
       <c r="C111" s="4"/>
@@ -4202,7 +3591,7 @@
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
     </row>
-    <row r="112" customHeight="1" spans="1:26">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="10"/>
       <c r="B112" s="9"/>
       <c r="C112" s="4"/>
@@ -4230,7 +3619,7 @@
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
     </row>
-    <row r="113" customHeight="1" spans="1:26">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="10"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4"/>
@@ -4258,7 +3647,7 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" customHeight="1" spans="1:26">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="10"/>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -4286,7 +3675,7 @@
       <c r="Y114" s="6"/>
       <c r="Z114" s="6"/>
     </row>
-    <row r="115" customHeight="1" spans="1:26">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="10"/>
       <c r="B115" s="9"/>
       <c r="C115" s="4"/>
@@ -4314,7 +3703,7 @@
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
     </row>
-    <row r="116" customHeight="1" spans="1:26">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="10"/>
       <c r="B116" s="9"/>
       <c r="C116" s="4"/>
@@ -4342,7 +3731,7 @@
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
     </row>
-    <row r="117" customHeight="1" spans="1:26">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="10"/>
       <c r="B117" s="9"/>
       <c r="C117" s="4"/>
@@ -4370,7 +3759,7 @@
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
     </row>
-    <row r="118" customHeight="1" spans="1:26">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="10"/>
       <c r="B118" s="9"/>
       <c r="C118" s="4"/>
@@ -4398,7 +3787,7 @@
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
     </row>
-    <row r="119" customHeight="1" spans="1:26">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="10"/>
       <c r="B119" s="9"/>
       <c r="C119" s="4"/>
@@ -4426,7 +3815,7 @@
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" customHeight="1" spans="1:26">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="10"/>
       <c r="B120" s="9"/>
       <c r="C120" s="4"/>
@@ -4454,7 +3843,7 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" customHeight="1" spans="1:26">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="10"/>
       <c r="B121" s="9"/>
       <c r="C121" s="4"/>
@@ -4482,7 +3871,7 @@
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
     </row>
-    <row r="122" customHeight="1" spans="1:26">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="10"/>
       <c r="B122" s="9"/>
       <c r="C122" s="4"/>
@@ -4510,7 +3899,7 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" customHeight="1" spans="1:26">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="10"/>
       <c r="B123" s="9"/>
       <c r="C123" s="4"/>
@@ -4538,7 +3927,7 @@
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
     </row>
-    <row r="124" customHeight="1" spans="1:26">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="10"/>
       <c r="B124" s="9"/>
       <c r="C124" s="4"/>
@@ -4566,7 +3955,7 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
     </row>
-    <row r="125" customHeight="1" spans="1:26">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="10"/>
       <c r="B125" s="9"/>
       <c r="C125" s="4"/>
@@ -4594,7 +3983,7 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
     </row>
-    <row r="126" customHeight="1" spans="1:26">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="10"/>
       <c r="B126" s="9"/>
       <c r="C126" s="4"/>
@@ -4622,7 +4011,7 @@
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
     </row>
-    <row r="127" customHeight="1" spans="1:26">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="10"/>
       <c r="B127" s="9"/>
       <c r="C127" s="4"/>
@@ -4650,7 +4039,7 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" customHeight="1" spans="1:26">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="10"/>
       <c r="B128" s="9"/>
       <c r="C128" s="4"/>
@@ -4678,7 +4067,7 @@
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" customHeight="1" spans="1:26">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="10"/>
       <c r="B129" s="9"/>
       <c r="C129" s="4"/>
@@ -4706,7 +4095,7 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" customHeight="1" spans="1:26">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="10"/>
       <c r="B130" s="9"/>
       <c r="C130" s="4"/>
@@ -4734,7 +4123,7 @@
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" customHeight="1" spans="1:26">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="10"/>
       <c r="B131" s="9"/>
       <c r="C131" s="4"/>
@@ -4762,7 +4151,7 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" customHeight="1" spans="1:26">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="10"/>
       <c r="B132" s="9"/>
       <c r="C132" s="4"/>
@@ -4790,7 +4179,7 @@
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
     </row>
-    <row r="133" customHeight="1" spans="1:26">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="10"/>
       <c r="B133" s="9"/>
       <c r="C133" s="4"/>
@@ -4818,7 +4207,7 @@
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
     </row>
-    <row r="134" customHeight="1" spans="1:26">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="10"/>
       <c r="B134" s="9"/>
       <c r="C134" s="4"/>
@@ -4846,7 +4235,7 @@
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
     </row>
-    <row r="135" customHeight="1" spans="1:26">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="10"/>
       <c r="B135" s="9"/>
       <c r="C135" s="4"/>
@@ -4874,7 +4263,7 @@
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
     </row>
-    <row r="136" customHeight="1" spans="1:26">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="10"/>
       <c r="B136" s="9"/>
       <c r="C136" s="4"/>
@@ -4902,7 +4291,7 @@
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
     </row>
-    <row r="137" customHeight="1" spans="1:26">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="10"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4"/>
@@ -4930,7 +4319,7 @@
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
     </row>
-    <row r="138" customHeight="1" spans="1:26">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="10"/>
       <c r="B138" s="9"/>
       <c r="C138" s="4"/>
@@ -4958,7 +4347,7 @@
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
     </row>
-    <row r="139" customHeight="1" spans="1:26">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="10"/>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -4986,7 +4375,7 @@
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
     </row>
-    <row r="140" customHeight="1" spans="1:26">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="10"/>
       <c r="B140" s="9"/>
       <c r="C140" s="4"/>
@@ -5014,7 +4403,7 @@
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
     </row>
-    <row r="141" customHeight="1" spans="1:26">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="10"/>
       <c r="B141" s="9"/>
       <c r="C141" s="4"/>
@@ -5042,7 +4431,7 @@
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
     </row>
-    <row r="142" customHeight="1" spans="1:26">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="10"/>
       <c r="B142" s="9"/>
       <c r="C142" s="4"/>
@@ -5070,7 +4459,7 @@
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
     </row>
-    <row r="143" customHeight="1" spans="1:26">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="10"/>
       <c r="B143" s="9"/>
       <c r="C143" s="4"/>
@@ -5098,7 +4487,7 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
     </row>
-    <row r="144" customHeight="1" spans="1:26">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="10"/>
       <c r="B144" s="9"/>
       <c r="C144" s="4"/>
@@ -5126,7 +4515,7 @@
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
     </row>
-    <row r="145" customHeight="1" spans="1:26">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="10"/>
       <c r="B145" s="9"/>
       <c r="C145" s="4"/>
@@ -5154,7 +4543,7 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
     </row>
-    <row r="146" customHeight="1" spans="1:26">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="10"/>
       <c r="B146" s="9"/>
       <c r="C146" s="4"/>
@@ -5182,7 +4571,7 @@
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
     </row>
-    <row r="147" customHeight="1" spans="1:26">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="10"/>
       <c r="B147" s="9"/>
       <c r="C147" s="4"/>
@@ -5210,7 +4599,7 @@
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
     </row>
-    <row r="148" customHeight="1" spans="1:26">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="10"/>
       <c r="B148" s="9"/>
       <c r="C148" s="4"/>
@@ -5238,7 +4627,7 @@
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
     </row>
-    <row r="149" customHeight="1" spans="1:26">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="10"/>
       <c r="B149" s="9"/>
       <c r="C149" s="4"/>
@@ -5266,7 +4655,7 @@
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
     </row>
-    <row r="150" customHeight="1" spans="1:26">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="10"/>
       <c r="B150" s="9"/>
       <c r="C150" s="4"/>
@@ -5294,7 +4683,7 @@
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
     </row>
-    <row r="151" customHeight="1" spans="1:26">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="9"/>
       <c r="C151" s="4"/>
@@ -5322,7 +4711,7 @@
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
     </row>
-    <row r="152" customHeight="1" spans="1:26">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="10"/>
       <c r="B152" s="9"/>
       <c r="C152" s="4"/>
@@ -5350,7 +4739,7 @@
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
     </row>
-    <row r="153" customHeight="1" spans="1:26">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="9"/>
       <c r="C153" s="4"/>
@@ -5378,7 +4767,7 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
     </row>
-    <row r="154" customHeight="1" spans="1:26">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="9"/>
       <c r="C154" s="4"/>
@@ -5406,7 +4795,7 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" customHeight="1" spans="1:26">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="10"/>
       <c r="B155" s="9"/>
       <c r="C155" s="4"/>
@@ -5434,7 +4823,7 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" customHeight="1" spans="1:26">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="10"/>
       <c r="B156" s="9"/>
       <c r="C156" s="4"/>
@@ -5462,7 +4851,7 @@
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
     </row>
-    <row r="157" customHeight="1" spans="1:26">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="10"/>
       <c r="B157" s="9"/>
       <c r="C157" s="4"/>
@@ -5490,7 +4879,7 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
     </row>
-    <row r="158" customHeight="1" spans="1:26">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="10"/>
       <c r="B158" s="9"/>
       <c r="C158" s="4"/>
@@ -5518,7 +4907,7 @@
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" customHeight="1" spans="1:26">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="10"/>
       <c r="B159" s="9"/>
       <c r="C159" s="4"/>
@@ -5546,7 +4935,7 @@
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
     </row>
-    <row r="160" customHeight="1" spans="1:26">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="10"/>
       <c r="B160" s="9"/>
       <c r="C160" s="4"/>
@@ -5574,7 +4963,7 @@
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
     </row>
-    <row r="161" customHeight="1" spans="1:26">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="10"/>
       <c r="B161" s="9"/>
       <c r="C161" s="4"/>
@@ -5602,7 +4991,7 @@
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
     </row>
-    <row r="162" customHeight="1" spans="1:26">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="10"/>
       <c r="B162" s="9"/>
       <c r="C162" s="4"/>
@@ -5630,7 +5019,7 @@
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
     </row>
-    <row r="163" customHeight="1" spans="1:26">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="10"/>
       <c r="B163" s="9"/>
       <c r="C163" s="4"/>
@@ -5658,7 +5047,7 @@
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
     </row>
-    <row r="164" customHeight="1" spans="1:26">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="10"/>
       <c r="B164" s="9"/>
       <c r="C164" s="4"/>
@@ -5686,7 +5075,7 @@
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
     </row>
-    <row r="165" customHeight="1" spans="1:26">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="9"/>
       <c r="C165" s="4"/>
@@ -5714,7 +5103,7 @@
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
     </row>
-    <row r="166" customHeight="1" spans="1:26">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="10"/>
       <c r="B166" s="9"/>
       <c r="C166" s="4"/>
@@ -5742,7 +5131,7 @@
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
     </row>
-    <row r="167" customHeight="1" spans="1:26">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="9"/>
       <c r="C167" s="4"/>
@@ -5770,7 +5159,7 @@
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
     </row>
-    <row r="168" customHeight="1" spans="1:26">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="10"/>
       <c r="B168" s="9"/>
       <c r="C168" s="4"/>
@@ -5798,7 +5187,7 @@
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
     </row>
-    <row r="169" customHeight="1" spans="1:26">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="10"/>
       <c r="B169" s="9"/>
       <c r="C169" s="4"/>
@@ -5826,7 +5215,7 @@
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
     </row>
-    <row r="170" customHeight="1" spans="1:26">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="10"/>
       <c r="B170" s="9"/>
       <c r="C170" s="4"/>
@@ -5854,7 +5243,7 @@
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
     </row>
-    <row r="171" customHeight="1" spans="1:26">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="10"/>
       <c r="B171" s="9"/>
       <c r="C171" s="4"/>
@@ -5882,7 +5271,7 @@
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" customHeight="1" spans="1:26">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="10"/>
       <c r="B172" s="9"/>
       <c r="C172" s="4"/>
@@ -5910,7 +5299,7 @@
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
     </row>
-    <row r="173" customHeight="1" spans="1:26">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="10"/>
       <c r="B173" s="9"/>
       <c r="C173" s="4"/>
@@ -5938,7 +5327,7 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" customHeight="1" spans="1:26">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="10"/>
       <c r="B174" s="9"/>
       <c r="C174" s="4"/>
@@ -5966,7 +5355,7 @@
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
     </row>
-    <row r="175" customHeight="1" spans="1:26">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="10"/>
       <c r="B175" s="9"/>
       <c r="C175" s="4"/>
@@ -5994,7 +5383,7 @@
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
     </row>
-    <row r="176" customHeight="1" spans="1:26">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="10"/>
       <c r="B176" s="9"/>
       <c r="C176" s="4"/>
@@ -6022,7 +5411,7 @@
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
     </row>
-    <row r="177" customHeight="1" spans="1:26">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="10"/>
       <c r="B177" s="9"/>
       <c r="C177" s="4"/>
@@ -6050,7 +5439,7 @@
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
     </row>
-    <row r="178" customHeight="1" spans="1:26">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="10"/>
       <c r="B178" s="9"/>
       <c r="C178" s="4"/>
@@ -6078,7 +5467,7 @@
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
     </row>
-    <row r="179" customHeight="1" spans="1:26">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="10"/>
       <c r="B179" s="9"/>
       <c r="C179" s="4"/>
@@ -6106,7 +5495,7 @@
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
     </row>
-    <row r="180" customHeight="1" spans="1:26">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="10"/>
       <c r="B180" s="9"/>
       <c r="C180" s="4"/>
@@ -6134,7 +5523,7 @@
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
     </row>
-    <row r="181" customHeight="1" spans="1:26">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="10"/>
       <c r="B181" s="9"/>
       <c r="C181" s="4"/>
@@ -6162,7 +5551,7 @@
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
     </row>
-    <row r="182" customHeight="1" spans="1:26">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="10"/>
       <c r="B182" s="9"/>
       <c r="C182" s="4"/>
@@ -6190,7 +5579,7 @@
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
     </row>
-    <row r="183" customHeight="1" spans="1:26">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="10"/>
       <c r="B183" s="9"/>
       <c r="C183" s="4"/>
@@ -6218,7 +5607,7 @@
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
     </row>
-    <row r="184" customHeight="1" spans="1:26">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="10"/>
       <c r="B184" s="9"/>
       <c r="C184" s="4"/>
@@ -6246,7 +5635,7 @@
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
     </row>
-    <row r="185" customHeight="1" spans="1:26">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="10"/>
       <c r="B185" s="9"/>
       <c r="C185" s="4"/>
@@ -6274,7 +5663,7 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
     </row>
-    <row r="186" customHeight="1" spans="1:26">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="10"/>
       <c r="B186" s="9"/>
       <c r="C186" s="4"/>
@@ -6302,7 +5691,7 @@
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
     </row>
-    <row r="187" customHeight="1" spans="1:26">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="10"/>
       <c r="B187" s="9"/>
       <c r="C187" s="4"/>
@@ -6330,7 +5719,7 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" customHeight="1" spans="1:26">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="10"/>
       <c r="B188" s="9"/>
       <c r="C188" s="4"/>
@@ -6358,7 +5747,7 @@
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
     </row>
-    <row r="189" customHeight="1" spans="1:26">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="10"/>
       <c r="B189" s="9"/>
       <c r="C189" s="4"/>
@@ -6386,7 +5775,7 @@
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
     </row>
-    <row r="190" customHeight="1" spans="1:26">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="10"/>
       <c r="B190" s="9"/>
       <c r="C190" s="4"/>
@@ -6414,7 +5803,7 @@
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
     </row>
-    <row r="191" customHeight="1" spans="1:26">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="10"/>
       <c r="B191" s="9"/>
       <c r="C191" s="4"/>
@@ -6442,7 +5831,7 @@
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
     </row>
-    <row r="192" customHeight="1" spans="1:26">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="10"/>
       <c r="B192" s="9"/>
       <c r="C192" s="4"/>
@@ -6470,7 +5859,7 @@
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
     </row>
-    <row r="193" customHeight="1" spans="1:26">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="10"/>
       <c r="B193" s="9"/>
       <c r="C193" s="4"/>
@@ -6498,7 +5887,7 @@
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
     </row>
-    <row r="194" customHeight="1" spans="1:26">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="10"/>
       <c r="B194" s="9"/>
       <c r="C194" s="4"/>
@@ -6526,7 +5915,7 @@
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
     </row>
-    <row r="195" customHeight="1" spans="1:26">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="10"/>
       <c r="B195" s="9"/>
       <c r="C195" s="4"/>
@@ -6554,7 +5943,7 @@
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
     </row>
-    <row r="196" customHeight="1" spans="1:26">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="10"/>
       <c r="B196" s="9"/>
       <c r="C196" s="4"/>
@@ -6582,7 +5971,7 @@
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
     </row>
-    <row r="197" customHeight="1" spans="1:26">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="10"/>
       <c r="B197" s="9"/>
       <c r="C197" s="4"/>
@@ -6610,7 +5999,7 @@
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
     </row>
-    <row r="198" customHeight="1" spans="1:26">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="10"/>
       <c r="B198" s="9"/>
       <c r="C198" s="4"/>
@@ -6638,7 +6027,7 @@
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
     </row>
-    <row r="199" customHeight="1" spans="1:26">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="10"/>
       <c r="B199" s="9"/>
       <c r="C199" s="4"/>
@@ -6666,7 +6055,7 @@
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
     </row>
-    <row r="200" customHeight="1" spans="1:26">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="9"/>
       <c r="C200" s="4"/>
@@ -6694,7 +6083,7 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
     </row>
-    <row r="201" customHeight="1" spans="1:26">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="10"/>
       <c r="B201" s="9"/>
       <c r="C201" s="4"/>
@@ -6722,7 +6111,7 @@
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
     </row>
-    <row r="202" customHeight="1" spans="1:26">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="10"/>
       <c r="B202" s="9"/>
       <c r="C202" s="4"/>
@@ -6750,7 +6139,7 @@
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
     </row>
-    <row r="203" customHeight="1" spans="1:26">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="10"/>
       <c r="B203" s="9"/>
       <c r="C203" s="4"/>
@@ -6778,7 +6167,7 @@
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
     </row>
-    <row r="204" customHeight="1" spans="1:26">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="10"/>
       <c r="B204" s="9"/>
       <c r="C204" s="4"/>
@@ -6806,7 +6195,7 @@
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
     </row>
-    <row r="205" customHeight="1" spans="1:26">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="10"/>
       <c r="B205" s="9"/>
       <c r="C205" s="4"/>
@@ -6834,7 +6223,7 @@
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
     </row>
-    <row r="206" customHeight="1" spans="1:26">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="10"/>
       <c r="B206" s="9"/>
       <c r="C206" s="4"/>
@@ -6862,7 +6251,7 @@
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
     </row>
-    <row r="207" customHeight="1" spans="1:26">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="10"/>
       <c r="B207" s="9"/>
       <c r="C207" s="4"/>
@@ -6890,7 +6279,7 @@
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
     </row>
-    <row r="208" customHeight="1" spans="1:26">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="10"/>
       <c r="B208" s="9"/>
       <c r="C208" s="4"/>
@@ -6918,7 +6307,7 @@
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
     </row>
-    <row r="209" customHeight="1" spans="1:26">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="10"/>
       <c r="B209" s="9"/>
       <c r="C209" s="4"/>
@@ -6946,7 +6335,7 @@
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
     </row>
-    <row r="210" customHeight="1" spans="1:26">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="10"/>
       <c r="B210" s="9"/>
       <c r="C210" s="4"/>
@@ -6974,7 +6363,7 @@
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
     </row>
-    <row r="211" customHeight="1" spans="1:26">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="10"/>
       <c r="B211" s="9"/>
       <c r="C211" s="4"/>
@@ -7002,7 +6391,7 @@
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
     </row>
-    <row r="212" customHeight="1" spans="1:26">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="10"/>
       <c r="B212" s="9"/>
       <c r="C212" s="4"/>
@@ -7030,7 +6419,7 @@
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
     </row>
-    <row r="213" customHeight="1" spans="1:26">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="10"/>
       <c r="B213" s="9"/>
       <c r="C213" s="4"/>
@@ -7058,7 +6447,7 @@
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
     </row>
-    <row r="214" customHeight="1" spans="1:26">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="10"/>
       <c r="B214" s="9"/>
       <c r="C214" s="4"/>
@@ -7086,7 +6475,7 @@
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
     </row>
-    <row r="215" customHeight="1" spans="1:26">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="10"/>
       <c r="B215" s="9"/>
       <c r="C215" s="4"/>
@@ -7114,7 +6503,7 @@
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
     </row>
-    <row r="216" customHeight="1" spans="1:26">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="10"/>
       <c r="B216" s="9"/>
       <c r="C216" s="4"/>
@@ -7142,7 +6531,7 @@
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
     </row>
-    <row r="217" customHeight="1" spans="1:26">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="10"/>
       <c r="B217" s="9"/>
       <c r="C217" s="4"/>
@@ -7170,7 +6559,7 @@
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
     </row>
-    <row r="218" customHeight="1" spans="1:26">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="10"/>
       <c r="B218" s="9"/>
       <c r="C218" s="4"/>
@@ -7198,7 +6587,7 @@
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
     </row>
-    <row r="219" customHeight="1" spans="1:26">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="9"/>
       <c r="C219" s="4"/>
@@ -7226,7 +6615,7 @@
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
     </row>
-    <row r="220" customHeight="1" spans="1:26">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="10"/>
       <c r="B220" s="9"/>
       <c r="C220" s="4"/>
@@ -7254,7 +6643,7 @@
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
     </row>
-    <row r="221" customHeight="1" spans="1:26">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="10"/>
       <c r="B221" s="9"/>
       <c r="C221" s="4"/>
@@ -7282,7 +6671,7 @@
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
     </row>
-    <row r="222" customHeight="1" spans="1:26">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="10"/>
       <c r="B222" s="9"/>
       <c r="C222" s="4"/>
@@ -7310,7 +6699,7 @@
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
     </row>
-    <row r="223" customHeight="1" spans="1:26">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="10"/>
       <c r="B223" s="9"/>
       <c r="C223" s="4"/>
@@ -7338,7 +6727,7 @@
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
     </row>
-    <row r="224" customHeight="1" spans="1:26">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="10"/>
       <c r="B224" s="9"/>
       <c r="C224" s="4"/>
@@ -7366,7 +6755,7 @@
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
     </row>
-    <row r="225" customHeight="1" spans="1:26">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="10"/>
       <c r="B225" s="9"/>
       <c r="C225" s="4"/>
@@ -7394,7 +6783,7 @@
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
     </row>
-    <row r="226" customHeight="1" spans="1:26">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="10"/>
       <c r="B226" s="9"/>
       <c r="C226" s="4"/>
@@ -7422,7 +6811,7 @@
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
     </row>
-    <row r="227" customHeight="1" spans="1:26">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="10"/>
       <c r="B227" s="9"/>
       <c r="C227" s="4"/>
@@ -7450,7 +6839,7 @@
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
     </row>
-    <row r="228" customHeight="1" spans="1:26">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="10"/>
       <c r="B228" s="9"/>
       <c r="C228" s="4"/>
@@ -7478,7 +6867,7 @@
       <c r="Y228" s="6"/>
       <c r="Z228" s="6"/>
     </row>
-    <row r="229" customHeight="1" spans="1:26">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="10"/>
       <c r="B229" s="9"/>
       <c r="C229" s="4"/>
@@ -7506,7 +6895,7 @@
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
     </row>
-    <row r="230" customHeight="1" spans="1:26">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="10"/>
       <c r="B230" s="9"/>
       <c r="C230" s="4"/>
@@ -7534,7 +6923,7 @@
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
     </row>
-    <row r="231" customHeight="1" spans="1:26">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="10"/>
       <c r="B231" s="9"/>
       <c r="C231" s="4"/>
@@ -7562,7 +6951,7 @@
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
     </row>
-    <row r="232" customHeight="1" spans="1:26">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="10"/>
       <c r="B232" s="9"/>
       <c r="C232" s="4"/>
@@ -7590,7 +6979,7 @@
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
     </row>
-    <row r="233" customHeight="1" spans="1:26">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="10"/>
       <c r="B233" s="9"/>
       <c r="C233" s="4"/>
@@ -7618,7 +7007,7 @@
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
     </row>
-    <row r="234" customHeight="1" spans="1:26">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="10"/>
       <c r="B234" s="9"/>
       <c r="C234" s="4"/>
@@ -7646,7 +7035,7 @@
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
     </row>
-    <row r="235" customHeight="1" spans="1:26">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="10"/>
       <c r="B235" s="9"/>
       <c r="C235" s="4"/>
@@ -7674,7 +7063,7 @@
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
     </row>
-    <row r="236" customHeight="1" spans="1:26">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="10"/>
       <c r="B236" s="9"/>
       <c r="C236" s="4"/>
@@ -7702,7 +7091,7 @@
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
     </row>
-    <row r="237" customHeight="1" spans="1:26">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="10"/>
       <c r="B237" s="9"/>
       <c r="C237" s="4"/>
@@ -7730,7 +7119,7 @@
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
     </row>
-    <row r="238" customHeight="1" spans="1:26">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="10"/>
       <c r="B238" s="9"/>
       <c r="C238" s="4"/>
@@ -7758,7 +7147,7 @@
       <c r="Y238" s="6"/>
       <c r="Z238" s="6"/>
     </row>
-    <row r="239" customHeight="1" spans="1:26">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="10"/>
       <c r="B239" s="9"/>
       <c r="C239" s="4"/>
@@ -7786,7 +7175,7 @@
       <c r="Y239" s="6"/>
       <c r="Z239" s="6"/>
     </row>
-    <row r="240" customHeight="1" spans="1:26">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="10"/>
       <c r="B240" s="9"/>
       <c r="C240" s="4"/>
@@ -7814,7 +7203,7 @@
       <c r="Y240" s="6"/>
       <c r="Z240" s="6"/>
     </row>
-    <row r="241" customHeight="1" spans="1:26">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="10"/>
       <c r="B241" s="9"/>
       <c r="C241" s="4"/>
@@ -7842,7 +7231,7 @@
       <c r="Y241" s="6"/>
       <c r="Z241" s="6"/>
     </row>
-    <row r="242" customHeight="1" spans="1:26">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="10"/>
       <c r="B242" s="9"/>
       <c r="C242" s="4"/>
@@ -7870,7 +7259,7 @@
       <c r="Y242" s="6"/>
       <c r="Z242" s="6"/>
     </row>
-    <row r="243" customHeight="1" spans="1:26">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="10"/>
       <c r="B243" s="9"/>
       <c r="C243" s="4"/>
@@ -7898,7 +7287,7 @@
       <c r="Y243" s="6"/>
       <c r="Z243" s="6"/>
     </row>
-    <row r="244" customHeight="1" spans="1:26">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="9"/>
       <c r="C244" s="4"/>
@@ -7926,7 +7315,7 @@
       <c r="Y244" s="6"/>
       <c r="Z244" s="6"/>
     </row>
-    <row r="245" customHeight="1" spans="1:26">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="10"/>
       <c r="B245" s="9"/>
       <c r="C245" s="4"/>
@@ -7954,7 +7343,7 @@
       <c r="Y245" s="6"/>
       <c r="Z245" s="6"/>
     </row>
-    <row r="246" customHeight="1" spans="1:26">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="9"/>
       <c r="C246" s="4"/>
@@ -7982,7 +7371,7 @@
       <c r="Y246" s="6"/>
       <c r="Z246" s="6"/>
     </row>
-    <row r="247" customHeight="1" spans="1:26">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="10"/>
       <c r="B247" s="9"/>
       <c r="C247" s="4"/>
@@ -8010,7 +7399,7 @@
       <c r="Y247" s="6"/>
       <c r="Z247" s="6"/>
     </row>
-    <row r="248" customHeight="1" spans="1:26">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="10"/>
       <c r="B248" s="9"/>
       <c r="C248" s="4"/>
@@ -8038,7 +7427,7 @@
       <c r="Y248" s="6"/>
       <c r="Z248" s="6"/>
     </row>
-    <row r="249" customHeight="1" spans="1:26">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="10"/>
       <c r="B249" s="9"/>
       <c r="C249" s="4"/>
@@ -8066,7 +7455,7 @@
       <c r="Y249" s="6"/>
       <c r="Z249" s="6"/>
     </row>
-    <row r="250" customHeight="1" spans="1:26">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="10"/>
       <c r="B250" s="9"/>
       <c r="C250" s="4"/>
@@ -8094,7 +7483,7 @@
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
     </row>
-    <row r="251" customHeight="1" spans="1:26">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="10"/>
       <c r="B251" s="9"/>
       <c r="C251" s="4"/>
@@ -8122,7 +7511,7 @@
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
     </row>
-    <row r="252" customHeight="1" spans="1:26">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="10"/>
       <c r="B252" s="9"/>
       <c r="C252" s="4"/>
@@ -8150,7 +7539,7 @@
       <c r="Y252" s="6"/>
       <c r="Z252" s="6"/>
     </row>
-    <row r="253" customHeight="1" spans="1:26">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="10"/>
       <c r="B253" s="9"/>
       <c r="C253" s="4"/>
@@ -8178,7 +7567,7 @@
       <c r="Y253" s="6"/>
       <c r="Z253" s="6"/>
     </row>
-    <row r="254" customHeight="1" spans="1:26">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="10"/>
       <c r="B254" s="9"/>
       <c r="C254" s="4"/>
@@ -8206,7 +7595,7 @@
       <c r="Y254" s="6"/>
       <c r="Z254" s="6"/>
     </row>
-    <row r="255" customHeight="1" spans="1:26">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="10"/>
       <c r="B255" s="9"/>
       <c r="C255" s="4"/>
@@ -8234,7 +7623,7 @@
       <c r="Y255" s="6"/>
       <c r="Z255" s="6"/>
     </row>
-    <row r="256" customHeight="1" spans="1:26">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="10"/>
       <c r="B256" s="9"/>
       <c r="C256" s="4"/>
@@ -8262,7 +7651,7 @@
       <c r="Y256" s="6"/>
       <c r="Z256" s="6"/>
     </row>
-    <row r="257" customHeight="1" spans="1:26">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="10"/>
       <c r="B257" s="9"/>
       <c r="C257" s="4"/>
@@ -8290,7 +7679,7 @@
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
     </row>
-    <row r="258" customHeight="1" spans="1:26">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="10"/>
       <c r="B258" s="9"/>
       <c r="C258" s="4"/>
@@ -8318,7 +7707,7 @@
       <c r="Y258" s="6"/>
       <c r="Z258" s="6"/>
     </row>
-    <row r="259" customHeight="1" spans="1:26">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="10"/>
       <c r="B259" s="9"/>
       <c r="C259" s="4"/>
@@ -8346,7 +7735,7 @@
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
     </row>
-    <row r="260" customHeight="1" spans="1:26">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="10"/>
       <c r="B260" s="9"/>
       <c r="C260" s="4"/>
@@ -8374,7 +7763,7 @@
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
     </row>
-    <row r="261" customHeight="1" spans="1:26">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="10"/>
       <c r="B261" s="9"/>
       <c r="C261" s="4"/>
@@ -8402,7 +7791,7 @@
       <c r="Y261" s="6"/>
       <c r="Z261" s="6"/>
     </row>
-    <row r="262" customHeight="1" spans="1:26">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="10"/>
       <c r="B262" s="9"/>
       <c r="C262" s="4"/>
@@ -8430,7 +7819,7 @@
       <c r="Y262" s="6"/>
       <c r="Z262" s="6"/>
     </row>
-    <row r="263" customHeight="1" spans="1:26">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="10"/>
       <c r="B263" s="9"/>
       <c r="C263" s="4"/>
@@ -8458,7 +7847,7 @@
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
     </row>
-    <row r="264" customHeight="1" spans="1:26">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="10"/>
       <c r="B264" s="9"/>
       <c r="C264" s="4"/>
@@ -8486,7 +7875,7 @@
       <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
     </row>
-    <row r="265" customHeight="1" spans="1:26">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="10"/>
       <c r="B265" s="9"/>
       <c r="C265" s="4"/>
@@ -8514,7 +7903,7 @@
       <c r="Y265" s="6"/>
       <c r="Z265" s="6"/>
     </row>
-    <row r="266" customHeight="1" spans="1:26">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1">
       <c r="A266" s="10"/>
       <c r="B266" s="9"/>
       <c r="C266" s="4"/>
@@ -8542,7 +7931,7 @@
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
     </row>
-    <row r="267" customHeight="1" spans="1:26">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1">
       <c r="A267" s="10"/>
       <c r="B267" s="9"/>
       <c r="C267" s="4"/>
@@ -8570,7 +7959,7 @@
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
     </row>
-    <row r="268" customHeight="1" spans="1:26">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1">
       <c r="A268" s="10"/>
       <c r="B268" s="9"/>
       <c r="C268" s="4"/>
@@ -8598,7 +7987,7 @@
       <c r="Y268" s="6"/>
       <c r="Z268" s="6"/>
     </row>
-    <row r="269" customHeight="1" spans="1:26">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1">
       <c r="A269" s="10"/>
       <c r="B269" s="9"/>
       <c r="C269" s="4"/>
@@ -8626,7 +8015,7 @@
       <c r="Y269" s="6"/>
       <c r="Z269" s="6"/>
     </row>
-    <row r="270" customHeight="1" spans="1:26">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1">
       <c r="A270" s="10"/>
       <c r="B270" s="9"/>
       <c r="C270" s="4"/>
@@ -8654,7 +8043,7 @@
       <c r="Y270" s="6"/>
       <c r="Z270" s="6"/>
     </row>
-    <row r="271" customHeight="1" spans="1:26">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1">
       <c r="A271" s="10"/>
       <c r="B271" s="9"/>
       <c r="C271" s="4"/>
@@ -8682,7 +8071,7 @@
       <c r="Y271" s="6"/>
       <c r="Z271" s="6"/>
     </row>
-    <row r="272" customHeight="1" spans="1:26">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="10"/>
       <c r="B272" s="9"/>
       <c r="C272" s="4"/>
@@ -8710,7 +8099,7 @@
       <c r="Y272" s="6"/>
       <c r="Z272" s="6"/>
     </row>
-    <row r="273" customHeight="1" spans="1:26">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1">
       <c r="A273" s="10"/>
       <c r="B273" s="9"/>
       <c r="C273" s="4"/>
@@ -8738,7 +8127,7 @@
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
     </row>
-    <row r="274" customHeight="1" spans="1:26">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="10"/>
       <c r="B274" s="9"/>
       <c r="C274" s="4"/>
@@ -8766,7 +8155,7 @@
       <c r="Y274" s="6"/>
       <c r="Z274" s="6"/>
     </row>
-    <row r="275" customHeight="1" spans="1:26">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1">
       <c r="A275" s="10"/>
       <c r="B275" s="9"/>
       <c r="C275" s="4"/>
@@ -8794,7 +8183,7 @@
       <c r="Y275" s="6"/>
       <c r="Z275" s="6"/>
     </row>
-    <row r="276" customHeight="1" spans="1:26">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
       <c r="A276" s="10"/>
       <c r="B276" s="9"/>
       <c r="C276" s="4"/>
@@ -8822,7 +8211,7 @@
       <c r="Y276" s="6"/>
       <c r="Z276" s="6"/>
     </row>
-    <row r="277" customHeight="1" spans="1:26">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1">
       <c r="A277" s="10"/>
       <c r="B277" s="9"/>
       <c r="C277" s="4"/>
@@ -8850,7 +8239,7 @@
       <c r="Y277" s="6"/>
       <c r="Z277" s="6"/>
     </row>
-    <row r="278" customHeight="1" spans="1:26">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1">
       <c r="A278" s="10"/>
       <c r="B278" s="9"/>
       <c r="C278" s="4"/>
@@ -8878,7 +8267,7 @@
       <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
     </row>
-    <row r="279" customHeight="1" spans="1:26">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1">
       <c r="A279" s="10"/>
       <c r="B279" s="9"/>
       <c r="C279" s="4"/>
@@ -8906,7 +8295,7 @@
       <c r="Y279" s="6"/>
       <c r="Z279" s="6"/>
     </row>
-    <row r="280" customHeight="1" spans="1:26">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1">
       <c r="A280" s="10"/>
       <c r="B280" s="9"/>
       <c r="C280" s="4"/>
@@ -8934,7 +8323,7 @@
       <c r="Y280" s="6"/>
       <c r="Z280" s="6"/>
     </row>
-    <row r="281" customHeight="1" spans="1:26">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="9"/>
       <c r="C281" s="4"/>
@@ -8962,7 +8351,7 @@
       <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
     </row>
-    <row r="282" customHeight="1" spans="1:26">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1">
       <c r="A282" s="10"/>
       <c r="B282" s="9"/>
       <c r="C282" s="4"/>
@@ -8990,7 +8379,7 @@
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
     </row>
-    <row r="283" customHeight="1" spans="1:26">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1">
       <c r="A283" s="10"/>
       <c r="B283" s="9"/>
       <c r="C283" s="4"/>
@@ -9018,7 +8407,7 @@
       <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
     </row>
-    <row r="284" customHeight="1" spans="1:26">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1">
       <c r="A284" s="10"/>
       <c r="B284" s="9"/>
       <c r="C284" s="4"/>
@@ -9046,7 +8435,7 @@
       <c r="Y284" s="6"/>
       <c r="Z284" s="6"/>
     </row>
-    <row r="285" customHeight="1" spans="1:26">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1">
       <c r="A285" s="10"/>
       <c r="B285" s="9"/>
       <c r="C285" s="4"/>
@@ -9074,7 +8463,7 @@
       <c r="Y285" s="6"/>
       <c r="Z285" s="6"/>
     </row>
-    <row r="286" customHeight="1" spans="1:26">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1">
       <c r="A286" s="10"/>
       <c r="B286" s="9"/>
       <c r="C286" s="4"/>
@@ -9102,7 +8491,7 @@
       <c r="Y286" s="6"/>
       <c r="Z286" s="6"/>
     </row>
-    <row r="287" customHeight="1" spans="1:26">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1">
       <c r="A287" s="10"/>
       <c r="B287" s="9"/>
       <c r="C287" s="4"/>
@@ -9130,7 +8519,7 @@
       <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
     </row>
-    <row r="288" customHeight="1" spans="1:26">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="9"/>
       <c r="C288" s="4"/>
@@ -9158,7 +8547,7 @@
       <c r="Y288" s="6"/>
       <c r="Z288" s="6"/>
     </row>
-    <row r="289" customHeight="1" spans="1:26">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1">
       <c r="A289" s="10"/>
       <c r="B289" s="9"/>
       <c r="C289" s="4"/>
@@ -9186,7 +8575,7 @@
       <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
     </row>
-    <row r="290" customHeight="1" spans="1:26">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1">
       <c r="A290" s="10"/>
       <c r="B290" s="9"/>
       <c r="C290" s="4"/>
@@ -9214,7 +8603,7 @@
       <c r="Y290" s="6"/>
       <c r="Z290" s="6"/>
     </row>
-    <row r="291" customHeight="1" spans="1:26">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="10"/>
       <c r="B291" s="9"/>
       <c r="C291" s="4"/>
@@ -9242,7 +8631,7 @@
       <c r="Y291" s="6"/>
       <c r="Z291" s="6"/>
     </row>
-    <row r="292" customHeight="1" spans="1:26">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1">
       <c r="A292" s="10"/>
       <c r="B292" s="9"/>
       <c r="C292" s="4"/>
@@ -9270,7 +8659,7 @@
       <c r="Y292" s="6"/>
       <c r="Z292" s="6"/>
     </row>
-    <row r="293" customHeight="1" spans="1:26">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1">
       <c r="A293" s="10"/>
       <c r="B293" s="9"/>
       <c r="C293" s="4"/>
@@ -9298,7 +8687,7 @@
       <c r="Y293" s="6"/>
       <c r="Z293" s="6"/>
     </row>
-    <row r="294" customHeight="1" spans="1:26">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1">
       <c r="A294" s="10"/>
       <c r="B294" s="9"/>
       <c r="C294" s="4"/>
@@ -9326,7 +8715,7 @@
       <c r="Y294" s="6"/>
       <c r="Z294" s="6"/>
     </row>
-    <row r="295" customHeight="1" spans="1:26">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1">
       <c r="A295" s="10"/>
       <c r="B295" s="9"/>
       <c r="C295" s="4"/>
@@ -9354,7 +8743,7 @@
       <c r="Y295" s="6"/>
       <c r="Z295" s="6"/>
     </row>
-    <row r="296" customHeight="1" spans="1:26">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1">
       <c r="A296" s="10"/>
       <c r="B296" s="9"/>
       <c r="C296" s="4"/>
@@ -9382,7 +8771,7 @@
       <c r="Y296" s="6"/>
       <c r="Z296" s="6"/>
     </row>
-    <row r="297" customHeight="1" spans="1:26">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1">
       <c r="A297" s="10"/>
       <c r="B297" s="9"/>
       <c r="C297" s="4"/>
@@ -9410,7 +8799,7 @@
       <c r="Y297" s="6"/>
       <c r="Z297" s="6"/>
     </row>
-    <row r="298" customHeight="1" spans="1:26">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="10"/>
       <c r="B298" s="9"/>
       <c r="C298" s="4"/>
@@ -9438,7 +8827,7 @@
       <c r="Y298" s="6"/>
       <c r="Z298" s="6"/>
     </row>
-    <row r="299" customHeight="1" spans="1:26">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1">
       <c r="A299" s="10"/>
       <c r="B299" s="9"/>
       <c r="C299" s="4"/>
@@ -9466,7 +8855,7 @@
       <c r="Y299" s="6"/>
       <c r="Z299" s="6"/>
     </row>
-    <row r="300" customHeight="1" spans="1:26">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="10"/>
       <c r="B300" s="9"/>
       <c r="C300" s="4"/>
@@ -9494,7 +8883,7 @@
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
     </row>
-    <row r="301" customHeight="1" spans="1:26">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1">
       <c r="A301" s="10"/>
       <c r="B301" s="9"/>
       <c r="C301" s="4"/>
@@ -9522,7 +8911,7 @@
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
     </row>
-    <row r="302" customHeight="1" spans="1:26">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1">
       <c r="A302" s="10"/>
       <c r="B302" s="9"/>
       <c r="C302" s="4"/>
@@ -9550,7 +8939,7 @@
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
     </row>
-    <row r="303" customHeight="1" spans="1:26">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1">
       <c r="A303" s="10"/>
       <c r="B303" s="9"/>
       <c r="C303" s="4"/>
@@ -9578,7 +8967,7 @@
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
     </row>
-    <row r="304" customHeight="1" spans="1:26">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1">
       <c r="A304" s="10"/>
       <c r="B304" s="9"/>
       <c r="C304" s="4"/>
@@ -9606,7 +8995,7 @@
       <c r="Y304" s="6"/>
       <c r="Z304" s="6"/>
     </row>
-    <row r="305" customHeight="1" spans="1:26">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1">
       <c r="A305" s="10"/>
       <c r="B305" s="9"/>
       <c r="C305" s="4"/>
@@ -9634,7 +9023,7 @@
       <c r="Y305" s="6"/>
       <c r="Z305" s="6"/>
     </row>
-    <row r="306" customHeight="1" spans="1:26">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1">
       <c r="A306" s="10"/>
       <c r="B306" s="9"/>
       <c r="C306" s="4"/>
@@ -9662,7 +9051,7 @@
       <c r="Y306" s="6"/>
       <c r="Z306" s="6"/>
     </row>
-    <row r="307" customHeight="1" spans="1:26">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1">
       <c r="A307" s="10"/>
       <c r="B307" s="9"/>
       <c r="C307" s="4"/>
@@ -9690,7 +9079,7 @@
       <c r="Y307" s="6"/>
       <c r="Z307" s="6"/>
     </row>
-    <row r="308" customHeight="1" spans="1:26">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="10"/>
       <c r="B308" s="9"/>
       <c r="C308" s="4"/>
@@ -9718,7 +9107,7 @@
       <c r="Y308" s="6"/>
       <c r="Z308" s="6"/>
     </row>
-    <row r="309" customHeight="1" spans="1:26">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="10"/>
       <c r="B309" s="9"/>
       <c r="C309" s="4"/>
@@ -9746,7 +9135,7 @@
       <c r="Y309" s="6"/>
       <c r="Z309" s="6"/>
     </row>
-    <row r="310" customHeight="1" spans="1:26">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1">
       <c r="A310" s="10"/>
       <c r="B310" s="9"/>
       <c r="C310" s="4"/>
@@ -9774,7 +9163,7 @@
       <c r="Y310" s="6"/>
       <c r="Z310" s="6"/>
     </row>
-    <row r="311" customHeight="1" spans="1:26">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="10"/>
       <c r="B311" s="9"/>
       <c r="C311" s="4"/>
@@ -9802,7 +9191,7 @@
       <c r="Y311" s="6"/>
       <c r="Z311" s="6"/>
     </row>
-    <row r="312" customHeight="1" spans="1:26">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="10"/>
       <c r="B312" s="9"/>
       <c r="C312" s="4"/>
@@ -9830,7 +9219,7 @@
       <c r="Y312" s="6"/>
       <c r="Z312" s="6"/>
     </row>
-    <row r="313" customHeight="1" spans="1:26">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1">
       <c r="A313" s="10"/>
       <c r="B313" s="9"/>
       <c r="C313" s="4"/>
@@ -9858,7 +9247,7 @@
       <c r="Y313" s="6"/>
       <c r="Z313" s="6"/>
     </row>
-    <row r="314" customHeight="1" spans="1:26">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1">
       <c r="A314" s="10"/>
       <c r="B314" s="9"/>
       <c r="C314" s="4"/>
@@ -9886,7 +9275,7 @@
       <c r="Y314" s="6"/>
       <c r="Z314" s="6"/>
     </row>
-    <row r="315" customHeight="1" spans="1:26">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="10"/>
       <c r="B315" s="9"/>
       <c r="C315" s="4"/>
@@ -9914,7 +9303,7 @@
       <c r="Y315" s="6"/>
       <c r="Z315" s="6"/>
     </row>
-    <row r="316" customHeight="1" spans="1:26">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1">
       <c r="A316" s="10"/>
       <c r="B316" s="9"/>
       <c r="C316" s="4"/>
@@ -9942,7 +9331,7 @@
       <c r="Y316" s="6"/>
       <c r="Z316" s="6"/>
     </row>
-    <row r="317" customHeight="1" spans="1:26">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1">
       <c r="A317" s="10"/>
       <c r="B317" s="9"/>
       <c r="C317" s="4"/>
@@ -9970,7 +9359,7 @@
       <c r="Y317" s="6"/>
       <c r="Z317" s="6"/>
     </row>
-    <row r="318" customHeight="1" spans="1:26">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1">
       <c r="A318" s="10"/>
       <c r="B318" s="9"/>
       <c r="C318" s="4"/>
@@ -9998,7 +9387,7 @@
       <c r="Y318" s="6"/>
       <c r="Z318" s="6"/>
     </row>
-    <row r="319" customHeight="1" spans="1:26">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1">
       <c r="A319" s="10"/>
       <c r="B319" s="9"/>
       <c r="C319" s="4"/>
@@ -10026,7 +9415,7 @@
       <c r="Y319" s="6"/>
       <c r="Z319" s="6"/>
     </row>
-    <row r="320" customHeight="1" spans="1:26">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1">
       <c r="A320" s="10"/>
       <c r="B320" s="9"/>
       <c r="C320" s="4"/>
@@ -10054,7 +9443,7 @@
       <c r="Y320" s="6"/>
       <c r="Z320" s="6"/>
     </row>
-    <row r="321" customHeight="1" spans="1:26">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1">
       <c r="A321" s="10"/>
       <c r="B321" s="9"/>
       <c r="C321" s="4"/>
@@ -10082,7 +9471,7 @@
       <c r="Y321" s="6"/>
       <c r="Z321" s="6"/>
     </row>
-    <row r="322" customHeight="1" spans="1:26">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1">
       <c r="A322" s="10"/>
       <c r="B322" s="9"/>
       <c r="C322" s="4"/>
@@ -10110,7 +9499,7 @@
       <c r="Y322" s="6"/>
       <c r="Z322" s="6"/>
     </row>
-    <row r="323" customHeight="1" spans="1:26">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1">
       <c r="A323" s="10"/>
       <c r="B323" s="9"/>
       <c r="C323" s="4"/>
@@ -10138,7 +9527,7 @@
       <c r="Y323" s="6"/>
       <c r="Z323" s="6"/>
     </row>
-    <row r="324" customHeight="1" spans="1:26">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1">
       <c r="A324" s="10"/>
       <c r="B324" s="9"/>
       <c r="C324" s="4"/>
@@ -10166,7 +9555,7 @@
       <c r="Y324" s="6"/>
       <c r="Z324" s="6"/>
     </row>
-    <row r="325" customHeight="1" spans="1:26">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1">
       <c r="A325" s="10"/>
       <c r="B325" s="9"/>
       <c r="C325" s="4"/>
@@ -10194,7 +9583,7 @@
       <c r="Y325" s="6"/>
       <c r="Z325" s="6"/>
     </row>
-    <row r="326" customHeight="1" spans="1:26">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1">
       <c r="A326" s="10"/>
       <c r="B326" s="9"/>
       <c r="C326" s="4"/>
@@ -10222,7 +9611,7 @@
       <c r="Y326" s="6"/>
       <c r="Z326" s="6"/>
     </row>
-    <row r="327" customHeight="1" spans="1:26">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1">
       <c r="A327" s="10"/>
       <c r="B327" s="9"/>
       <c r="C327" s="4"/>
@@ -10250,7 +9639,7 @@
       <c r="Y327" s="6"/>
       <c r="Z327" s="6"/>
     </row>
-    <row r="328" customHeight="1" spans="1:26">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="9"/>
       <c r="C328" s="4"/>
@@ -10278,7 +9667,7 @@
       <c r="Y328" s="6"/>
       <c r="Z328" s="6"/>
     </row>
-    <row r="329" customHeight="1" spans="1:26">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1">
       <c r="A329" s="10"/>
       <c r="B329" s="9"/>
       <c r="C329" s="4"/>
@@ -10306,7 +9695,7 @@
       <c r="Y329" s="6"/>
       <c r="Z329" s="6"/>
     </row>
-    <row r="330" customHeight="1" spans="1:26">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1">
       <c r="A330" s="10"/>
       <c r="B330" s="9"/>
       <c r="C330" s="4"/>
@@ -10334,7 +9723,7 @@
       <c r="Y330" s="6"/>
       <c r="Z330" s="6"/>
     </row>
-    <row r="331" customHeight="1" spans="1:26">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1">
       <c r="A331" s="10"/>
       <c r="B331" s="9"/>
       <c r="C331" s="4"/>
@@ -10362,7 +9751,7 @@
       <c r="Y331" s="6"/>
       <c r="Z331" s="6"/>
     </row>
-    <row r="332" customHeight="1" spans="1:26">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1">
       <c r="A332" s="10"/>
       <c r="B332" s="9"/>
       <c r="C332" s="4"/>
@@ -10390,7 +9779,7 @@
       <c r="Y332" s="6"/>
       <c r="Z332" s="6"/>
     </row>
-    <row r="333" customHeight="1" spans="1:26">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1">
       <c r="A333" s="10"/>
       <c r="B333" s="9"/>
       <c r="C333" s="4"/>
@@ -10418,7 +9807,7 @@
       <c r="Y333" s="6"/>
       <c r="Z333" s="6"/>
     </row>
-    <row r="334" customHeight="1" spans="1:26">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1">
       <c r="A334" s="10"/>
       <c r="B334" s="9"/>
       <c r="C334" s="4"/>
@@ -10446,7 +9835,7 @@
       <c r="Y334" s="6"/>
       <c r="Z334" s="6"/>
     </row>
-    <row r="335" customHeight="1" spans="1:26">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1">
       <c r="A335" s="10"/>
       <c r="B335" s="9"/>
       <c r="C335" s="4"/>
@@ -10474,7 +9863,7 @@
       <c r="Y335" s="6"/>
       <c r="Z335" s="6"/>
     </row>
-    <row r="336" customHeight="1" spans="1:26">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1">
       <c r="A336" s="10"/>
       <c r="B336" s="9"/>
       <c r="C336" s="4"/>
@@ -10502,7 +9891,7 @@
       <c r="Y336" s="6"/>
       <c r="Z336" s="6"/>
     </row>
-    <row r="337" customHeight="1" spans="1:26">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1">
       <c r="A337" s="10"/>
       <c r="B337" s="9"/>
       <c r="C337" s="4"/>
@@ -10530,7 +9919,7 @@
       <c r="Y337" s="6"/>
       <c r="Z337" s="6"/>
     </row>
-    <row r="338" customHeight="1" spans="1:26">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1">
       <c r="A338" s="10"/>
       <c r="B338" s="9"/>
       <c r="C338" s="4"/>
@@ -10558,7 +9947,7 @@
       <c r="Y338" s="6"/>
       <c r="Z338" s="6"/>
     </row>
-    <row r="339" customHeight="1" spans="1:26">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1">
       <c r="A339" s="10"/>
       <c r="B339" s="9"/>
       <c r="C339" s="4"/>
@@ -10586,7 +9975,7 @@
       <c r="Y339" s="6"/>
       <c r="Z339" s="6"/>
     </row>
-    <row r="340" customHeight="1" spans="1:26">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1">
       <c r="A340" s="10"/>
       <c r="B340" s="9"/>
       <c r="C340" s="4"/>
@@ -10614,7 +10003,7 @@
       <c r="Y340" s="6"/>
       <c r="Z340" s="6"/>
     </row>
-    <row r="341" customHeight="1" spans="1:26">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1">
       <c r="A341" s="10"/>
       <c r="B341" s="9"/>
       <c r="C341" s="4"/>
@@ -10642,7 +10031,7 @@
       <c r="Y341" s="6"/>
       <c r="Z341" s="6"/>
     </row>
-    <row r="342" customHeight="1" spans="1:26">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1">
       <c r="A342" s="10"/>
       <c r="B342" s="9"/>
       <c r="C342" s="4"/>
@@ -10670,7 +10059,7 @@
       <c r="Y342" s="6"/>
       <c r="Z342" s="6"/>
     </row>
-    <row r="343" customHeight="1" spans="1:26">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1">
       <c r="A343" s="10"/>
       <c r="B343" s="9"/>
       <c r="C343" s="4"/>
@@ -10698,7 +10087,7 @@
       <c r="Y343" s="6"/>
       <c r="Z343" s="6"/>
     </row>
-    <row r="344" customHeight="1" spans="1:26">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1">
       <c r="A344" s="10"/>
       <c r="B344" s="9"/>
       <c r="C344" s="4"/>
@@ -10726,7 +10115,7 @@
       <c r="Y344" s="6"/>
       <c r="Z344" s="6"/>
     </row>
-    <row r="345" customHeight="1" spans="1:26">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1">
       <c r="A345" s="10"/>
       <c r="B345" s="9"/>
       <c r="C345" s="4"/>
@@ -10754,7 +10143,7 @@
       <c r="Y345" s="6"/>
       <c r="Z345" s="6"/>
     </row>
-    <row r="346" customHeight="1" spans="1:26">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1">
       <c r="A346" s="10"/>
       <c r="B346" s="9"/>
       <c r="C346" s="4"/>
@@ -10782,7 +10171,7 @@
       <c r="Y346" s="6"/>
       <c r="Z346" s="6"/>
     </row>
-    <row r="347" customHeight="1" spans="1:26">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1">
       <c r="A347" s="10"/>
       <c r="B347" s="9"/>
       <c r="C347" s="4"/>
@@ -10810,7 +10199,7 @@
       <c r="Y347" s="6"/>
       <c r="Z347" s="6"/>
     </row>
-    <row r="348" customHeight="1" spans="1:26">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1">
       <c r="A348" s="10"/>
       <c r="B348" s="9"/>
       <c r="C348" s="4"/>
@@ -10838,7 +10227,7 @@
       <c r="Y348" s="6"/>
       <c r="Z348" s="6"/>
     </row>
-    <row r="349" customHeight="1" spans="1:26">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1">
       <c r="A349" s="10"/>
       <c r="B349" s="9"/>
       <c r="C349" s="4"/>
@@ -10866,7 +10255,7 @@
       <c r="Y349" s="6"/>
       <c r="Z349" s="6"/>
     </row>
-    <row r="350" customHeight="1" spans="1:26">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1">
       <c r="A350" s="10"/>
       <c r="B350" s="9"/>
       <c r="C350" s="4"/>
@@ -10894,7 +10283,7 @@
       <c r="Y350" s="6"/>
       <c r="Z350" s="6"/>
     </row>
-    <row r="351" customHeight="1" spans="1:26">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1">
       <c r="A351" s="10"/>
       <c r="B351" s="9"/>
       <c r="C351" s="4"/>
@@ -10922,7 +10311,7 @@
       <c r="Y351" s="6"/>
       <c r="Z351" s="6"/>
     </row>
-    <row r="352" customHeight="1" spans="1:26">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1">
       <c r="A352" s="10"/>
       <c r="B352" s="9"/>
       <c r="C352" s="4"/>
@@ -10950,7 +10339,7 @@
       <c r="Y352" s="6"/>
       <c r="Z352" s="6"/>
     </row>
-    <row r="353" customHeight="1" spans="1:26">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1">
       <c r="A353" s="10"/>
       <c r="B353" s="9"/>
       <c r="C353" s="4"/>
@@ -10978,7 +10367,7 @@
       <c r="Y353" s="6"/>
       <c r="Z353" s="6"/>
     </row>
-    <row r="354" customHeight="1" spans="1:26">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1">
       <c r="A354" s="10"/>
       <c r="B354" s="9"/>
       <c r="C354" s="4"/>
@@ -11006,7 +10395,7 @@
       <c r="Y354" s="6"/>
       <c r="Z354" s="6"/>
     </row>
-    <row r="355" customHeight="1" spans="1:26">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1">
       <c r="A355" s="10"/>
       <c r="B355" s="9"/>
       <c r="C355" s="4"/>
@@ -11034,7 +10423,7 @@
       <c r="Y355" s="6"/>
       <c r="Z355" s="6"/>
     </row>
-    <row r="356" customHeight="1" spans="1:26">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1">
       <c r="A356" s="10"/>
       <c r="B356" s="9"/>
       <c r="C356" s="4"/>
@@ -11062,7 +10451,7 @@
       <c r="Y356" s="6"/>
       <c r="Z356" s="6"/>
     </row>
-    <row r="357" customHeight="1" spans="1:26">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1">
       <c r="A357" s="10"/>
       <c r="B357" s="9"/>
       <c r="C357" s="4"/>
@@ -11090,7 +10479,7 @@
       <c r="Y357" s="6"/>
       <c r="Z357" s="6"/>
     </row>
-    <row r="358" customHeight="1" spans="1:26">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="9"/>
       <c r="C358" s="4"/>
@@ -11118,7 +10507,7 @@
       <c r="Y358" s="6"/>
       <c r="Z358" s="6"/>
     </row>
-    <row r="359" customHeight="1" spans="1:26">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1">
       <c r="A359" s="10"/>
       <c r="B359" s="9"/>
       <c r="C359" s="4"/>
@@ -11146,7 +10535,7 @@
       <c r="Y359" s="6"/>
       <c r="Z359" s="6"/>
     </row>
-    <row r="360" customHeight="1" spans="1:26">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1">
       <c r="A360" s="10"/>
       <c r="B360" s="9"/>
       <c r="C360" s="4"/>
@@ -11174,7 +10563,7 @@
       <c r="Y360" s="6"/>
       <c r="Z360" s="6"/>
     </row>
-    <row r="361" customHeight="1" spans="1:26">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1">
       <c r="A361" s="10"/>
       <c r="B361" s="9"/>
       <c r="C361" s="4"/>
@@ -11202,7 +10591,7 @@
       <c r="Y361" s="6"/>
       <c r="Z361" s="6"/>
     </row>
-    <row r="362" customHeight="1" spans="1:26">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1">
       <c r="A362" s="10"/>
       <c r="B362" s="9"/>
       <c r="C362" s="4"/>
@@ -11230,7 +10619,7 @@
       <c r="Y362" s="6"/>
       <c r="Z362" s="6"/>
     </row>
-    <row r="363" customHeight="1" spans="1:26">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1">
       <c r="A363" s="10"/>
       <c r="B363" s="9"/>
       <c r="C363" s="4"/>
@@ -11258,7 +10647,7 @@
       <c r="Y363" s="6"/>
       <c r="Z363" s="6"/>
     </row>
-    <row r="364" customHeight="1" spans="1:26">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1">
       <c r="A364" s="10"/>
       <c r="B364" s="9"/>
       <c r="C364" s="4"/>
@@ -11286,7 +10675,7 @@
       <c r="Y364" s="6"/>
       <c r="Z364" s="6"/>
     </row>
-    <row r="365" customHeight="1" spans="1:26">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1">
       <c r="A365" s="10"/>
       <c r="B365" s="9"/>
       <c r="C365" s="4"/>
@@ -11314,7 +10703,7 @@
       <c r="Y365" s="6"/>
       <c r="Z365" s="6"/>
     </row>
-    <row r="366" customHeight="1" spans="1:26">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1">
       <c r="A366" s="10"/>
       <c r="B366" s="9"/>
       <c r="C366" s="4"/>
@@ -11342,7 +10731,7 @@
       <c r="Y366" s="6"/>
       <c r="Z366" s="6"/>
     </row>
-    <row r="367" customHeight="1" spans="1:26">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1">
       <c r="A367" s="10"/>
       <c r="B367" s="9"/>
       <c r="C367" s="4"/>
@@ -11370,7 +10759,7 @@
       <c r="Y367" s="6"/>
       <c r="Z367" s="6"/>
     </row>
-    <row r="368" customHeight="1" spans="1:26">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1">
       <c r="A368" s="10"/>
       <c r="B368" s="9"/>
       <c r="C368" s="4"/>
@@ -11398,7 +10787,7 @@
       <c r="Y368" s="6"/>
       <c r="Z368" s="6"/>
     </row>
-    <row r="369" customHeight="1" spans="1:26">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1">
       <c r="A369" s="10"/>
       <c r="B369" s="9"/>
       <c r="C369" s="4"/>
@@ -11426,7 +10815,7 @@
       <c r="Y369" s="6"/>
       <c r="Z369" s="6"/>
     </row>
-    <row r="370" customHeight="1" spans="1:26">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1">
       <c r="A370" s="10"/>
       <c r="B370" s="9"/>
       <c r="C370" s="4"/>
@@ -11454,7 +10843,7 @@
       <c r="Y370" s="6"/>
       <c r="Z370" s="6"/>
     </row>
-    <row r="371" customHeight="1" spans="1:26">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1">
       <c r="A371" s="10"/>
       <c r="B371" s="9"/>
       <c r="C371" s="4"/>
@@ -11482,7 +10871,7 @@
       <c r="Y371" s="6"/>
       <c r="Z371" s="6"/>
     </row>
-    <row r="372" customHeight="1" spans="1:26">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1">
       <c r="A372" s="10"/>
       <c r="B372" s="9"/>
       <c r="C372" s="4"/>
@@ -11510,7 +10899,7 @@
       <c r="Y372" s="6"/>
       <c r="Z372" s="6"/>
     </row>
-    <row r="373" customHeight="1" spans="1:26">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1">
       <c r="A373" s="10"/>
       <c r="B373" s="9"/>
       <c r="C373" s="4"/>
@@ -11538,7 +10927,7 @@
       <c r="Y373" s="6"/>
       <c r="Z373" s="6"/>
     </row>
-    <row r="374" customHeight="1" spans="1:26">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1">
       <c r="A374" s="10"/>
       <c r="B374" s="9"/>
       <c r="C374" s="4"/>
@@ -11566,7 +10955,7 @@
       <c r="Y374" s="6"/>
       <c r="Z374" s="6"/>
     </row>
-    <row r="375" customHeight="1" spans="1:26">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1">
       <c r="A375" s="10"/>
       <c r="B375" s="9"/>
       <c r="C375" s="4"/>
@@ -11594,7 +10983,7 @@
       <c r="Y375" s="6"/>
       <c r="Z375" s="6"/>
     </row>
-    <row r="376" customHeight="1" spans="1:26">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1">
       <c r="A376" s="10"/>
       <c r="B376" s="9"/>
       <c r="C376" s="4"/>
@@ -11622,7 +11011,7 @@
       <c r="Y376" s="6"/>
       <c r="Z376" s="6"/>
     </row>
-    <row r="377" customHeight="1" spans="1:26">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1">
       <c r="A377" s="10"/>
       <c r="B377" s="9"/>
       <c r="C377" s="4"/>
@@ -11650,7 +11039,7 @@
       <c r="Y377" s="6"/>
       <c r="Z377" s="6"/>
     </row>
-    <row r="378" customHeight="1" spans="1:26">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1">
       <c r="A378" s="10"/>
       <c r="B378" s="9"/>
       <c r="C378" s="4"/>
@@ -11678,7 +11067,7 @@
       <c r="Y378" s="6"/>
       <c r="Z378" s="6"/>
     </row>
-    <row r="379" customHeight="1" spans="1:26">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1">
       <c r="A379" s="10"/>
       <c r="B379" s="9"/>
       <c r="C379" s="4"/>
@@ -11706,7 +11095,7 @@
       <c r="Y379" s="6"/>
       <c r="Z379" s="6"/>
     </row>
-    <row r="380" customHeight="1" spans="1:26">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1">
       <c r="A380" s="10"/>
       <c r="B380" s="9"/>
       <c r="C380" s="4"/>
@@ -11734,7 +11123,7 @@
       <c r="Y380" s="6"/>
       <c r="Z380" s="6"/>
     </row>
-    <row r="381" customHeight="1" spans="1:26">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1">
       <c r="A381" s="10"/>
       <c r="B381" s="9"/>
       <c r="C381" s="4"/>
@@ -11762,7 +11151,7 @@
       <c r="Y381" s="6"/>
       <c r="Z381" s="6"/>
     </row>
-    <row r="382" customHeight="1" spans="1:26">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1">
       <c r="A382" s="10"/>
       <c r="B382" s="9"/>
       <c r="C382" s="4"/>
@@ -11790,7 +11179,7 @@
       <c r="Y382" s="6"/>
       <c r="Z382" s="6"/>
     </row>
-    <row r="383" customHeight="1" spans="1:26">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1">
       <c r="A383" s="10"/>
       <c r="B383" s="9"/>
       <c r="C383" s="4"/>
@@ -11818,7 +11207,7 @@
       <c r="Y383" s="6"/>
       <c r="Z383" s="6"/>
     </row>
-    <row r="384" customHeight="1" spans="1:26">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1">
       <c r="A384" s="10"/>
       <c r="B384" s="9"/>
       <c r="C384" s="4"/>
@@ -11846,7 +11235,7 @@
       <c r="Y384" s="6"/>
       <c r="Z384" s="6"/>
     </row>
-    <row r="385" customHeight="1" spans="1:26">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1">
       <c r="A385" s="10"/>
       <c r="B385" s="9"/>
       <c r="C385" s="4"/>
@@ -11874,7 +11263,7 @@
       <c r="Y385" s="6"/>
       <c r="Z385" s="6"/>
     </row>
-    <row r="386" customHeight="1" spans="1:26">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1">
       <c r="A386" s="10"/>
       <c r="B386" s="9"/>
       <c r="C386" s="4"/>
@@ -11902,7 +11291,7 @@
       <c r="Y386" s="6"/>
       <c r="Z386" s="6"/>
     </row>
-    <row r="387" customHeight="1" spans="1:26">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1">
       <c r="A387" s="10"/>
       <c r="B387" s="9"/>
       <c r="C387" s="4"/>
@@ -11930,7 +11319,7 @@
       <c r="Y387" s="6"/>
       <c r="Z387" s="6"/>
     </row>
-    <row r="388" customHeight="1" spans="1:26">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1">
       <c r="A388" s="10"/>
       <c r="B388" s="9"/>
       <c r="C388" s="4"/>
@@ -11958,7 +11347,7 @@
       <c r="Y388" s="6"/>
       <c r="Z388" s="6"/>
     </row>
-    <row r="389" customHeight="1" spans="1:26">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1">
       <c r="A389" s="10"/>
       <c r="B389" s="9"/>
       <c r="C389" s="4"/>
@@ -11986,7 +11375,7 @@
       <c r="Y389" s="6"/>
       <c r="Z389" s="6"/>
     </row>
-    <row r="390" customHeight="1" spans="1:26">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1">
       <c r="A390" s="10"/>
       <c r="B390" s="9"/>
       <c r="C390" s="4"/>
@@ -12014,7 +11403,7 @@
       <c r="Y390" s="6"/>
       <c r="Z390" s="6"/>
     </row>
-    <row r="391" customHeight="1" spans="1:26">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1">
       <c r="A391" s="10"/>
       <c r="B391" s="9"/>
       <c r="C391" s="4"/>
@@ -12042,7 +11431,7 @@
       <c r="Y391" s="6"/>
       <c r="Z391" s="6"/>
     </row>
-    <row r="392" customHeight="1" spans="1:26">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1">
       <c r="A392" s="10"/>
       <c r="B392" s="9"/>
       <c r="C392" s="4"/>
@@ -12070,7 +11459,7 @@
       <c r="Y392" s="6"/>
       <c r="Z392" s="6"/>
     </row>
-    <row r="393" customHeight="1" spans="1:26">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1">
       <c r="A393" s="10"/>
       <c r="B393" s="9"/>
       <c r="C393" s="4"/>
@@ -12098,7 +11487,7 @@
       <c r="Y393" s="6"/>
       <c r="Z393" s="6"/>
     </row>
-    <row r="394" customHeight="1" spans="1:26">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1">
       <c r="A394" s="10"/>
       <c r="B394" s="9"/>
       <c r="C394" s="4"/>
@@ -12126,7 +11515,7 @@
       <c r="Y394" s="6"/>
       <c r="Z394" s="6"/>
     </row>
-    <row r="395" customHeight="1" spans="1:26">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1">
       <c r="A395" s="10"/>
       <c r="B395" s="9"/>
       <c r="C395" s="4"/>
@@ -12154,7 +11543,7 @@
       <c r="Y395" s="6"/>
       <c r="Z395" s="6"/>
     </row>
-    <row r="396" customHeight="1" spans="1:26">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1">
       <c r="A396" s="10"/>
       <c r="B396" s="9"/>
       <c r="C396" s="4"/>
@@ -12182,7 +11571,7 @@
       <c r="Y396" s="6"/>
       <c r="Z396" s="6"/>
     </row>
-    <row r="397" customHeight="1" spans="1:26">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="10"/>
       <c r="B397" s="9"/>
       <c r="C397" s="4"/>
@@ -12210,7 +11599,7 @@
       <c r="Y397" s="6"/>
       <c r="Z397" s="6"/>
     </row>
-    <row r="398" customHeight="1" spans="1:26">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="10"/>
       <c r="B398" s="9"/>
       <c r="C398" s="4"/>
@@ -12238,7 +11627,7 @@
       <c r="Y398" s="6"/>
       <c r="Z398" s="6"/>
     </row>
-    <row r="399" customHeight="1" spans="1:26">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1">
       <c r="A399" s="10"/>
       <c r="B399" s="9"/>
       <c r="C399" s="4"/>
@@ -12266,7 +11655,7 @@
       <c r="Y399" s="6"/>
       <c r="Z399" s="6"/>
     </row>
-    <row r="400" customHeight="1" spans="1:26">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1">
       <c r="A400" s="10"/>
       <c r="B400" s="9"/>
       <c r="C400" s="4"/>
@@ -12294,7 +11683,7 @@
       <c r="Y400" s="6"/>
       <c r="Z400" s="6"/>
     </row>
-    <row r="401" customHeight="1" spans="1:26">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1">
       <c r="A401" s="10"/>
       <c r="B401" s="9"/>
       <c r="C401" s="4"/>
@@ -12322,7 +11711,7 @@
       <c r="Y401" s="6"/>
       <c r="Z401" s="6"/>
     </row>
-    <row r="402" customHeight="1" spans="1:26">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1">
       <c r="A402" s="10"/>
       <c r="B402" s="9"/>
       <c r="C402" s="4"/>
@@ -12350,7 +11739,7 @@
       <c r="Y402" s="6"/>
       <c r="Z402" s="6"/>
     </row>
-    <row r="403" customHeight="1" spans="1:26">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1">
       <c r="A403" s="10"/>
       <c r="B403" s="9"/>
       <c r="C403" s="4"/>
@@ -12378,7 +11767,7 @@
       <c r="Y403" s="6"/>
       <c r="Z403" s="6"/>
     </row>
-    <row r="404" customHeight="1" spans="1:26">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1">
       <c r="A404" s="10"/>
       <c r="B404" s="9"/>
       <c r="C404" s="4"/>
@@ -12406,7 +11795,7 @@
       <c r="Y404" s="6"/>
       <c r="Z404" s="6"/>
     </row>
-    <row r="405" customHeight="1" spans="1:26">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1">
       <c r="A405" s="10"/>
       <c r="B405" s="9"/>
       <c r="C405" s="4"/>
@@ -12434,7 +11823,7 @@
       <c r="Y405" s="6"/>
       <c r="Z405" s="6"/>
     </row>
-    <row r="406" customHeight="1" spans="1:26">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1">
       <c r="A406" s="10"/>
       <c r="B406" s="9"/>
       <c r="C406" s="4"/>
@@ -12462,7 +11851,7 @@
       <c r="Y406" s="6"/>
       <c r="Z406" s="6"/>
     </row>
-    <row r="407" customHeight="1" spans="1:26">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1">
       <c r="A407" s="10"/>
       <c r="B407" s="9"/>
       <c r="C407" s="4"/>
@@ -12490,7 +11879,7 @@
       <c r="Y407" s="6"/>
       <c r="Z407" s="6"/>
     </row>
-    <row r="408" customHeight="1" spans="1:26">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1">
       <c r="A408" s="10"/>
       <c r="B408" s="9"/>
       <c r="C408" s="4"/>
@@ -12518,7 +11907,7 @@
       <c r="Y408" s="6"/>
       <c r="Z408" s="6"/>
     </row>
-    <row r="409" customHeight="1" spans="1:26">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1">
       <c r="A409" s="10"/>
       <c r="B409" s="9"/>
       <c r="C409" s="4"/>
@@ -12546,7 +11935,7 @@
       <c r="Y409" s="6"/>
       <c r="Z409" s="6"/>
     </row>
-    <row r="410" customHeight="1" spans="1:26">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1">
       <c r="A410" s="10"/>
       <c r="B410" s="9"/>
       <c r="C410" s="4"/>
@@ -12574,7 +11963,7 @@
       <c r="Y410" s="6"/>
       <c r="Z410" s="6"/>
     </row>
-    <row r="411" customHeight="1" spans="1:26">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1">
       <c r="A411" s="10"/>
       <c r="B411" s="9"/>
       <c r="C411" s="4"/>
@@ -12602,7 +11991,7 @@
       <c r="Y411" s="6"/>
       <c r="Z411" s="6"/>
     </row>
-    <row r="412" customHeight="1" spans="1:26">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1">
       <c r="A412" s="10"/>
       <c r="B412" s="9"/>
       <c r="C412" s="4"/>
@@ -12630,7 +12019,7 @@
       <c r="Y412" s="6"/>
       <c r="Z412" s="6"/>
     </row>
-    <row r="413" customHeight="1" spans="1:26">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1">
       <c r="A413" s="10"/>
       <c r="B413" s="9"/>
       <c r="C413" s="4"/>
@@ -12658,7 +12047,7 @@
       <c r="Y413" s="6"/>
       <c r="Z413" s="6"/>
     </row>
-    <row r="414" customHeight="1" spans="1:26">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1">
       <c r="A414" s="10"/>
       <c r="B414" s="9"/>
       <c r="C414" s="4"/>
@@ -12686,7 +12075,7 @@
       <c r="Y414" s="6"/>
       <c r="Z414" s="6"/>
     </row>
-    <row r="415" customHeight="1" spans="1:26">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1">
       <c r="A415" s="10"/>
       <c r="B415" s="9"/>
       <c r="C415" s="4"/>
@@ -12714,7 +12103,7 @@
       <c r="Y415" s="6"/>
       <c r="Z415" s="6"/>
     </row>
-    <row r="416" customHeight="1" spans="1:26">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1">
       <c r="A416" s="10"/>
       <c r="B416" s="9"/>
       <c r="C416" s="4"/>
@@ -12742,7 +12131,7 @@
       <c r="Y416" s="6"/>
       <c r="Z416" s="6"/>
     </row>
-    <row r="417" customHeight="1" spans="1:26">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1">
       <c r="A417" s="10"/>
       <c r="B417" s="9"/>
       <c r="C417" s="4"/>
@@ -12770,7 +12159,7 @@
       <c r="Y417" s="6"/>
       <c r="Z417" s="6"/>
     </row>
-    <row r="418" customHeight="1" spans="1:26">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1">
       <c r="A418" s="10"/>
       <c r="B418" s="9"/>
       <c r="C418" s="4"/>
@@ -12798,7 +12187,7 @@
       <c r="Y418" s="6"/>
       <c r="Z418" s="6"/>
     </row>
-    <row r="419" customHeight="1" spans="1:26">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1">
       <c r="A419" s="10"/>
       <c r="B419" s="9"/>
       <c r="C419" s="4"/>
@@ -12826,7 +12215,7 @@
       <c r="Y419" s="6"/>
       <c r="Z419" s="6"/>
     </row>
-    <row r="420" customHeight="1" spans="1:26">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1">
       <c r="A420" s="10"/>
       <c r="B420" s="9"/>
       <c r="C420" s="4"/>
@@ -12854,7 +12243,7 @@
       <c r="Y420" s="6"/>
       <c r="Z420" s="6"/>
     </row>
-    <row r="421" customHeight="1" spans="1:26">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1">
       <c r="A421" s="10"/>
       <c r="B421" s="9"/>
       <c r="C421" s="4"/>
@@ -12882,7 +12271,7 @@
       <c r="Y421" s="6"/>
       <c r="Z421" s="6"/>
     </row>
-    <row r="422" customHeight="1" spans="1:26">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1">
       <c r="A422" s="10"/>
       <c r="B422" s="9"/>
       <c r="C422" s="4"/>
@@ -12910,7 +12299,7 @@
       <c r="Y422" s="6"/>
       <c r="Z422" s="6"/>
     </row>
-    <row r="423" customHeight="1" spans="1:26">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1">
       <c r="A423" s="10"/>
       <c r="B423" s="9"/>
       <c r="C423" s="4"/>
@@ -12938,7 +12327,7 @@
       <c r="Y423" s="6"/>
       <c r="Z423" s="6"/>
     </row>
-    <row r="424" customHeight="1" spans="1:26">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1">
       <c r="A424" s="10"/>
       <c r="B424" s="9"/>
       <c r="C424" s="4"/>
@@ -12966,7 +12355,7 @@
       <c r="Y424" s="6"/>
       <c r="Z424" s="6"/>
     </row>
-    <row r="425" customHeight="1" spans="1:26">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1">
       <c r="A425" s="10"/>
       <c r="B425" s="9"/>
       <c r="C425" s="4"/>
@@ -12994,7 +12383,7 @@
       <c r="Y425" s="6"/>
       <c r="Z425" s="6"/>
     </row>
-    <row r="426" customHeight="1" spans="1:26">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1">
       <c r="A426" s="10"/>
       <c r="B426" s="9"/>
       <c r="C426" s="4"/>
@@ -13022,7 +12411,7 @@
       <c r="Y426" s="6"/>
       <c r="Z426" s="6"/>
     </row>
-    <row r="427" customHeight="1" spans="1:26">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1">
       <c r="A427" s="10"/>
       <c r="B427" s="9"/>
       <c r="C427" s="4"/>
@@ -13050,7 +12439,7 @@
       <c r="Y427" s="6"/>
       <c r="Z427" s="6"/>
     </row>
-    <row r="428" customHeight="1" spans="1:26">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1">
       <c r="A428" s="10"/>
       <c r="B428" s="9"/>
       <c r="C428" s="4"/>
@@ -13078,7 +12467,7 @@
       <c r="Y428" s="6"/>
       <c r="Z428" s="6"/>
     </row>
-    <row r="429" customHeight="1" spans="1:26">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1">
       <c r="A429" s="10"/>
       <c r="B429" s="9"/>
       <c r="C429" s="4"/>
@@ -13106,7 +12495,7 @@
       <c r="Y429" s="6"/>
       <c r="Z429" s="6"/>
     </row>
-    <row r="430" customHeight="1" spans="1:26">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1">
       <c r="A430" s="10"/>
       <c r="B430" s="9"/>
       <c r="C430" s="4"/>
@@ -13134,7 +12523,7 @@
       <c r="Y430" s="6"/>
       <c r="Z430" s="6"/>
     </row>
-    <row r="431" customHeight="1" spans="1:26">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1">
       <c r="A431" s="10"/>
       <c r="B431" s="9"/>
       <c r="C431" s="4"/>
@@ -13162,7 +12551,7 @@
       <c r="Y431" s="6"/>
       <c r="Z431" s="6"/>
     </row>
-    <row r="432" customHeight="1" spans="1:26">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1">
       <c r="A432" s="10"/>
       <c r="B432" s="9"/>
       <c r="C432" s="4"/>
@@ -13190,7 +12579,7 @@
       <c r="Y432" s="6"/>
       <c r="Z432" s="6"/>
     </row>
-    <row r="433" customHeight="1" spans="1:26">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1">
       <c r="A433" s="10"/>
       <c r="B433" s="9"/>
       <c r="C433" s="4"/>
@@ -13218,7 +12607,7 @@
       <c r="Y433" s="6"/>
       <c r="Z433" s="6"/>
     </row>
-    <row r="434" customHeight="1" spans="1:26">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1">
       <c r="A434" s="10"/>
       <c r="B434" s="9"/>
       <c r="C434" s="4"/>
@@ -13246,7 +12635,7 @@
       <c r="Y434" s="6"/>
       <c r="Z434" s="6"/>
     </row>
-    <row r="435" customHeight="1" spans="1:26">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1">
       <c r="A435" s="10"/>
       <c r="B435" s="9"/>
       <c r="C435" s="4"/>
@@ -13274,7 +12663,7 @@
       <c r="Y435" s="6"/>
       <c r="Z435" s="6"/>
     </row>
-    <row r="436" customHeight="1" spans="1:26">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1">
       <c r="A436" s="10"/>
       <c r="B436" s="9"/>
       <c r="C436" s="4"/>
@@ -13302,7 +12691,7 @@
       <c r="Y436" s="6"/>
       <c r="Z436" s="6"/>
     </row>
-    <row r="437" customHeight="1" spans="1:26">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1">
       <c r="A437" s="10"/>
       <c r="B437" s="9"/>
       <c r="C437" s="4"/>
@@ -13330,7 +12719,7 @@
       <c r="Y437" s="6"/>
       <c r="Z437" s="6"/>
     </row>
-    <row r="438" customHeight="1" spans="1:26">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1">
       <c r="A438" s="10"/>
       <c r="B438" s="9"/>
       <c r="C438" s="4"/>
@@ -13358,7 +12747,7 @@
       <c r="Y438" s="6"/>
       <c r="Z438" s="6"/>
     </row>
-    <row r="439" customHeight="1" spans="1:26">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1">
       <c r="A439" s="10"/>
       <c r="B439" s="9"/>
       <c r="C439" s="4"/>
@@ -13386,7 +12775,7 @@
       <c r="Y439" s="6"/>
       <c r="Z439" s="6"/>
     </row>
-    <row r="440" customHeight="1" spans="1:26">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1">
       <c r="A440" s="10"/>
       <c r="B440" s="9"/>
       <c r="C440" s="4"/>
@@ -13414,7 +12803,7 @@
       <c r="Y440" s="6"/>
       <c r="Z440" s="6"/>
     </row>
-    <row r="441" customHeight="1" spans="1:26">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1">
       <c r="A441" s="10"/>
       <c r="B441" s="9"/>
       <c r="C441" s="4"/>
@@ -13442,7 +12831,7 @@
       <c r="Y441" s="6"/>
       <c r="Z441" s="6"/>
     </row>
-    <row r="442" customHeight="1" spans="1:26">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1">
       <c r="A442" s="10"/>
       <c r="B442" s="9"/>
       <c r="C442" s="4"/>
@@ -13470,7 +12859,7 @@
       <c r="Y442" s="6"/>
       <c r="Z442" s="6"/>
     </row>
-    <row r="443" customHeight="1" spans="1:26">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1">
       <c r="A443" s="10"/>
       <c r="B443" s="9"/>
       <c r="C443" s="4"/>
@@ -13498,7 +12887,7 @@
       <c r="Y443" s="6"/>
       <c r="Z443" s="6"/>
     </row>
-    <row r="444" customHeight="1" spans="1:26">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1">
       <c r="A444" s="10"/>
       <c r="B444" s="9"/>
       <c r="C444" s="4"/>
@@ -13526,7 +12915,7 @@
       <c r="Y444" s="6"/>
       <c r="Z444" s="6"/>
     </row>
-    <row r="445" customHeight="1" spans="1:26">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1">
       <c r="A445" s="10"/>
       <c r="B445" s="9"/>
       <c r="C445" s="4"/>
@@ -13554,7 +12943,7 @@
       <c r="Y445" s="6"/>
       <c r="Z445" s="6"/>
     </row>
-    <row r="446" customHeight="1" spans="1:26">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1">
       <c r="A446" s="10"/>
       <c r="B446" s="9"/>
       <c r="C446" s="4"/>
@@ -13582,7 +12971,7 @@
       <c r="Y446" s="6"/>
       <c r="Z446" s="6"/>
     </row>
-    <row r="447" customHeight="1" spans="1:26">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1">
       <c r="A447" s="10"/>
       <c r="B447" s="9"/>
       <c r="C447" s="4"/>
@@ -13610,7 +12999,7 @@
       <c r="Y447" s="6"/>
       <c r="Z447" s="6"/>
     </row>
-    <row r="448" customHeight="1" spans="1:26">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1">
       <c r="A448" s="10"/>
       <c r="B448" s="9"/>
       <c r="C448" s="4"/>
@@ -13638,7 +13027,7 @@
       <c r="Y448" s="6"/>
       <c r="Z448" s="6"/>
     </row>
-    <row r="449" customHeight="1" spans="1:26">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1">
       <c r="A449" s="10"/>
       <c r="B449" s="9"/>
       <c r="C449" s="4"/>
@@ -13666,7 +13055,7 @@
       <c r="Y449" s="6"/>
       <c r="Z449" s="6"/>
     </row>
-    <row r="450" customHeight="1" spans="1:26">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1">
       <c r="A450" s="10"/>
       <c r="B450" s="9"/>
       <c r="C450" s="4"/>
@@ -13694,7 +13083,7 @@
       <c r="Y450" s="6"/>
       <c r="Z450" s="6"/>
     </row>
-    <row r="451" customHeight="1" spans="1:26">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1">
       <c r="A451" s="10"/>
       <c r="B451" s="9"/>
       <c r="C451" s="4"/>
@@ -13722,7 +13111,7 @@
       <c r="Y451" s="6"/>
       <c r="Z451" s="6"/>
     </row>
-    <row r="452" customHeight="1" spans="1:26">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1">
       <c r="A452" s="10"/>
       <c r="B452" s="9"/>
       <c r="C452" s="4"/>
@@ -13750,7 +13139,7 @@
       <c r="Y452" s="6"/>
       <c r="Z452" s="6"/>
     </row>
-    <row r="453" customHeight="1" spans="1:26">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1">
       <c r="A453" s="10"/>
       <c r="B453" s="9"/>
       <c r="C453" s="4"/>
@@ -13778,7 +13167,7 @@
       <c r="Y453" s="6"/>
       <c r="Z453" s="6"/>
     </row>
-    <row r="454" customHeight="1" spans="1:26">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1">
       <c r="A454" s="10"/>
       <c r="B454" s="9"/>
       <c r="C454" s="4"/>
@@ -13806,7 +13195,7 @@
       <c r="Y454" s="6"/>
       <c r="Z454" s="6"/>
     </row>
-    <row r="455" customHeight="1" spans="1:26">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1">
       <c r="A455" s="10"/>
       <c r="B455" s="9"/>
       <c r="C455" s="4"/>
@@ -13834,7 +13223,7 @@
       <c r="Y455" s="6"/>
       <c r="Z455" s="6"/>
     </row>
-    <row r="456" customHeight="1" spans="1:26">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1">
       <c r="A456" s="10"/>
       <c r="B456" s="9"/>
       <c r="C456" s="4"/>
@@ -13862,7 +13251,7 @@
       <c r="Y456" s="6"/>
       <c r="Z456" s="6"/>
     </row>
-    <row r="457" customHeight="1" spans="1:26">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1">
       <c r="A457" s="10"/>
       <c r="B457" s="9"/>
       <c r="C457" s="4"/>
@@ -13890,7 +13279,7 @@
       <c r="Y457" s="6"/>
       <c r="Z457" s="6"/>
     </row>
-    <row r="458" customHeight="1" spans="1:26">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1">
       <c r="A458" s="10"/>
       <c r="B458" s="9"/>
       <c r="C458" s="4"/>
@@ -13918,7 +13307,7 @@
       <c r="Y458" s="6"/>
       <c r="Z458" s="6"/>
     </row>
-    <row r="459" customHeight="1" spans="1:26">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1">
       <c r="A459" s="10"/>
       <c r="B459" s="9"/>
       <c r="C459" s="4"/>
@@ -13946,7 +13335,7 @@
       <c r="Y459" s="6"/>
       <c r="Z459" s="6"/>
     </row>
-    <row r="460" customHeight="1" spans="1:26">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1">
       <c r="A460" s="10"/>
       <c r="B460" s="9"/>
       <c r="C460" s="4"/>
@@ -13974,7 +13363,7 @@
       <c r="Y460" s="6"/>
       <c r="Z460" s="6"/>
     </row>
-    <row r="461" customHeight="1" spans="1:26">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1">
       <c r="A461" s="10"/>
       <c r="B461" s="9"/>
       <c r="C461" s="4"/>
@@ -14002,7 +13391,7 @@
       <c r="Y461" s="6"/>
       <c r="Z461" s="6"/>
     </row>
-    <row r="462" customHeight="1" spans="1:26">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1">
       <c r="A462" s="10"/>
       <c r="B462" s="9"/>
       <c r="C462" s="4"/>
@@ -14030,7 +13419,7 @@
       <c r="Y462" s="6"/>
       <c r="Z462" s="6"/>
     </row>
-    <row r="463" customHeight="1" spans="1:26">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1">
       <c r="A463" s="10"/>
       <c r="B463" s="9"/>
       <c r="C463" s="4"/>
@@ -14058,7 +13447,7 @@
       <c r="Y463" s="6"/>
       <c r="Z463" s="6"/>
     </row>
-    <row r="464" customHeight="1" spans="1:26">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1">
       <c r="A464" s="10"/>
       <c r="B464" s="9"/>
       <c r="C464" s="4"/>
@@ -14086,7 +13475,7 @@
       <c r="Y464" s="6"/>
       <c r="Z464" s="6"/>
     </row>
-    <row r="465" customHeight="1" spans="1:26">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1">
       <c r="A465" s="10"/>
       <c r="B465" s="9"/>
       <c r="C465" s="4"/>
@@ -14114,7 +13503,7 @@
       <c r="Y465" s="6"/>
       <c r="Z465" s="6"/>
     </row>
-    <row r="466" customHeight="1" spans="1:26">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1">
       <c r="A466" s="10"/>
       <c r="B466" s="9"/>
       <c r="C466" s="4"/>
@@ -14142,7 +13531,7 @@
       <c r="Y466" s="6"/>
       <c r="Z466" s="6"/>
     </row>
-    <row r="467" customHeight="1" spans="1:26">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1">
       <c r="A467" s="10"/>
       <c r="B467" s="9"/>
       <c r="C467" s="4"/>
@@ -14170,7 +13559,7 @@
       <c r="Y467" s="6"/>
       <c r="Z467" s="6"/>
     </row>
-    <row r="468" customHeight="1" spans="1:26">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1">
       <c r="A468" s="10"/>
       <c r="B468" s="9"/>
       <c r="C468" s="4"/>
@@ -14198,7 +13587,7 @@
       <c r="Y468" s="6"/>
       <c r="Z468" s="6"/>
     </row>
-    <row r="469" customHeight="1" spans="1:26">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1">
       <c r="A469" s="10"/>
       <c r="B469" s="9"/>
       <c r="C469" s="4"/>
@@ -14226,7 +13615,7 @@
       <c r="Y469" s="6"/>
       <c r="Z469" s="6"/>
     </row>
-    <row r="470" customHeight="1" spans="1:26">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1">
       <c r="A470" s="10"/>
       <c r="B470" s="9"/>
       <c r="C470" s="4"/>
@@ -14254,7 +13643,7 @@
       <c r="Y470" s="6"/>
       <c r="Z470" s="6"/>
     </row>
-    <row r="471" customHeight="1" spans="1:26">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1">
       <c r="A471" s="10"/>
       <c r="B471" s="9"/>
       <c r="C471" s="4"/>
@@ -14282,7 +13671,7 @@
       <c r="Y471" s="6"/>
       <c r="Z471" s="6"/>
     </row>
-    <row r="472" customHeight="1" spans="1:26">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1">
       <c r="A472" s="10"/>
       <c r="B472" s="9"/>
       <c r="C472" s="4"/>
@@ -14310,7 +13699,7 @@
       <c r="Y472" s="6"/>
       <c r="Z472" s="6"/>
     </row>
-    <row r="473" customHeight="1" spans="1:26">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1">
       <c r="A473" s="10"/>
       <c r="B473" s="9"/>
       <c r="C473" s="4"/>
@@ -14338,7 +13727,7 @@
       <c r="Y473" s="6"/>
       <c r="Z473" s="6"/>
     </row>
-    <row r="474" customHeight="1" spans="1:26">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1">
       <c r="A474" s="10"/>
       <c r="B474" s="9"/>
       <c r="C474" s="4"/>
@@ -14366,7 +13755,7 @@
       <c r="Y474" s="6"/>
       <c r="Z474" s="6"/>
     </row>
-    <row r="475" customHeight="1" spans="1:26">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1">
       <c r="A475" s="10"/>
       <c r="B475" s="9"/>
       <c r="C475" s="4"/>
@@ -14394,7 +13783,7 @@
       <c r="Y475" s="6"/>
       <c r="Z475" s="6"/>
     </row>
-    <row r="476" customHeight="1" spans="1:26">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1">
       <c r="A476" s="10"/>
       <c r="B476" s="9"/>
       <c r="C476" s="4"/>
@@ -14422,7 +13811,7 @@
       <c r="Y476" s="6"/>
       <c r="Z476" s="6"/>
     </row>
-    <row r="477" customHeight="1" spans="1:26">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1">
       <c r="A477" s="10"/>
       <c r="B477" s="9"/>
       <c r="C477" s="4"/>
@@ -14450,7 +13839,7 @@
       <c r="Y477" s="6"/>
       <c r="Z477" s="6"/>
     </row>
-    <row r="478" customHeight="1" spans="1:26">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1">
       <c r="A478" s="10"/>
       <c r="B478" s="9"/>
       <c r="C478" s="4"/>
@@ -14478,7 +13867,7 @@
       <c r="Y478" s="6"/>
       <c r="Z478" s="6"/>
     </row>
-    <row r="479" customHeight="1" spans="1:26">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1">
       <c r="A479" s="10"/>
       <c r="B479" s="9"/>
       <c r="C479" s="4"/>
@@ -14506,7 +13895,7 @@
       <c r="Y479" s="6"/>
       <c r="Z479" s="6"/>
     </row>
-    <row r="480" customHeight="1" spans="1:26">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1">
       <c r="A480" s="10"/>
       <c r="B480" s="9"/>
       <c r="C480" s="4"/>
@@ -14534,7 +13923,7 @@
       <c r="Y480" s="6"/>
       <c r="Z480" s="6"/>
     </row>
-    <row r="481" customHeight="1" spans="1:26">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1">
       <c r="A481" s="10"/>
       <c r="B481" s="9"/>
       <c r="C481" s="4"/>
@@ -14562,7 +13951,7 @@
       <c r="Y481" s="6"/>
       <c r="Z481" s="6"/>
     </row>
-    <row r="482" customHeight="1" spans="1:26">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1">
       <c r="A482" s="10"/>
       <c r="B482" s="9"/>
       <c r="C482" s="4"/>
@@ -14590,7 +13979,7 @@
       <c r="Y482" s="6"/>
       <c r="Z482" s="6"/>
     </row>
-    <row r="483" customHeight="1" spans="1:26">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="9"/>
       <c r="C483" s="4"/>
@@ -14618,7 +14007,7 @@
       <c r="Y483" s="6"/>
       <c r="Z483" s="6"/>
     </row>
-    <row r="484" customHeight="1" spans="1:26">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="9"/>
       <c r="C484" s="4"/>
@@ -14646,7 +14035,7 @@
       <c r="Y484" s="6"/>
       <c r="Z484" s="6"/>
     </row>
-    <row r="485" customHeight="1" spans="1:26">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="9"/>
       <c r="C485" s="4"/>
@@ -14674,7 +14063,7 @@
       <c r="Y485" s="6"/>
       <c r="Z485" s="6"/>
     </row>
-    <row r="486" customHeight="1" spans="1:26">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="9"/>
       <c r="C486" s="4"/>
@@ -14702,7 +14091,7 @@
       <c r="Y486" s="6"/>
       <c r="Z486" s="6"/>
     </row>
-    <row r="487" customHeight="1" spans="1:26">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="9"/>
       <c r="C487" s="4"/>
@@ -14730,7 +14119,7 @@
       <c r="Y487" s="6"/>
       <c r="Z487" s="6"/>
     </row>
-    <row r="488" customHeight="1" spans="1:26">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="9"/>
       <c r="C488" s="4"/>
@@ -14758,7 +14147,7 @@
       <c r="Y488" s="6"/>
       <c r="Z488" s="6"/>
     </row>
-    <row r="489" customHeight="1" spans="1:26">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1">
       <c r="A489" s="10"/>
       <c r="B489" s="9"/>
       <c r="C489" s="4"/>
@@ -14786,7 +14175,7 @@
       <c r="Y489" s="6"/>
       <c r="Z489" s="6"/>
     </row>
-    <row r="490" customHeight="1" spans="1:26">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1">
       <c r="A490" s="10"/>
       <c r="B490" s="9"/>
       <c r="C490" s="4"/>
@@ -14814,7 +14203,7 @@
       <c r="Y490" s="6"/>
       <c r="Z490" s="6"/>
     </row>
-    <row r="491" customHeight="1" spans="1:26">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1">
       <c r="A491" s="10"/>
       <c r="B491" s="9"/>
       <c r="C491" s="4"/>
@@ -14842,7 +14231,7 @@
       <c r="Y491" s="6"/>
       <c r="Z491" s="6"/>
     </row>
-    <row r="492" customHeight="1" spans="1:26">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1">
       <c r="A492" s="10"/>
       <c r="B492" s="9"/>
       <c r="C492" s="4"/>
@@ -14870,7 +14259,7 @@
       <c r="Y492" s="6"/>
       <c r="Z492" s="6"/>
     </row>
-    <row r="493" customHeight="1" spans="1:26">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1">
       <c r="A493" s="10"/>
       <c r="B493" s="9"/>
       <c r="C493" s="4"/>
@@ -14898,7 +14287,7 @@
       <c r="Y493" s="6"/>
       <c r="Z493" s="6"/>
     </row>
-    <row r="494" customHeight="1" spans="1:26">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1">
       <c r="A494" s="10"/>
       <c r="B494" s="9"/>
       <c r="C494" s="4"/>
@@ -14926,7 +14315,7 @@
       <c r="Y494" s="6"/>
       <c r="Z494" s="6"/>
     </row>
-    <row r="495" customHeight="1" spans="1:26">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1">
       <c r="A495" s="10"/>
       <c r="B495" s="9"/>
       <c r="C495" s="4"/>
@@ -14954,7 +14343,7 @@
       <c r="Y495" s="6"/>
       <c r="Z495" s="6"/>
     </row>
-    <row r="496" customHeight="1" spans="1:26">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1">
       <c r="A496" s="10"/>
       <c r="B496" s="9"/>
       <c r="C496" s="4"/>
@@ -14982,7 +14371,7 @@
       <c r="Y496" s="6"/>
       <c r="Z496" s="6"/>
     </row>
-    <row r="497" customHeight="1" spans="1:26">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1">
       <c r="A497" s="10"/>
       <c r="B497" s="9"/>
       <c r="C497" s="4"/>
@@ -15010,7 +14399,7 @@
       <c r="Y497" s="6"/>
       <c r="Z497" s="6"/>
     </row>
-    <row r="498" customHeight="1" spans="1:26">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1">
       <c r="A498" s="10"/>
       <c r="B498" s="9"/>
       <c r="C498" s="4"/>
@@ -15038,7 +14427,7 @@
       <c r="Y498" s="6"/>
       <c r="Z498" s="6"/>
     </row>
-    <row r="499" customHeight="1" spans="1:26">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1">
       <c r="A499" s="10"/>
       <c r="B499" s="9"/>
       <c r="C499" s="4"/>
@@ -15066,7 +14455,7 @@
       <c r="Y499" s="6"/>
       <c r="Z499" s="6"/>
     </row>
-    <row r="500" customHeight="1" spans="1:26">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1">
       <c r="A500" s="10"/>
       <c r="B500" s="9"/>
       <c r="C500" s="4"/>
@@ -15094,7 +14483,7 @@
       <c r="Y500" s="6"/>
       <c r="Z500" s="6"/>
     </row>
-    <row r="501" customHeight="1" spans="1:26">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1">
       <c r="A501" s="10"/>
       <c r="B501" s="9"/>
       <c r="C501" s="4"/>
@@ -15122,7 +14511,7 @@
       <c r="Y501" s="6"/>
       <c r="Z501" s="6"/>
     </row>
-    <row r="502" customHeight="1" spans="1:26">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1">
       <c r="A502" s="10"/>
       <c r="B502" s="9"/>
       <c r="C502" s="4"/>
@@ -15150,7 +14539,7 @@
       <c r="Y502" s="6"/>
       <c r="Z502" s="6"/>
     </row>
-    <row r="503" customHeight="1" spans="1:26">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1">
       <c r="A503" s="10"/>
       <c r="B503" s="9"/>
       <c r="C503" s="4"/>
@@ -15178,7 +14567,7 @@
       <c r="Y503" s="6"/>
       <c r="Z503" s="6"/>
     </row>
-    <row r="504" customHeight="1" spans="1:26">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1">
       <c r="A504" s="10"/>
       <c r="B504" s="9"/>
       <c r="C504" s="4"/>
@@ -15206,7 +14595,7 @@
       <c r="Y504" s="6"/>
       <c r="Z504" s="6"/>
     </row>
-    <row r="505" customHeight="1" spans="1:26">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1">
       <c r="A505" s="10"/>
       <c r="B505" s="9"/>
       <c r="C505" s="4"/>
@@ -15234,7 +14623,7 @@
       <c r="Y505" s="6"/>
       <c r="Z505" s="6"/>
     </row>
-    <row r="506" customHeight="1" spans="1:26">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1">
       <c r="A506" s="10"/>
       <c r="B506" s="9"/>
       <c r="C506" s="4"/>
@@ -15262,7 +14651,7 @@
       <c r="Y506" s="6"/>
       <c r="Z506" s="6"/>
     </row>
-    <row r="507" customHeight="1" spans="1:26">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1">
       <c r="A507" s="10"/>
       <c r="B507" s="9"/>
       <c r="C507" s="4"/>
@@ -15290,7 +14679,7 @@
       <c r="Y507" s="6"/>
       <c r="Z507" s="6"/>
     </row>
-    <row r="508" customHeight="1" spans="1:26">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1">
       <c r="A508" s="10"/>
       <c r="B508" s="9"/>
       <c r="C508" s="4"/>
@@ -15318,7 +14707,7 @@
       <c r="Y508" s="6"/>
       <c r="Z508" s="6"/>
     </row>
-    <row r="509" customHeight="1" spans="1:26">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1">
       <c r="A509" s="10"/>
       <c r="B509" s="9"/>
       <c r="C509" s="4"/>
@@ -15346,7 +14735,7 @@
       <c r="Y509" s="6"/>
       <c r="Z509" s="6"/>
     </row>
-    <row r="510" customHeight="1" spans="1:26">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1">
       <c r="A510" s="10"/>
       <c r="B510" s="9"/>
       <c r="C510" s="4"/>
@@ -15374,7 +14763,7 @@
       <c r="Y510" s="6"/>
       <c r="Z510" s="6"/>
     </row>
-    <row r="511" customHeight="1" spans="1:26">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1">
       <c r="A511" s="10"/>
       <c r="B511" s="9"/>
       <c r="C511" s="4"/>
@@ -15402,7 +14791,7 @@
       <c r="Y511" s="6"/>
       <c r="Z511" s="6"/>
     </row>
-    <row r="512" customHeight="1" spans="1:26">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1">
       <c r="A512" s="10"/>
       <c r="B512" s="9"/>
       <c r="C512" s="4"/>
@@ -15430,7 +14819,7 @@
       <c r="Y512" s="6"/>
       <c r="Z512" s="6"/>
     </row>
-    <row r="513" customHeight="1" spans="1:26">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1">
       <c r="A513" s="10"/>
       <c r="B513" s="9"/>
       <c r="C513" s="4"/>
@@ -15458,7 +14847,7 @@
       <c r="Y513" s="6"/>
       <c r="Z513" s="6"/>
     </row>
-    <row r="514" customHeight="1" spans="1:26">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1">
       <c r="A514" s="10"/>
       <c r="B514" s="9"/>
       <c r="C514" s="4"/>
@@ -15486,7 +14875,7 @@
       <c r="Y514" s="6"/>
       <c r="Z514" s="6"/>
     </row>
-    <row r="515" customHeight="1" spans="1:26">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1">
       <c r="A515" s="10"/>
       <c r="B515" s="9"/>
       <c r="C515" s="4"/>
@@ -15514,7 +14903,7 @@
       <c r="Y515" s="6"/>
       <c r="Z515" s="6"/>
     </row>
-    <row r="516" customHeight="1" spans="1:26">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1">
       <c r="A516" s="10"/>
       <c r="B516" s="9"/>
       <c r="C516" s="4"/>
@@ -15542,7 +14931,7 @@
       <c r="Y516" s="6"/>
       <c r="Z516" s="6"/>
     </row>
-    <row r="517" customHeight="1" spans="1:26">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1">
       <c r="A517" s="10"/>
       <c r="B517" s="9"/>
       <c r="C517" s="4"/>
@@ -15570,7 +14959,7 @@
       <c r="Y517" s="6"/>
       <c r="Z517" s="6"/>
     </row>
-    <row r="518" customHeight="1" spans="1:26">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1">
       <c r="A518" s="10"/>
       <c r="B518" s="9"/>
       <c r="C518" s="4"/>
@@ -15598,7 +14987,7 @@
       <c r="Y518" s="6"/>
       <c r="Z518" s="6"/>
     </row>
-    <row r="519" customHeight="1" spans="1:26">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1">
       <c r="A519" s="10"/>
       <c r="B519" s="9"/>
       <c r="C519" s="4"/>
@@ -15626,7 +15015,7 @@
       <c r="Y519" s="6"/>
       <c r="Z519" s="6"/>
     </row>
-    <row r="520" customHeight="1" spans="1:26">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1">
       <c r="A520" s="10"/>
       <c r="B520" s="9"/>
       <c r="C520" s="4"/>
@@ -15654,7 +15043,7 @@
       <c r="Y520" s="6"/>
       <c r="Z520" s="6"/>
     </row>
-    <row r="521" customHeight="1" spans="1:26">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1">
       <c r="A521" s="10"/>
       <c r="B521" s="9"/>
       <c r="C521" s="4"/>
@@ -15682,7 +15071,7 @@
       <c r="Y521" s="6"/>
       <c r="Z521" s="6"/>
     </row>
-    <row r="522" customHeight="1" spans="1:26">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1">
       <c r="A522" s="10"/>
       <c r="B522" s="9"/>
       <c r="C522" s="4"/>
@@ -15710,7 +15099,7 @@
       <c r="Y522" s="6"/>
       <c r="Z522" s="6"/>
     </row>
-    <row r="523" customHeight="1" spans="1:26">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1">
       <c r="A523" s="10"/>
       <c r="B523" s="9"/>
       <c r="C523" s="4"/>
@@ -15738,7 +15127,7 @@
       <c r="Y523" s="6"/>
       <c r="Z523" s="6"/>
     </row>
-    <row r="524" customHeight="1" spans="1:26">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1">
       <c r="A524" s="10"/>
       <c r="B524" s="9"/>
       <c r="C524" s="4"/>
@@ -15766,7 +15155,7 @@
       <c r="Y524" s="6"/>
       <c r="Z524" s="6"/>
     </row>
-    <row r="525" customHeight="1" spans="1:26">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1">
       <c r="A525" s="10"/>
       <c r="B525" s="9"/>
       <c r="C525" s="4"/>
@@ -15794,7 +15183,7 @@
       <c r="Y525" s="6"/>
       <c r="Z525" s="6"/>
     </row>
-    <row r="526" customHeight="1" spans="1:26">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1">
       <c r="A526" s="10"/>
       <c r="B526" s="9"/>
       <c r="C526" s="4"/>
@@ -15822,7 +15211,7 @@
       <c r="Y526" s="6"/>
       <c r="Z526" s="6"/>
     </row>
-    <row r="527" customHeight="1" spans="1:26">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1">
       <c r="A527" s="10"/>
       <c r="B527" s="9"/>
       <c r="C527" s="4"/>
@@ -15850,7 +15239,7 @@
       <c r="Y527" s="6"/>
       <c r="Z527" s="6"/>
     </row>
-    <row r="528" customHeight="1" spans="1:26">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1">
       <c r="A528" s="10"/>
       <c r="B528" s="9"/>
       <c r="C528" s="4"/>
@@ -15878,7 +15267,7 @@
       <c r="Y528" s="6"/>
       <c r="Z528" s="6"/>
     </row>
-    <row r="529" customHeight="1" spans="1:26">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1">
       <c r="A529" s="10"/>
       <c r="B529" s="9"/>
       <c r="C529" s="4"/>
@@ -15906,7 +15295,7 @@
       <c r="Y529" s="6"/>
       <c r="Z529" s="6"/>
     </row>
-    <row r="530" customHeight="1" spans="1:26">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1">
       <c r="A530" s="10"/>
       <c r="B530" s="9"/>
       <c r="C530" s="4"/>
@@ -15934,7 +15323,7 @@
       <c r="Y530" s="6"/>
       <c r="Z530" s="6"/>
     </row>
-    <row r="531" customHeight="1" spans="1:26">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1">
       <c r="A531" s="10"/>
       <c r="B531" s="9"/>
       <c r="C531" s="4"/>
@@ -15962,7 +15351,7 @@
       <c r="Y531" s="6"/>
       <c r="Z531" s="6"/>
     </row>
-    <row r="532" customHeight="1" spans="1:26">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1">
       <c r="A532" s="10"/>
       <c r="B532" s="9"/>
       <c r="C532" s="4"/>
@@ -15990,7 +15379,7 @@
       <c r="Y532" s="6"/>
       <c r="Z532" s="6"/>
     </row>
-    <row r="533" customHeight="1" spans="1:26">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1">
       <c r="A533" s="10"/>
       <c r="B533" s="9"/>
       <c r="C533" s="4"/>
@@ -16018,7 +15407,7 @@
       <c r="Y533" s="6"/>
       <c r="Z533" s="6"/>
     </row>
-    <row r="534" customHeight="1" spans="1:26">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1">
       <c r="A534" s="10"/>
       <c r="B534" s="9"/>
       <c r="C534" s="4"/>
@@ -16046,7 +15435,7 @@
       <c r="Y534" s="6"/>
       <c r="Z534" s="6"/>
     </row>
-    <row r="535" customHeight="1" spans="1:26">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1">
       <c r="A535" s="10"/>
       <c r="B535" s="9"/>
       <c r="C535" s="4"/>
@@ -16074,7 +15463,7 @@
       <c r="Y535" s="6"/>
       <c r="Z535" s="6"/>
     </row>
-    <row r="536" customHeight="1" spans="1:26">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1">
       <c r="A536" s="10"/>
       <c r="B536" s="9"/>
       <c r="C536" s="4"/>
@@ -16102,7 +15491,7 @@
       <c r="Y536" s="6"/>
       <c r="Z536" s="6"/>
     </row>
-    <row r="537" customHeight="1" spans="1:26">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1">
       <c r="A537" s="10"/>
       <c r="B537" s="9"/>
       <c r="C537" s="4"/>
@@ -16130,7 +15519,7 @@
       <c r="Y537" s="6"/>
       <c r="Z537" s="6"/>
     </row>
-    <row r="538" customHeight="1" spans="1:26">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1">
       <c r="A538" s="10"/>
       <c r="B538" s="9"/>
       <c r="C538" s="4"/>
@@ -16158,7 +15547,7 @@
       <c r="Y538" s="6"/>
       <c r="Z538" s="6"/>
     </row>
-    <row r="539" customHeight="1" spans="1:26">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1">
       <c r="A539" s="10"/>
       <c r="B539" s="9"/>
       <c r="C539" s="4"/>
@@ -16186,7 +15575,7 @@
       <c r="Y539" s="6"/>
       <c r="Z539" s="6"/>
     </row>
-    <row r="540" customHeight="1" spans="1:26">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1">
       <c r="A540" s="10"/>
       <c r="B540" s="9"/>
       <c r="C540" s="4"/>
@@ -16214,7 +15603,7 @@
       <c r="Y540" s="6"/>
       <c r="Z540" s="6"/>
     </row>
-    <row r="541" customHeight="1" spans="1:26">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1">
       <c r="A541" s="10"/>
       <c r="B541" s="9"/>
       <c r="C541" s="4"/>
@@ -16242,7 +15631,7 @@
       <c r="Y541" s="6"/>
       <c r="Z541" s="6"/>
     </row>
-    <row r="542" customHeight="1" spans="1:26">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1">
       <c r="A542" s="10"/>
       <c r="B542" s="9"/>
       <c r="C542" s="4"/>
@@ -16270,7 +15659,7 @@
       <c r="Y542" s="6"/>
       <c r="Z542" s="6"/>
     </row>
-    <row r="543" customHeight="1" spans="1:26">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1">
       <c r="A543" s="10"/>
       <c r="B543" s="9"/>
       <c r="C543" s="4"/>
@@ -16298,7 +15687,7 @@
       <c r="Y543" s="6"/>
       <c r="Z543" s="6"/>
     </row>
-    <row r="544" customHeight="1" spans="1:26">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1">
       <c r="A544" s="10"/>
       <c r="B544" s="9"/>
       <c r="C544" s="4"/>
@@ -16326,7 +15715,7 @@
       <c r="Y544" s="6"/>
       <c r="Z544" s="6"/>
     </row>
-    <row r="545" customHeight="1" spans="1:26">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1">
       <c r="A545" s="10"/>
       <c r="B545" s="9"/>
       <c r="C545" s="4"/>
@@ -16354,7 +15743,7 @@
       <c r="Y545" s="6"/>
       <c r="Z545" s="6"/>
     </row>
-    <row r="546" customHeight="1" spans="1:26">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1">
       <c r="A546" s="10"/>
       <c r="B546" s="9"/>
       <c r="C546" s="4"/>
@@ -16382,7 +15771,7 @@
       <c r="Y546" s="6"/>
       <c r="Z546" s="6"/>
     </row>
-    <row r="547" customHeight="1" spans="1:26">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1">
       <c r="A547" s="10"/>
       <c r="B547" s="9"/>
       <c r="C547" s="4"/>
@@ -16410,7 +15799,7 @@
       <c r="Y547" s="6"/>
       <c r="Z547" s="6"/>
     </row>
-    <row r="548" customHeight="1" spans="1:26">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1">
       <c r="A548" s="10"/>
       <c r="B548" s="9"/>
       <c r="C548" s="4"/>
@@ -16438,7 +15827,7 @@
       <c r="Y548" s="6"/>
       <c r="Z548" s="6"/>
     </row>
-    <row r="549" customHeight="1" spans="1:26">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1">
       <c r="A549" s="10"/>
       <c r="B549" s="9"/>
       <c r="C549" s="4"/>
@@ -16466,7 +15855,7 @@
       <c r="Y549" s="6"/>
       <c r="Z549" s="6"/>
     </row>
-    <row r="550" customHeight="1" spans="1:26">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1">
       <c r="A550" s="10"/>
       <c r="B550" s="9"/>
       <c r="C550" s="4"/>
@@ -16494,7 +15883,7 @@
       <c r="Y550" s="6"/>
       <c r="Z550" s="6"/>
     </row>
-    <row r="551" customHeight="1" spans="1:26">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1">
       <c r="A551" s="10"/>
       <c r="B551" s="9"/>
       <c r="C551" s="4"/>
@@ -16522,7 +15911,7 @@
       <c r="Y551" s="6"/>
       <c r="Z551" s="6"/>
     </row>
-    <row r="552" customHeight="1" spans="1:26">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1">
       <c r="A552" s="10"/>
       <c r="B552" s="9"/>
       <c r="C552" s="4"/>
@@ -16550,7 +15939,7 @@
       <c r="Y552" s="6"/>
       <c r="Z552" s="6"/>
     </row>
-    <row r="553" customHeight="1" spans="1:26">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1">
       <c r="A553" s="10"/>
       <c r="B553" s="9"/>
       <c r="C553" s="4"/>
@@ -16578,7 +15967,7 @@
       <c r="Y553" s="6"/>
       <c r="Z553" s="6"/>
     </row>
-    <row r="554" customHeight="1" spans="1:26">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1">
       <c r="A554" s="10"/>
       <c r="B554" s="9"/>
       <c r="C554" s="4"/>
@@ -16606,7 +15995,7 @@
       <c r="Y554" s="6"/>
       <c r="Z554" s="6"/>
     </row>
-    <row r="555" customHeight="1" spans="1:26">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1">
       <c r="A555" s="10"/>
       <c r="B555" s="9"/>
       <c r="C555" s="4"/>
@@ -16634,7 +16023,7 @@
       <c r="Y555" s="6"/>
       <c r="Z555" s="6"/>
     </row>
-    <row r="556" customHeight="1" spans="1:26">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1">
       <c r="A556" s="10"/>
       <c r="B556" s="9"/>
       <c r="C556" s="4"/>
@@ -16662,7 +16051,7 @@
       <c r="Y556" s="6"/>
       <c r="Z556" s="6"/>
     </row>
-    <row r="557" customHeight="1" spans="1:26">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1">
       <c r="A557" s="10"/>
       <c r="B557" s="9"/>
       <c r="C557" s="4"/>
@@ -16690,7 +16079,7 @@
       <c r="Y557" s="6"/>
       <c r="Z557" s="6"/>
     </row>
-    <row r="558" customHeight="1" spans="1:26">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1">
       <c r="A558" s="10"/>
       <c r="B558" s="9"/>
       <c r="C558" s="4"/>
@@ -16718,7 +16107,7 @@
       <c r="Y558" s="6"/>
       <c r="Z558" s="6"/>
     </row>
-    <row r="559" customHeight="1" spans="1:26">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1">
       <c r="A559" s="10"/>
       <c r="B559" s="9"/>
       <c r="C559" s="4"/>
@@ -16746,7 +16135,7 @@
       <c r="Y559" s="6"/>
       <c r="Z559" s="6"/>
     </row>
-    <row r="560" customHeight="1" spans="1:26">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1">
       <c r="A560" s="10"/>
       <c r="B560" s="9"/>
       <c r="C560" s="4"/>
@@ -16774,7 +16163,7 @@
       <c r="Y560" s="6"/>
       <c r="Z560" s="6"/>
     </row>
-    <row r="561" customHeight="1" spans="1:26">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1">
       <c r="A561" s="10"/>
       <c r="B561" s="9"/>
       <c r="C561" s="4"/>
@@ -16802,7 +16191,7 @@
       <c r="Y561" s="6"/>
       <c r="Z561" s="6"/>
     </row>
-    <row r="562" customHeight="1" spans="1:26">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1">
       <c r="A562" s="10"/>
       <c r="B562" s="9"/>
       <c r="C562" s="4"/>
@@ -16830,7 +16219,7 @@
       <c r="Y562" s="6"/>
       <c r="Z562" s="6"/>
     </row>
-    <row r="563" customHeight="1" spans="1:26">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1">
       <c r="A563" s="10"/>
       <c r="B563" s="9"/>
       <c r="C563" s="4"/>
@@ -16858,7 +16247,7 @@
       <c r="Y563" s="6"/>
       <c r="Z563" s="6"/>
     </row>
-    <row r="564" customHeight="1" spans="1:26">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1">
       <c r="A564" s="10"/>
       <c r="B564" s="9"/>
       <c r="C564" s="4"/>
@@ -16886,7 +16275,7 @@
       <c r="Y564" s="6"/>
       <c r="Z564" s="6"/>
     </row>
-    <row r="565" customHeight="1" spans="1:26">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1">
       <c r="A565" s="10"/>
       <c r="B565" s="9"/>
       <c r="C565" s="4"/>
@@ -16914,7 +16303,7 @@
       <c r="Y565" s="6"/>
       <c r="Z565" s="6"/>
     </row>
-    <row r="566" customHeight="1" spans="1:26">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1">
       <c r="A566" s="10"/>
       <c r="B566" s="9"/>
       <c r="C566" s="4"/>
@@ -16942,7 +16331,7 @@
       <c r="Y566" s="6"/>
       <c r="Z566" s="6"/>
     </row>
-    <row r="567" customHeight="1" spans="1:26">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1">
       <c r="A567" s="10"/>
       <c r="B567" s="9"/>
       <c r="C567" s="4"/>
@@ -16970,7 +16359,7 @@
       <c r="Y567" s="6"/>
       <c r="Z567" s="6"/>
     </row>
-    <row r="568" customHeight="1" spans="1:26">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1">
       <c r="A568" s="10"/>
       <c r="B568" s="9"/>
       <c r="C568" s="4"/>
@@ -16998,7 +16387,7 @@
       <c r="Y568" s="6"/>
       <c r="Z568" s="6"/>
     </row>
-    <row r="569" customHeight="1" spans="1:26">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1">
       <c r="A569" s="10"/>
       <c r="B569" s="9"/>
       <c r="C569" s="4"/>
@@ -17026,7 +16415,7 @@
       <c r="Y569" s="6"/>
       <c r="Z569" s="6"/>
     </row>
-    <row r="570" customHeight="1" spans="1:26">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1">
       <c r="A570" s="10"/>
       <c r="B570" s="9"/>
       <c r="C570" s="4"/>
@@ -17054,7 +16443,7 @@
       <c r="Y570" s="6"/>
       <c r="Z570" s="6"/>
     </row>
-    <row r="571" customHeight="1" spans="1:26">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1">
       <c r="A571" s="10"/>
       <c r="B571" s="9"/>
       <c r="C571" s="4"/>
@@ -17082,7 +16471,7 @@
       <c r="Y571" s="6"/>
       <c r="Z571" s="6"/>
     </row>
-    <row r="572" customHeight="1" spans="1:26">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1">
       <c r="A572" s="10"/>
       <c r="B572" s="9"/>
       <c r="C572" s="4"/>
@@ -17110,7 +16499,7 @@
       <c r="Y572" s="6"/>
       <c r="Z572" s="6"/>
     </row>
-    <row r="573" customHeight="1" spans="1:26">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1">
       <c r="A573" s="10"/>
       <c r="B573" s="9"/>
       <c r="C573" s="4"/>
@@ -17138,7 +16527,7 @@
       <c r="Y573" s="6"/>
       <c r="Z573" s="6"/>
     </row>
-    <row r="574" customHeight="1" spans="1:26">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1">
       <c r="A574" s="10"/>
       <c r="B574" s="9"/>
       <c r="C574" s="4"/>
@@ -17166,7 +16555,7 @@
       <c r="Y574" s="6"/>
       <c r="Z574" s="6"/>
     </row>
-    <row r="575" customHeight="1" spans="1:26">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1">
       <c r="A575" s="10"/>
       <c r="B575" s="9"/>
       <c r="C575" s="4"/>
@@ -17194,7 +16583,7 @@
       <c r="Y575" s="6"/>
       <c r="Z575" s="6"/>
     </row>
-    <row r="576" customHeight="1" spans="1:26">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1">
       <c r="A576" s="10"/>
       <c r="B576" s="9"/>
       <c r="C576" s="4"/>
@@ -17222,7 +16611,7 @@
       <c r="Y576" s="6"/>
       <c r="Z576" s="6"/>
     </row>
-    <row r="577" customHeight="1" spans="1:26">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1">
       <c r="A577" s="10"/>
       <c r="B577" s="9"/>
       <c r="C577" s="4"/>
@@ -17250,7 +16639,7 @@
       <c r="Y577" s="6"/>
       <c r="Z577" s="6"/>
     </row>
-    <row r="578" customHeight="1" spans="1:26">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1">
       <c r="A578" s="10"/>
       <c r="B578" s="9"/>
       <c r="C578" s="4"/>
@@ -17278,7 +16667,7 @@
       <c r="Y578" s="6"/>
       <c r="Z578" s="6"/>
     </row>
-    <row r="579" customHeight="1" spans="1:26">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1">
       <c r="A579" s="10"/>
       <c r="B579" s="9"/>
       <c r="C579" s="4"/>
@@ -17306,7 +16695,7 @@
       <c r="Y579" s="6"/>
       <c r="Z579" s="6"/>
     </row>
-    <row r="580" customHeight="1" spans="1:26">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1">
       <c r="A580" s="10"/>
       <c r="B580" s="9"/>
       <c r="C580" s="4"/>
@@ -17334,7 +16723,7 @@
       <c r="Y580" s="6"/>
       <c r="Z580" s="6"/>
     </row>
-    <row r="581" customHeight="1" spans="1:26">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1">
       <c r="A581" s="10"/>
       <c r="B581" s="9"/>
       <c r="C581" s="4"/>
@@ -17362,7 +16751,7 @@
       <c r="Y581" s="6"/>
       <c r="Z581" s="6"/>
     </row>
-    <row r="582" customHeight="1" spans="1:26">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1">
       <c r="A582" s="10"/>
       <c r="B582" s="9"/>
       <c r="C582" s="4"/>
@@ -17390,7 +16779,7 @@
       <c r="Y582" s="6"/>
       <c r="Z582" s="6"/>
     </row>
-    <row r="583" customHeight="1" spans="1:26">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1">
       <c r="A583" s="10"/>
       <c r="B583" s="9"/>
       <c r="C583" s="4"/>
@@ -17418,7 +16807,7 @@
       <c r="Y583" s="6"/>
       <c r="Z583" s="6"/>
     </row>
-    <row r="584" customHeight="1" spans="1:26">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1">
       <c r="A584" s="10"/>
       <c r="B584" s="9"/>
       <c r="C584" s="4"/>
@@ -17446,7 +16835,7 @@
       <c r="Y584" s="6"/>
       <c r="Z584" s="6"/>
     </row>
-    <row r="585" customHeight="1" spans="1:26">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1">
       <c r="A585" s="10"/>
       <c r="B585" s="9"/>
       <c r="C585" s="4"/>
@@ -17474,7 +16863,7 @@
       <c r="Y585" s="6"/>
       <c r="Z585" s="6"/>
     </row>
-    <row r="586" customHeight="1" spans="1:26">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1">
       <c r="A586" s="10"/>
       <c r="B586" s="9"/>
       <c r="C586" s="4"/>
@@ -17502,7 +16891,7 @@
       <c r="Y586" s="6"/>
       <c r="Z586" s="6"/>
     </row>
-    <row r="587" customHeight="1" spans="1:26">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1">
       <c r="A587" s="10"/>
       <c r="B587" s="9"/>
       <c r="C587" s="4"/>
@@ -17530,7 +16919,7 @@
       <c r="Y587" s="6"/>
       <c r="Z587" s="6"/>
     </row>
-    <row r="588" customHeight="1" spans="1:26">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1">
       <c r="A588" s="10"/>
       <c r="B588" s="9"/>
       <c r="C588" s="4"/>
@@ -17558,7 +16947,7 @@
       <c r="Y588" s="6"/>
       <c r="Z588" s="6"/>
     </row>
-    <row r="589" customHeight="1" spans="1:26">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1">
       <c r="A589" s="10"/>
       <c r="B589" s="9"/>
       <c r="C589" s="4"/>
@@ -17586,7 +16975,7 @@
       <c r="Y589" s="6"/>
       <c r="Z589" s="6"/>
     </row>
-    <row r="590" customHeight="1" spans="1:26">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1">
       <c r="A590" s="10"/>
       <c r="B590" s="9"/>
       <c r="C590" s="4"/>
@@ -17614,7 +17003,7 @@
       <c r="Y590" s="6"/>
       <c r="Z590" s="6"/>
     </row>
-    <row r="591" customHeight="1" spans="1:26">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1">
       <c r="A591" s="10"/>
       <c r="B591" s="9"/>
       <c r="C591" s="4"/>
@@ -17642,7 +17031,7 @@
       <c r="Y591" s="6"/>
       <c r="Z591" s="6"/>
     </row>
-    <row r="592" customHeight="1" spans="1:26">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1">
       <c r="A592" s="10"/>
       <c r="B592" s="9"/>
       <c r="C592" s="4"/>
@@ -17670,7 +17059,7 @@
       <c r="Y592" s="6"/>
       <c r="Z592" s="6"/>
     </row>
-    <row r="593" customHeight="1" spans="1:26">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1">
       <c r="A593" s="10"/>
       <c r="B593" s="9"/>
       <c r="C593" s="4"/>
@@ -17698,7 +17087,7 @@
       <c r="Y593" s="6"/>
       <c r="Z593" s="6"/>
     </row>
-    <row r="594" customHeight="1" spans="1:26">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1">
       <c r="A594" s="10"/>
       <c r="B594" s="9"/>
       <c r="C594" s="4"/>
@@ -17726,7 +17115,7 @@
       <c r="Y594" s="6"/>
       <c r="Z594" s="6"/>
     </row>
-    <row r="595" customHeight="1" spans="1:26">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1">
       <c r="A595" s="10"/>
       <c r="B595" s="9"/>
       <c r="C595" s="4"/>
@@ -17754,7 +17143,7 @@
       <c r="Y595" s="6"/>
       <c r="Z595" s="6"/>
     </row>
-    <row r="596" customHeight="1" spans="1:26">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1">
       <c r="A596" s="10"/>
       <c r="B596" s="9"/>
       <c r="C596" s="4"/>
@@ -17782,7 +17171,7 @@
       <c r="Y596" s="6"/>
       <c r="Z596" s="6"/>
     </row>
-    <row r="597" customHeight="1" spans="1:26">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1">
       <c r="A597" s="10"/>
       <c r="B597" s="9"/>
       <c r="C597" s="4"/>
@@ -17810,7 +17199,7 @@
       <c r="Y597" s="6"/>
       <c r="Z597" s="6"/>
     </row>
-    <row r="598" customHeight="1" spans="1:26">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1">
       <c r="A598" s="10"/>
       <c r="B598" s="9"/>
       <c r="C598" s="4"/>
@@ -17838,7 +17227,7 @@
       <c r="Y598" s="6"/>
       <c r="Z598" s="6"/>
     </row>
-    <row r="599" customHeight="1" spans="1:26">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1">
       <c r="A599" s="10"/>
       <c r="B599" s="9"/>
       <c r="C599" s="4"/>
@@ -17866,7 +17255,7 @@
       <c r="Y599" s="6"/>
       <c r="Z599" s="6"/>
     </row>
-    <row r="600" customHeight="1" spans="1:26">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1">
       <c r="A600" s="10"/>
       <c r="B600" s="9"/>
       <c r="C600" s="4"/>
@@ -17894,7 +17283,7 @@
       <c r="Y600" s="6"/>
       <c r="Z600" s="6"/>
     </row>
-    <row r="601" customHeight="1" spans="1:26">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1">
       <c r="A601" s="10"/>
       <c r="B601" s="9"/>
       <c r="C601" s="4"/>
@@ -17922,7 +17311,7 @@
       <c r="Y601" s="6"/>
       <c r="Z601" s="6"/>
     </row>
-    <row r="602" customHeight="1" spans="1:26">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1">
       <c r="A602" s="10"/>
       <c r="B602" s="9"/>
       <c r="C602" s="4"/>
@@ -17950,7 +17339,7 @@
       <c r="Y602" s="6"/>
       <c r="Z602" s="6"/>
     </row>
-    <row r="603" customHeight="1" spans="1:26">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1">
       <c r="A603" s="10"/>
       <c r="B603" s="9"/>
       <c r="C603" s="4"/>
@@ -17978,7 +17367,7 @@
       <c r="Y603" s="6"/>
       <c r="Z603" s="6"/>
     </row>
-    <row r="604" customHeight="1" spans="1:26">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1">
       <c r="A604" s="10"/>
       <c r="B604" s="9"/>
       <c r="C604" s="4"/>
@@ -18006,7 +17395,7 @@
       <c r="Y604" s="6"/>
       <c r="Z604" s="6"/>
     </row>
-    <row r="605" customHeight="1" spans="1:26">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1">
       <c r="A605" s="10"/>
       <c r="B605" s="9"/>
       <c r="C605" s="4"/>
@@ -18034,7 +17423,7 @@
       <c r="Y605" s="6"/>
       <c r="Z605" s="6"/>
     </row>
-    <row r="606" customHeight="1" spans="1:26">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1">
       <c r="A606" s="10"/>
       <c r="B606" s="9"/>
       <c r="C606" s="4"/>
@@ -18062,7 +17451,7 @@
       <c r="Y606" s="6"/>
       <c r="Z606" s="6"/>
     </row>
-    <row r="607" customHeight="1" spans="1:26">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1">
       <c r="A607" s="10"/>
       <c r="B607" s="9"/>
       <c r="C607" s="4"/>
@@ -18090,7 +17479,7 @@
       <c r="Y607" s="6"/>
       <c r="Z607" s="6"/>
     </row>
-    <row r="608" customHeight="1" spans="1:26">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1">
       <c r="A608" s="10"/>
       <c r="B608" s="9"/>
       <c r="C608" s="4"/>
@@ -18118,7 +17507,7 @@
       <c r="Y608" s="6"/>
       <c r="Z608" s="6"/>
     </row>
-    <row r="609" customHeight="1" spans="1:26">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1">
       <c r="A609" s="10"/>
       <c r="B609" s="9"/>
       <c r="C609" s="4"/>
@@ -18146,7 +17535,7 @@
       <c r="Y609" s="6"/>
       <c r="Z609" s="6"/>
     </row>
-    <row r="610" customHeight="1" spans="1:26">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1">
       <c r="A610" s="10"/>
       <c r="B610" s="9"/>
       <c r="C610" s="4"/>
@@ -18174,7 +17563,7 @@
       <c r="Y610" s="6"/>
       <c r="Z610" s="6"/>
     </row>
-    <row r="611" customHeight="1" spans="1:26">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1">
       <c r="A611" s="10"/>
       <c r="B611" s="9"/>
       <c r="C611" s="4"/>
@@ -18202,7 +17591,7 @@
       <c r="Y611" s="6"/>
       <c r="Z611" s="6"/>
     </row>
-    <row r="612" customHeight="1" spans="1:26">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1">
       <c r="A612" s="10"/>
       <c r="B612" s="9"/>
       <c r="C612" s="4"/>
@@ -18230,7 +17619,7 @@
       <c r="Y612" s="6"/>
       <c r="Z612" s="6"/>
     </row>
-    <row r="613" customHeight="1" spans="1:26">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1">
       <c r="A613" s="10"/>
       <c r="B613" s="9"/>
       <c r="C613" s="4"/>
@@ -18258,7 +17647,7 @@
       <c r="Y613" s="6"/>
       <c r="Z613" s="6"/>
     </row>
-    <row r="614" customHeight="1" spans="1:26">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1">
       <c r="A614" s="10"/>
       <c r="B614" s="9"/>
       <c r="C614" s="4"/>
@@ -18286,7 +17675,7 @@
       <c r="Y614" s="6"/>
       <c r="Z614" s="6"/>
     </row>
-    <row r="615" customHeight="1" spans="1:26">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1">
       <c r="A615" s="10"/>
       <c r="B615" s="9"/>
       <c r="C615" s="4"/>
@@ -18314,7 +17703,7 @@
       <c r="Y615" s="6"/>
       <c r="Z615" s="6"/>
     </row>
-    <row r="616" customHeight="1" spans="1:26">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1">
       <c r="A616" s="10"/>
       <c r="B616" s="9"/>
       <c r="C616" s="4"/>
@@ -18342,7 +17731,7 @@
       <c r="Y616" s="6"/>
       <c r="Z616" s="6"/>
     </row>
-    <row r="617" customHeight="1" spans="1:26">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1">
       <c r="A617" s="10"/>
       <c r="B617" s="9"/>
       <c r="C617" s="4"/>
@@ -18370,7 +17759,7 @@
       <c r="Y617" s="6"/>
       <c r="Z617" s="6"/>
     </row>
-    <row r="618" customHeight="1" spans="1:26">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1">
       <c r="A618" s="10"/>
       <c r="B618" s="9"/>
       <c r="C618" s="4"/>
@@ -18398,7 +17787,7 @@
       <c r="Y618" s="6"/>
       <c r="Z618" s="6"/>
     </row>
-    <row r="619" customHeight="1" spans="1:26">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1">
       <c r="A619" s="10"/>
       <c r="B619" s="9"/>
       <c r="C619" s="4"/>
@@ -18426,7 +17815,7 @@
       <c r="Y619" s="6"/>
       <c r="Z619" s="6"/>
     </row>
-    <row r="620" customHeight="1" spans="1:26">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1">
       <c r="A620" s="10"/>
       <c r="B620" s="9"/>
       <c r="C620" s="4"/>
@@ -18454,7 +17843,7 @@
       <c r="Y620" s="6"/>
       <c r="Z620" s="6"/>
     </row>
-    <row r="621" customHeight="1" spans="1:26">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1">
       <c r="A621" s="10"/>
       <c r="B621" s="9"/>
       <c r="C621" s="4"/>
@@ -18482,7 +17871,7 @@
       <c r="Y621" s="6"/>
       <c r="Z621" s="6"/>
     </row>
-    <row r="622" customHeight="1" spans="1:26">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1">
       <c r="A622" s="10"/>
       <c r="B622" s="9"/>
       <c r="C622" s="4"/>
@@ -18510,7 +17899,7 @@
       <c r="Y622" s="6"/>
       <c r="Z622" s="6"/>
     </row>
-    <row r="623" customHeight="1" spans="1:26">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1">
       <c r="A623" s="10"/>
       <c r="B623" s="9"/>
       <c r="C623" s="4"/>
@@ -18538,7 +17927,7 @@
       <c r="Y623" s="6"/>
       <c r="Z623" s="6"/>
     </row>
-    <row r="624" customHeight="1" spans="1:26">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1">
       <c r="A624" s="10"/>
       <c r="B624" s="9"/>
       <c r="C624" s="4"/>
@@ -18566,7 +17955,7 @@
       <c r="Y624" s="6"/>
       <c r="Z624" s="6"/>
     </row>
-    <row r="625" customHeight="1" spans="1:26">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1">
       <c r="A625" s="10"/>
       <c r="B625" s="9"/>
       <c r="C625" s="4"/>
@@ -18594,7 +17983,7 @@
       <c r="Y625" s="6"/>
       <c r="Z625" s="6"/>
     </row>
-    <row r="626" customHeight="1" spans="1:26">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1">
       <c r="A626" s="10"/>
       <c r="B626" s="9"/>
       <c r="C626" s="4"/>
@@ -18622,7 +18011,7 @@
       <c r="Y626" s="6"/>
       <c r="Z626" s="6"/>
     </row>
-    <row r="627" customHeight="1" spans="1:26">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1">
       <c r="A627" s="10"/>
       <c r="B627" s="9"/>
       <c r="C627" s="4"/>
@@ -18650,7 +18039,7 @@
       <c r="Y627" s="6"/>
       <c r="Z627" s="6"/>
     </row>
-    <row r="628" customHeight="1" spans="1:26">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1">
       <c r="A628" s="10"/>
       <c r="B628" s="9"/>
       <c r="C628" s="4"/>
@@ -18678,7 +18067,7 @@
       <c r="Y628" s="6"/>
       <c r="Z628" s="6"/>
     </row>
-    <row r="629" customHeight="1" spans="1:26">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1">
       <c r="A629" s="10"/>
       <c r="B629" s="9"/>
       <c r="C629" s="4"/>
@@ -18706,7 +18095,7 @@
       <c r="Y629" s="6"/>
       <c r="Z629" s="6"/>
     </row>
-    <row r="630" customHeight="1" spans="1:26">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1">
       <c r="A630" s="10"/>
       <c r="B630" s="9"/>
       <c r="C630" s="4"/>
@@ -18734,7 +18123,7 @@
       <c r="Y630" s="6"/>
       <c r="Z630" s="6"/>
     </row>
-    <row r="631" customHeight="1" spans="1:26">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1">
       <c r="A631" s="10"/>
       <c r="B631" s="9"/>
       <c r="C631" s="4"/>
@@ -18762,7 +18151,7 @@
       <c r="Y631" s="6"/>
       <c r="Z631" s="6"/>
     </row>
-    <row r="632" customHeight="1" spans="1:26">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1">
       <c r="A632" s="10"/>
       <c r="B632" s="9"/>
       <c r="C632" s="4"/>
@@ -18790,7 +18179,7 @@
       <c r="Y632" s="6"/>
       <c r="Z632" s="6"/>
     </row>
-    <row r="633" customHeight="1" spans="1:26">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1">
       <c r="A633" s="10"/>
       <c r="B633" s="9"/>
       <c r="C633" s="4"/>
@@ -18818,7 +18207,7 @@
       <c r="Y633" s="6"/>
       <c r="Z633" s="6"/>
     </row>
-    <row r="634" customHeight="1" spans="1:26">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1">
       <c r="A634" s="10"/>
       <c r="B634" s="9"/>
       <c r="C634" s="4"/>
@@ -18846,7 +18235,7 @@
       <c r="Y634" s="6"/>
       <c r="Z634" s="6"/>
     </row>
-    <row r="635" customHeight="1" spans="1:26">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1">
       <c r="A635" s="10"/>
       <c r="B635" s="9"/>
       <c r="C635" s="4"/>
@@ -18874,7 +18263,7 @@
       <c r="Y635" s="6"/>
       <c r="Z635" s="6"/>
     </row>
-    <row r="636" customHeight="1" spans="1:26">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1">
       <c r="A636" s="10"/>
       <c r="B636" s="9"/>
       <c r="C636" s="4"/>
@@ -18902,7 +18291,7 @@
       <c r="Y636" s="6"/>
       <c r="Z636" s="6"/>
     </row>
-    <row r="637" customHeight="1" spans="1:26">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1">
       <c r="A637" s="10"/>
       <c r="B637" s="9"/>
       <c r="C637" s="4"/>
@@ -18930,7 +18319,7 @@
       <c r="Y637" s="6"/>
       <c r="Z637" s="6"/>
     </row>
-    <row r="638" customHeight="1" spans="1:26">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1">
       <c r="A638" s="10"/>
       <c r="B638" s="9"/>
       <c r="C638" s="4"/>
@@ -18958,7 +18347,7 @@
       <c r="Y638" s="6"/>
       <c r="Z638" s="6"/>
     </row>
-    <row r="639" customHeight="1" spans="1:26">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1">
       <c r="A639" s="10"/>
       <c r="B639" s="9"/>
       <c r="C639" s="4"/>
@@ -18986,7 +18375,7 @@
       <c r="Y639" s="6"/>
       <c r="Z639" s="6"/>
     </row>
-    <row r="640" customHeight="1" spans="1:26">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1">
       <c r="A640" s="10"/>
       <c r="B640" s="9"/>
       <c r="C640" s="4"/>
@@ -19014,7 +18403,7 @@
       <c r="Y640" s="6"/>
       <c r="Z640" s="6"/>
     </row>
-    <row r="641" customHeight="1" spans="1:26">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1">
       <c r="A641" s="10"/>
       <c r="B641" s="9"/>
       <c r="C641" s="4"/>
@@ -19042,7 +18431,7 @@
       <c r="Y641" s="6"/>
       <c r="Z641" s="6"/>
     </row>
-    <row r="642" customHeight="1" spans="1:26">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1">
       <c r="A642" s="10"/>
       <c r="B642" s="9"/>
       <c r="C642" s="4"/>
@@ -19070,7 +18459,7 @@
       <c r="Y642" s="6"/>
       <c r="Z642" s="6"/>
     </row>
-    <row r="643" customHeight="1" spans="1:26">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1">
       <c r="A643" s="10"/>
       <c r="B643" s="9"/>
       <c r="C643" s="4"/>
@@ -19098,7 +18487,7 @@
       <c r="Y643" s="6"/>
       <c r="Z643" s="6"/>
     </row>
-    <row r="644" customHeight="1" spans="1:26">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1">
       <c r="A644" s="10"/>
       <c r="B644" s="9"/>
       <c r="C644" s="4"/>
@@ -19126,7 +18515,7 @@
       <c r="Y644" s="6"/>
       <c r="Z644" s="6"/>
     </row>
-    <row r="645" customHeight="1" spans="1:26">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1">
       <c r="A645" s="10"/>
       <c r="B645" s="9"/>
       <c r="C645" s="4"/>
@@ -19154,7 +18543,7 @@
       <c r="Y645" s="6"/>
       <c r="Z645" s="6"/>
     </row>
-    <row r="646" customHeight="1" spans="1:26">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1">
       <c r="A646" s="10"/>
       <c r="B646" s="9"/>
       <c r="C646" s="4"/>
@@ -19182,7 +18571,7 @@
       <c r="Y646" s="6"/>
       <c r="Z646" s="6"/>
     </row>
-    <row r="647" customHeight="1" spans="1:26">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1">
       <c r="A647" s="10"/>
       <c r="B647" s="9"/>
       <c r="C647" s="4"/>
@@ -19210,7 +18599,7 @@
       <c r="Y647" s="6"/>
       <c r="Z647" s="6"/>
     </row>
-    <row r="648" customHeight="1" spans="1:26">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1">
       <c r="A648" s="10"/>
       <c r="B648" s="9"/>
       <c r="C648" s="4"/>
@@ -19238,7 +18627,7 @@
       <c r="Y648" s="6"/>
       <c r="Z648" s="6"/>
     </row>
-    <row r="649" customHeight="1" spans="1:26">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1">
       <c r="A649" s="10"/>
       <c r="B649" s="9"/>
       <c r="C649" s="4"/>
@@ -19266,7 +18655,7 @@
       <c r="Y649" s="6"/>
       <c r="Z649" s="6"/>
     </row>
-    <row r="650" customHeight="1" spans="1:26">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1">
       <c r="A650" s="10"/>
       <c r="B650" s="9"/>
       <c r="C650" s="4"/>
@@ -19294,7 +18683,7 @@
       <c r="Y650" s="6"/>
       <c r="Z650" s="6"/>
     </row>
-    <row r="651" customHeight="1" spans="1:26">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1">
       <c r="A651" s="10"/>
       <c r="B651" s="9"/>
       <c r="C651" s="4"/>
@@ -19322,7 +18711,7 @@
       <c r="Y651" s="6"/>
       <c r="Z651" s="6"/>
     </row>
-    <row r="652" customHeight="1" spans="1:26">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1">
       <c r="A652" s="10"/>
       <c r="B652" s="9"/>
       <c r="C652" s="4"/>
@@ -19350,7 +18739,7 @@
       <c r="Y652" s="6"/>
       <c r="Z652" s="6"/>
     </row>
-    <row r="653" customHeight="1" spans="1:26">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1">
       <c r="A653" s="10"/>
       <c r="B653" s="9"/>
       <c r="C653" s="4"/>
@@ -19378,7 +18767,7 @@
       <c r="Y653" s="6"/>
       <c r="Z653" s="6"/>
     </row>
-    <row r="654" customHeight="1" spans="1:26">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1">
       <c r="A654" s="10"/>
       <c r="B654" s="9"/>
       <c r="C654" s="4"/>
@@ -19406,7 +18795,7 @@
       <c r="Y654" s="6"/>
       <c r="Z654" s="6"/>
     </row>
-    <row r="655" customHeight="1" spans="1:26">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1">
       <c r="A655" s="10"/>
       <c r="B655" s="9"/>
       <c r="C655" s="4"/>
@@ -19434,7 +18823,7 @@
       <c r="Y655" s="6"/>
       <c r="Z655" s="6"/>
     </row>
-    <row r="656" customHeight="1" spans="1:26">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1">
       <c r="A656" s="10"/>
       <c r="B656" s="9"/>
       <c r="C656" s="4"/>
@@ -19462,7 +18851,7 @@
       <c r="Y656" s="6"/>
       <c r="Z656" s="6"/>
     </row>
-    <row r="657" customHeight="1" spans="1:26">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1">
       <c r="A657" s="10"/>
       <c r="B657" s="9"/>
       <c r="C657" s="4"/>
@@ -19490,7 +18879,7 @@
       <c r="Y657" s="6"/>
       <c r="Z657" s="6"/>
     </row>
-    <row r="658" customHeight="1" spans="1:26">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1">
       <c r="A658" s="10"/>
       <c r="B658" s="9"/>
       <c r="C658" s="4"/>
@@ -19518,7 +18907,7 @@
       <c r="Y658" s="6"/>
       <c r="Z658" s="6"/>
     </row>
-    <row r="659" customHeight="1" spans="1:26">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1">
       <c r="A659" s="10"/>
       <c r="B659" s="9"/>
       <c r="C659" s="4"/>
@@ -19546,7 +18935,7 @@
       <c r="Y659" s="6"/>
       <c r="Z659" s="6"/>
     </row>
-    <row r="660" customHeight="1" spans="1:26">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1">
       <c r="A660" s="10"/>
       <c r="B660" s="9"/>
       <c r="C660" s="4"/>
@@ -19574,7 +18963,7 @@
       <c r="Y660" s="6"/>
       <c r="Z660" s="6"/>
     </row>
-    <row r="661" customHeight="1" spans="1:26">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1">
       <c r="A661" s="10"/>
       <c r="B661" s="9"/>
       <c r="C661" s="4"/>
@@ -19602,7 +18991,7 @@
       <c r="Y661" s="6"/>
       <c r="Z661" s="6"/>
     </row>
-    <row r="662" customHeight="1" spans="1:26">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1">
       <c r="A662" s="10"/>
       <c r="B662" s="9"/>
       <c r="C662" s="4"/>
@@ -19630,7 +19019,7 @@
       <c r="Y662" s="6"/>
       <c r="Z662" s="6"/>
     </row>
-    <row r="663" customHeight="1" spans="1:26">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1">
       <c r="A663" s="10"/>
       <c r="B663" s="9"/>
       <c r="C663" s="4"/>
@@ -19658,7 +19047,7 @@
       <c r="Y663" s="6"/>
       <c r="Z663" s="6"/>
     </row>
-    <row r="664" customHeight="1" spans="1:26">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1">
       <c r="A664" s="10"/>
       <c r="B664" s="9"/>
       <c r="C664" s="4"/>
@@ -19686,7 +19075,7 @@
       <c r="Y664" s="6"/>
       <c r="Z664" s="6"/>
     </row>
-    <row r="665" customHeight="1" spans="1:26">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1">
       <c r="A665" s="10"/>
       <c r="B665" s="9"/>
       <c r="C665" s="4"/>
@@ -19714,7 +19103,7 @@
       <c r="Y665" s="6"/>
       <c r="Z665" s="6"/>
     </row>
-    <row r="666" customHeight="1" spans="1:26">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1">
       <c r="A666" s="10"/>
       <c r="B666" s="9"/>
       <c r="C666" s="4"/>
@@ -19742,7 +19131,7 @@
       <c r="Y666" s="6"/>
       <c r="Z666" s="6"/>
     </row>
-    <row r="667" customHeight="1" spans="1:26">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1">
       <c r="A667" s="10"/>
       <c r="B667" s="9"/>
       <c r="C667" s="4"/>
@@ -19770,7 +19159,7 @@
       <c r="Y667" s="6"/>
       <c r="Z667" s="6"/>
     </row>
-    <row r="668" customHeight="1" spans="1:26">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1">
       <c r="A668" s="10"/>
       <c r="B668" s="9"/>
       <c r="C668" s="4"/>
@@ -19798,7 +19187,7 @@
       <c r="Y668" s="6"/>
       <c r="Z668" s="6"/>
     </row>
-    <row r="669" customHeight="1" spans="1:26">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1">
       <c r="A669" s="10"/>
       <c r="B669" s="9"/>
       <c r="C669" s="4"/>
@@ -19826,7 +19215,7 @@
       <c r="Y669" s="6"/>
       <c r="Z669" s="6"/>
     </row>
-    <row r="670" customHeight="1" spans="1:26">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1">
       <c r="A670" s="10"/>
       <c r="B670" s="9"/>
       <c r="C670" s="4"/>
@@ -19854,7 +19243,7 @@
       <c r="Y670" s="6"/>
       <c r="Z670" s="6"/>
     </row>
-    <row r="671" customHeight="1" spans="1:26">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1">
       <c r="A671" s="10"/>
       <c r="B671" s="9"/>
       <c r="C671" s="4"/>
@@ -19882,7 +19271,7 @@
       <c r="Y671" s="6"/>
       <c r="Z671" s="6"/>
     </row>
-    <row r="672" customHeight="1" spans="1:26">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1">
       <c r="A672" s="10"/>
       <c r="B672" s="9"/>
       <c r="C672" s="4"/>
@@ -19910,7 +19299,7 @@
       <c r="Y672" s="6"/>
       <c r="Z672" s="6"/>
     </row>
-    <row r="673" customHeight="1" spans="1:26">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1">
       <c r="A673" s="10"/>
       <c r="B673" s="9"/>
       <c r="C673" s="4"/>
@@ -19938,7 +19327,7 @@
       <c r="Y673" s="6"/>
       <c r="Z673" s="6"/>
     </row>
-    <row r="674" customHeight="1" spans="1:26">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1">
       <c r="A674" s="10"/>
       <c r="B674" s="9"/>
       <c r="C674" s="4"/>
@@ -19966,7 +19355,7 @@
       <c r="Y674" s="6"/>
       <c r="Z674" s="6"/>
     </row>
-    <row r="675" customHeight="1" spans="1:26">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1">
       <c r="A675" s="10"/>
       <c r="B675" s="9"/>
       <c r="C675" s="4"/>
@@ -19994,7 +19383,7 @@
       <c r="Y675" s="6"/>
       <c r="Z675" s="6"/>
     </row>
-    <row r="676" customHeight="1" spans="1:26">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1">
       <c r="A676" s="10"/>
       <c r="B676" s="9"/>
       <c r="C676" s="4"/>
@@ -20022,7 +19411,7 @@
       <c r="Y676" s="6"/>
       <c r="Z676" s="6"/>
     </row>
-    <row r="677" customHeight="1" spans="1:26">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1">
       <c r="A677" s="10"/>
       <c r="B677" s="9"/>
       <c r="C677" s="4"/>
@@ -20050,7 +19439,7 @@
       <c r="Y677" s="6"/>
       <c r="Z677" s="6"/>
     </row>
-    <row r="678" customHeight="1" spans="1:26">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1">
       <c r="A678" s="10"/>
       <c r="B678" s="9"/>
       <c r="C678" s="4"/>
@@ -20078,7 +19467,7 @@
       <c r="Y678" s="6"/>
       <c r="Z678" s="6"/>
     </row>
-    <row r="679" customHeight="1" spans="1:26">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1">
       <c r="A679" s="10"/>
       <c r="B679" s="9"/>
       <c r="C679" s="4"/>
@@ -20106,7 +19495,7 @@
       <c r="Y679" s="6"/>
       <c r="Z679" s="6"/>
     </row>
-    <row r="680" customHeight="1" spans="1:26">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1">
       <c r="A680" s="10"/>
       <c r="B680" s="9"/>
       <c r="C680" s="4"/>
@@ -20134,7 +19523,7 @@
       <c r="Y680" s="6"/>
       <c r="Z680" s="6"/>
     </row>
-    <row r="681" customHeight="1" spans="1:26">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1">
       <c r="A681" s="10"/>
       <c r="B681" s="9"/>
       <c r="C681" s="4"/>
@@ -20162,7 +19551,7 @@
       <c r="Y681" s="6"/>
       <c r="Z681" s="6"/>
     </row>
-    <row r="682" customHeight="1" spans="1:26">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1">
       <c r="A682" s="10"/>
       <c r="B682" s="9"/>
       <c r="C682" s="4"/>
@@ -20190,7 +19579,7 @@
       <c r="Y682" s="6"/>
       <c r="Z682" s="6"/>
     </row>
-    <row r="683" customHeight="1" spans="1:26">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1">
       <c r="A683" s="10"/>
       <c r="B683" s="9"/>
       <c r="C683" s="4"/>
@@ -20218,7 +19607,7 @@
       <c r="Y683" s="6"/>
       <c r="Z683" s="6"/>
     </row>
-    <row r="684" customHeight="1" spans="1:26">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1">
       <c r="A684" s="10"/>
       <c r="B684" s="9"/>
       <c r="C684" s="4"/>
@@ -20246,7 +19635,7 @@
       <c r="Y684" s="6"/>
       <c r="Z684" s="6"/>
     </row>
-    <row r="685" customHeight="1" spans="1:26">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1">
       <c r="A685" s="10"/>
       <c r="B685" s="9"/>
       <c r="C685" s="4"/>
@@ -20274,7 +19663,7 @@
       <c r="Y685" s="6"/>
       <c r="Z685" s="6"/>
     </row>
-    <row r="686" customHeight="1" spans="1:26">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1">
       <c r="A686" s="10"/>
       <c r="B686" s="9"/>
       <c r="C686" s="4"/>
@@ -20302,7 +19691,7 @@
       <c r="Y686" s="6"/>
       <c r="Z686" s="6"/>
     </row>
-    <row r="687" customHeight="1" spans="1:26">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1">
       <c r="A687" s="10"/>
       <c r="B687" s="9"/>
       <c r="C687" s="4"/>
@@ -20330,7 +19719,7 @@
       <c r="Y687" s="6"/>
       <c r="Z687" s="6"/>
     </row>
-    <row r="688" customHeight="1" spans="1:26">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1">
       <c r="A688" s="10"/>
       <c r="B688" s="9"/>
       <c r="C688" s="4"/>
@@ -20358,7 +19747,7 @@
       <c r="Y688" s="6"/>
       <c r="Z688" s="6"/>
     </row>
-    <row r="689" customHeight="1" spans="1:26">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1">
       <c r="A689" s="10"/>
       <c r="B689" s="9"/>
       <c r="C689" s="4"/>
@@ -20386,7 +19775,7 @@
       <c r="Y689" s="6"/>
       <c r="Z689" s="6"/>
     </row>
-    <row r="690" customHeight="1" spans="1:26">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1">
       <c r="A690" s="10"/>
       <c r="B690" s="9"/>
       <c r="C690" s="4"/>
@@ -20414,7 +19803,7 @@
       <c r="Y690" s="6"/>
       <c r="Z690" s="6"/>
     </row>
-    <row r="691" customHeight="1" spans="1:26">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1">
       <c r="A691" s="10"/>
       <c r="B691" s="9"/>
       <c r="C691" s="4"/>
@@ -20442,7 +19831,7 @@
       <c r="Y691" s="6"/>
       <c r="Z691" s="6"/>
     </row>
-    <row r="692" customHeight="1" spans="1:26">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1">
       <c r="A692" s="10"/>
       <c r="B692" s="9"/>
       <c r="C692" s="4"/>
@@ -20470,7 +19859,7 @@
       <c r="Y692" s="6"/>
       <c r="Z692" s="6"/>
     </row>
-    <row r="693" customHeight="1" spans="1:26">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1">
       <c r="A693" s="10"/>
       <c r="B693" s="9"/>
       <c r="C693" s="4"/>
@@ -20498,7 +19887,7 @@
       <c r="Y693" s="6"/>
       <c r="Z693" s="6"/>
     </row>
-    <row r="694" customHeight="1" spans="1:26">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1">
       <c r="A694" s="10"/>
       <c r="B694" s="9"/>
       <c r="C694" s="4"/>
@@ -20526,7 +19915,7 @@
       <c r="Y694" s="6"/>
       <c r="Z694" s="6"/>
     </row>
-    <row r="695" customHeight="1" spans="1:26">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1">
       <c r="A695" s="10"/>
       <c r="B695" s="9"/>
       <c r="C695" s="4"/>
@@ -20554,7 +19943,7 @@
       <c r="Y695" s="6"/>
       <c r="Z695" s="6"/>
     </row>
-    <row r="696" customHeight="1" spans="1:26">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1">
       <c r="A696" s="10"/>
       <c r="B696" s="9"/>
       <c r="C696" s="4"/>
@@ -20582,7 +19971,7 @@
       <c r="Y696" s="6"/>
       <c r="Z696" s="6"/>
     </row>
-    <row r="697" customHeight="1" spans="1:26">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1">
       <c r="A697" s="10"/>
       <c r="B697" s="9"/>
       <c r="C697" s="4"/>
@@ -20610,7 +19999,7 @@
       <c r="Y697" s="6"/>
       <c r="Z697" s="6"/>
     </row>
-    <row r="698" customHeight="1" spans="1:26">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1">
       <c r="A698" s="10"/>
       <c r="B698" s="9"/>
       <c r="C698" s="4"/>
@@ -20638,7 +20027,7 @@
       <c r="Y698" s="6"/>
       <c r="Z698" s="6"/>
     </row>
-    <row r="699" customHeight="1" spans="1:26">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1">
       <c r="A699" s="10"/>
       <c r="B699" s="9"/>
       <c r="C699" s="4"/>
@@ -20666,7 +20055,7 @@
       <c r="Y699" s="6"/>
       <c r="Z699" s="6"/>
     </row>
-    <row r="700" customHeight="1" spans="1:26">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1">
       <c r="A700" s="10"/>
       <c r="B700" s="9"/>
       <c r="C700" s="4"/>
@@ -20694,7 +20083,7 @@
       <c r="Y700" s="6"/>
       <c r="Z700" s="6"/>
     </row>
-    <row r="701" customHeight="1" spans="1:26">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1">
       <c r="A701" s="10"/>
       <c r="B701" s="9"/>
       <c r="C701" s="4"/>
@@ -20722,7 +20111,7 @@
       <c r="Y701" s="6"/>
       <c r="Z701" s="6"/>
     </row>
-    <row r="702" customHeight="1" spans="1:26">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1">
       <c r="A702" s="10"/>
       <c r="B702" s="9"/>
       <c r="C702" s="4"/>
@@ -20750,7 +20139,7 @@
       <c r="Y702" s="6"/>
       <c r="Z702" s="6"/>
     </row>
-    <row r="703" customHeight="1" spans="1:26">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1">
       <c r="A703" s="10"/>
       <c r="B703" s="9"/>
       <c r="C703" s="4"/>
@@ -20778,7 +20167,7 @@
       <c r="Y703" s="6"/>
       <c r="Z703" s="6"/>
     </row>
-    <row r="704" customHeight="1" spans="1:26">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1">
       <c r="A704" s="10"/>
       <c r="B704" s="9"/>
       <c r="C704" s="4"/>
@@ -20806,7 +20195,7 @@
       <c r="Y704" s="6"/>
       <c r="Z704" s="6"/>
     </row>
-    <row r="705" customHeight="1" spans="1:26">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1">
       <c r="A705" s="10"/>
       <c r="B705" s="9"/>
       <c r="C705" s="4"/>
@@ -20834,7 +20223,7 @@
       <c r="Y705" s="6"/>
       <c r="Z705" s="6"/>
     </row>
-    <row r="706" customHeight="1" spans="1:26">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1">
       <c r="A706" s="10"/>
       <c r="B706" s="9"/>
       <c r="C706" s="4"/>
@@ -20862,7 +20251,7 @@
       <c r="Y706" s="6"/>
       <c r="Z706" s="6"/>
     </row>
-    <row r="707" customHeight="1" spans="1:26">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1">
       <c r="A707" s="10"/>
       <c r="B707" s="9"/>
       <c r="C707" s="4"/>
@@ -20890,7 +20279,7 @@
       <c r="Y707" s="6"/>
       <c r="Z707" s="6"/>
     </row>
-    <row r="708" customHeight="1" spans="1:26">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1">
       <c r="A708" s="10"/>
       <c r="B708" s="9"/>
       <c r="C708" s="4"/>
@@ -20918,7 +20307,7 @@
       <c r="Y708" s="6"/>
       <c r="Z708" s="6"/>
     </row>
-    <row r="709" customHeight="1" spans="1:26">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1">
       <c r="A709" s="10"/>
       <c r="B709" s="9"/>
       <c r="C709" s="4"/>
@@ -20946,7 +20335,7 @@
       <c r="Y709" s="6"/>
       <c r="Z709" s="6"/>
     </row>
-    <row r="710" customHeight="1" spans="1:26">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1">
       <c r="A710" s="10"/>
       <c r="B710" s="9"/>
       <c r="C710" s="4"/>
@@ -20974,7 +20363,7 @@
       <c r="Y710" s="6"/>
       <c r="Z710" s="6"/>
     </row>
-    <row r="711" customHeight="1" spans="1:26">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1">
       <c r="A711" s="10"/>
       <c r="B711" s="9"/>
       <c r="C711" s="4"/>
@@ -21002,7 +20391,7 @@
       <c r="Y711" s="6"/>
       <c r="Z711" s="6"/>
     </row>
-    <row r="712" customHeight="1" spans="1:26">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1">
       <c r="A712" s="10"/>
       <c r="B712" s="9"/>
       <c r="C712" s="4"/>
@@ -21030,7 +20419,7 @@
       <c r="Y712" s="6"/>
       <c r="Z712" s="6"/>
     </row>
-    <row r="713" customHeight="1" spans="1:26">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1">
       <c r="A713" s="10"/>
       <c r="B713" s="9"/>
       <c r="C713" s="4"/>
@@ -21058,7 +20447,7 @@
       <c r="Y713" s="6"/>
       <c r="Z713" s="6"/>
     </row>
-    <row r="714" customHeight="1" spans="1:26">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1">
       <c r="A714" s="10"/>
       <c r="B714" s="9"/>
       <c r="C714" s="4"/>
@@ -21086,7 +20475,7 @@
       <c r="Y714" s="6"/>
       <c r="Z714" s="6"/>
     </row>
-    <row r="715" customHeight="1" spans="1:26">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1">
       <c r="A715" s="10"/>
       <c r="B715" s="9"/>
       <c r="C715" s="4"/>
@@ -21114,7 +20503,7 @@
       <c r="Y715" s="6"/>
       <c r="Z715" s="6"/>
     </row>
-    <row r="716" customHeight="1" spans="1:26">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1">
       <c r="A716" s="10"/>
       <c r="B716" s="9"/>
       <c r="C716" s="4"/>
@@ -21142,7 +20531,7 @@
       <c r="Y716" s="6"/>
       <c r="Z716" s="6"/>
     </row>
-    <row r="717" customHeight="1" spans="1:26">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1">
       <c r="A717" s="10"/>
       <c r="B717" s="9"/>
       <c r="C717" s="4"/>
@@ -21170,7 +20559,7 @@
       <c r="Y717" s="6"/>
       <c r="Z717" s="6"/>
     </row>
-    <row r="718" customHeight="1" spans="1:26">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1">
       <c r="A718" s="10"/>
       <c r="B718" s="9"/>
       <c r="C718" s="4"/>
@@ -21198,7 +20587,7 @@
       <c r="Y718" s="6"/>
       <c r="Z718" s="6"/>
     </row>
-    <row r="719" customHeight="1" spans="1:26">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1">
       <c r="A719" s="10"/>
       <c r="B719" s="9"/>
       <c r="C719" s="4"/>
@@ -21226,7 +20615,7 @@
       <c r="Y719" s="6"/>
       <c r="Z719" s="6"/>
     </row>
-    <row r="720" customHeight="1" spans="1:26">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1">
       <c r="A720" s="10"/>
       <c r="B720" s="9"/>
       <c r="C720" s="4"/>
@@ -21254,7 +20643,7 @@
       <c r="Y720" s="6"/>
       <c r="Z720" s="6"/>
     </row>
-    <row r="721" customHeight="1" spans="1:26">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1">
       <c r="A721" s="10"/>
       <c r="B721" s="9"/>
       <c r="C721" s="4"/>
@@ -21282,7 +20671,7 @@
       <c r="Y721" s="6"/>
       <c r="Z721" s="6"/>
     </row>
-    <row r="722" customHeight="1" spans="1:26">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1">
       <c r="A722" s="10"/>
       <c r="B722" s="9"/>
       <c r="C722" s="4"/>
@@ -21310,7 +20699,7 @@
       <c r="Y722" s="6"/>
       <c r="Z722" s="6"/>
     </row>
-    <row r="723" customHeight="1" spans="1:26">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1">
       <c r="A723" s="10"/>
       <c r="B723" s="9"/>
       <c r="C723" s="4"/>
@@ -21338,7 +20727,7 @@
       <c r="Y723" s="6"/>
       <c r="Z723" s="6"/>
     </row>
-    <row r="724" customHeight="1" spans="1:26">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1">
       <c r="A724" s="10"/>
       <c r="B724" s="9"/>
       <c r="C724" s="4"/>
@@ -21366,7 +20755,7 @@
       <c r="Y724" s="6"/>
       <c r="Z724" s="6"/>
     </row>
-    <row r="725" customHeight="1" spans="1:26">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1">
       <c r="A725" s="10"/>
       <c r="B725" s="9"/>
       <c r="C725" s="4"/>
@@ -21394,7 +20783,7 @@
       <c r="Y725" s="6"/>
       <c r="Z725" s="6"/>
     </row>
-    <row r="726" customHeight="1" spans="1:26">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1">
       <c r="A726" s="10"/>
       <c r="B726" s="9"/>
       <c r="C726" s="4"/>
@@ -21422,7 +20811,7 @@
       <c r="Y726" s="6"/>
       <c r="Z726" s="6"/>
     </row>
-    <row r="727" customHeight="1" spans="1:26">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1">
       <c r="A727" s="10"/>
       <c r="B727" s="9"/>
       <c r="C727" s="4"/>
@@ -21450,7 +20839,7 @@
       <c r="Y727" s="6"/>
       <c r="Z727" s="6"/>
     </row>
-    <row r="728" customHeight="1" spans="1:26">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1">
       <c r="A728" s="10"/>
       <c r="B728" s="9"/>
       <c r="C728" s="4"/>
@@ -21478,7 +20867,7 @@
       <c r="Y728" s="6"/>
       <c r="Z728" s="6"/>
     </row>
-    <row r="729" customHeight="1" spans="1:26">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1">
       <c r="A729" s="10"/>
       <c r="B729" s="9"/>
       <c r="C729" s="4"/>
@@ -21506,7 +20895,7 @@
       <c r="Y729" s="6"/>
       <c r="Z729" s="6"/>
     </row>
-    <row r="730" customHeight="1" spans="1:26">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1">
       <c r="A730" s="10"/>
       <c r="B730" s="9"/>
       <c r="C730" s="4"/>
@@ -21534,7 +20923,7 @@
       <c r="Y730" s="6"/>
       <c r="Z730" s="6"/>
     </row>
-    <row r="731" customHeight="1" spans="1:26">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1">
       <c r="A731" s="10"/>
       <c r="B731" s="9"/>
       <c r="C731" s="4"/>
@@ -21562,7 +20951,7 @@
       <c r="Y731" s="6"/>
       <c r="Z731" s="6"/>
     </row>
-    <row r="732" customHeight="1" spans="1:26">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1">
       <c r="A732" s="10"/>
       <c r="B732" s="9"/>
       <c r="C732" s="4"/>
@@ -21590,7 +20979,7 @@
       <c r="Y732" s="6"/>
       <c r="Z732" s="6"/>
     </row>
-    <row r="733" customHeight="1" spans="1:26">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1">
       <c r="A733" s="10"/>
       <c r="B733" s="9"/>
       <c r="C733" s="4"/>
@@ -21618,7 +21007,7 @@
       <c r="Y733" s="6"/>
       <c r="Z733" s="6"/>
     </row>
-    <row r="734" customHeight="1" spans="1:26">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1">
       <c r="A734" s="10"/>
       <c r="B734" s="9"/>
       <c r="C734" s="4"/>
@@ -21646,7 +21035,7 @@
       <c r="Y734" s="6"/>
       <c r="Z734" s="6"/>
     </row>
-    <row r="735" customHeight="1" spans="1:26">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1">
       <c r="A735" s="10"/>
       <c r="B735" s="9"/>
       <c r="C735" s="4"/>
@@ -21674,7 +21063,7 @@
       <c r="Y735" s="6"/>
       <c r="Z735" s="6"/>
     </row>
-    <row r="736" customHeight="1" spans="1:26">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1">
       <c r="A736" s="10"/>
       <c r="B736" s="9"/>
       <c r="C736" s="4"/>
@@ -21702,7 +21091,7 @@
       <c r="Y736" s="6"/>
       <c r="Z736" s="6"/>
     </row>
-    <row r="737" customHeight="1" spans="1:26">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1">
       <c r="A737" s="10"/>
       <c r="B737" s="9"/>
       <c r="C737" s="4"/>
@@ -21730,7 +21119,7 @@
       <c r="Y737" s="6"/>
       <c r="Z737" s="6"/>
     </row>
-    <row r="738" customHeight="1" spans="1:26">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1">
       <c r="A738" s="10"/>
       <c r="B738" s="9"/>
       <c r="C738" s="4"/>
@@ -21758,7 +21147,7 @@
       <c r="Y738" s="6"/>
       <c r="Z738" s="6"/>
     </row>
-    <row r="739" customHeight="1" spans="1:26">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1">
       <c r="A739" s="10"/>
       <c r="B739" s="9"/>
       <c r="C739" s="4"/>
@@ -21786,7 +21175,7 @@
       <c r="Y739" s="6"/>
       <c r="Z739" s="6"/>
     </row>
-    <row r="740" customHeight="1" spans="1:26">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1">
       <c r="A740" s="10"/>
       <c r="B740" s="9"/>
       <c r="C740" s="4"/>
@@ -21814,7 +21203,7 @@
       <c r="Y740" s="6"/>
       <c r="Z740" s="6"/>
     </row>
-    <row r="741" customHeight="1" spans="1:26">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1">
       <c r="A741" s="10"/>
       <c r="B741" s="9"/>
       <c r="C741" s="4"/>
@@ -21842,7 +21231,7 @@
       <c r="Y741" s="6"/>
       <c r="Z741" s="6"/>
     </row>
-    <row r="742" customHeight="1" spans="1:26">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1">
       <c r="A742" s="10"/>
       <c r="B742" s="9"/>
       <c r="C742" s="4"/>
@@ -21870,7 +21259,7 @@
       <c r="Y742" s="6"/>
       <c r="Z742" s="6"/>
     </row>
-    <row r="743" customHeight="1" spans="1:26">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1">
       <c r="A743" s="10"/>
       <c r="B743" s="9"/>
       <c r="C743" s="4"/>
@@ -21898,7 +21287,7 @@
       <c r="Y743" s="6"/>
       <c r="Z743" s="6"/>
     </row>
-    <row r="744" customHeight="1" spans="1:26">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1">
       <c r="A744" s="10"/>
       <c r="B744" s="9"/>
       <c r="C744" s="4"/>
@@ -21926,7 +21315,7 @@
       <c r="Y744" s="6"/>
       <c r="Z744" s="6"/>
     </row>
-    <row r="745" customHeight="1" spans="1:26">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1">
       <c r="A745" s="10"/>
       <c r="B745" s="9"/>
       <c r="C745" s="4"/>
@@ -21954,7 +21343,7 @@
       <c r="Y745" s="6"/>
       <c r="Z745" s="6"/>
     </row>
-    <row r="746" customHeight="1" spans="1:26">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1">
       <c r="A746" s="10"/>
       <c r="B746" s="9"/>
       <c r="C746" s="4"/>
@@ -21982,7 +21371,7 @@
       <c r="Y746" s="6"/>
       <c r="Z746" s="6"/>
     </row>
-    <row r="747" customHeight="1" spans="1:26">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1">
       <c r="A747" s="10"/>
       <c r="B747" s="9"/>
       <c r="C747" s="4"/>
@@ -22010,7 +21399,7 @@
       <c r="Y747" s="6"/>
       <c r="Z747" s="6"/>
     </row>
-    <row r="748" customHeight="1" spans="1:26">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1">
       <c r="A748" s="10"/>
       <c r="B748" s="9"/>
       <c r="C748" s="4"/>
@@ -22038,7 +21427,7 @@
       <c r="Y748" s="6"/>
       <c r="Z748" s="6"/>
     </row>
-    <row r="749" customHeight="1" spans="1:26">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1">
       <c r="A749" s="10"/>
       <c r="B749" s="9"/>
       <c r="C749" s="4"/>
@@ -22066,7 +21455,7 @@
       <c r="Y749" s="6"/>
       <c r="Z749" s="6"/>
     </row>
-    <row r="750" customHeight="1" spans="1:26">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1">
       <c r="A750" s="10"/>
       <c r="B750" s="9"/>
       <c r="C750" s="4"/>
@@ -22094,7 +21483,7 @@
       <c r="Y750" s="6"/>
       <c r="Z750" s="6"/>
     </row>
-    <row r="751" customHeight="1" spans="1:26">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1">
       <c r="A751" s="10"/>
       <c r="B751" s="9"/>
       <c r="C751" s="4"/>
@@ -22122,7 +21511,7 @@
       <c r="Y751" s="6"/>
       <c r="Z751" s="6"/>
     </row>
-    <row r="752" customHeight="1" spans="1:26">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1">
       <c r="A752" s="10"/>
       <c r="B752" s="9"/>
       <c r="C752" s="4"/>
@@ -22150,7 +21539,7 @@
       <c r="Y752" s="6"/>
       <c r="Z752" s="6"/>
     </row>
-    <row r="753" customHeight="1" spans="1:26">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1">
       <c r="A753" s="10"/>
       <c r="B753" s="9"/>
       <c r="C753" s="4"/>
@@ -22178,7 +21567,7 @@
       <c r="Y753" s="6"/>
       <c r="Z753" s="6"/>
     </row>
-    <row r="754" customHeight="1" spans="1:26">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1">
       <c r="A754" s="10"/>
       <c r="B754" s="9"/>
       <c r="C754" s="4"/>
@@ -22206,7 +21595,7 @@
       <c r="Y754" s="6"/>
       <c r="Z754" s="6"/>
     </row>
-    <row r="755" customHeight="1" spans="1:26">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1">
       <c r="A755" s="10"/>
       <c r="B755" s="9"/>
       <c r="C755" s="4"/>
@@ -22234,7 +21623,7 @@
       <c r="Y755" s="6"/>
       <c r="Z755" s="6"/>
     </row>
-    <row r="756" customHeight="1" spans="1:26">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1">
       <c r="A756" s="10"/>
       <c r="B756" s="9"/>
       <c r="C756" s="4"/>
@@ -22262,7 +21651,7 @@
       <c r="Y756" s="6"/>
       <c r="Z756" s="6"/>
     </row>
-    <row r="757" customHeight="1" spans="1:26">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1">
       <c r="A757" s="10"/>
       <c r="B757" s="9"/>
       <c r="C757" s="4"/>
@@ -22290,7 +21679,7 @@
       <c r="Y757" s="6"/>
       <c r="Z757" s="6"/>
     </row>
-    <row r="758" customHeight="1" spans="1:26">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1">
       <c r="A758" s="10"/>
       <c r="B758" s="9"/>
       <c r="C758" s="4"/>
@@ -22318,7 +21707,7 @@
       <c r="Y758" s="6"/>
       <c r="Z758" s="6"/>
     </row>
-    <row r="759" customHeight="1" spans="1:26">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1">
       <c r="A759" s="10"/>
       <c r="B759" s="9"/>
       <c r="C759" s="4"/>
@@ -22346,7 +21735,7 @@
       <c r="Y759" s="6"/>
       <c r="Z759" s="6"/>
     </row>
-    <row r="760" customHeight="1" spans="1:26">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1">
       <c r="A760" s="10"/>
       <c r="B760" s="9"/>
       <c r="C760" s="4"/>
@@ -22374,7 +21763,7 @@
       <c r="Y760" s="6"/>
       <c r="Z760" s="6"/>
     </row>
-    <row r="761" customHeight="1" spans="1:26">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1">
       <c r="A761" s="10"/>
       <c r="B761" s="9"/>
       <c r="C761" s="4"/>
@@ -22402,7 +21791,7 @@
       <c r="Y761" s="6"/>
       <c r="Z761" s="6"/>
     </row>
-    <row r="762" customHeight="1" spans="1:26">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1">
       <c r="A762" s="10"/>
       <c r="B762" s="9"/>
       <c r="C762" s="4"/>
@@ -22430,7 +21819,7 @@
       <c r="Y762" s="6"/>
       <c r="Z762" s="6"/>
     </row>
-    <row r="763" customHeight="1" spans="1:26">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1">
       <c r="A763" s="10"/>
       <c r="B763" s="9"/>
       <c r="C763" s="4"/>
@@ -22458,7 +21847,7 @@
       <c r="Y763" s="6"/>
       <c r="Z763" s="6"/>
     </row>
-    <row r="764" customHeight="1" spans="1:26">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1">
       <c r="A764" s="10"/>
       <c r="B764" s="9"/>
       <c r="C764" s="4"/>
@@ -22486,7 +21875,7 @@
       <c r="Y764" s="6"/>
       <c r="Z764" s="6"/>
     </row>
-    <row r="765" customHeight="1" spans="1:26">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1">
       <c r="A765" s="10"/>
       <c r="B765" s="9"/>
       <c r="C765" s="4"/>
@@ -22514,7 +21903,7 @@
       <c r="Y765" s="6"/>
       <c r="Z765" s="6"/>
     </row>
-    <row r="766" customHeight="1" spans="1:26">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1">
       <c r="A766" s="10"/>
       <c r="B766" s="9"/>
       <c r="C766" s="4"/>
@@ -22542,7 +21931,7 @@
       <c r="Y766" s="6"/>
       <c r="Z766" s="6"/>
     </row>
-    <row r="767" customHeight="1" spans="1:26">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1">
       <c r="A767" s="10"/>
       <c r="B767" s="9"/>
       <c r="C767" s="4"/>
@@ -22570,7 +21959,7 @@
       <c r="Y767" s="6"/>
       <c r="Z767" s="6"/>
     </row>
-    <row r="768" customHeight="1" spans="1:26">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1">
       <c r="A768" s="10"/>
       <c r="B768" s="9"/>
       <c r="C768" s="4"/>
@@ -22598,7 +21987,7 @@
       <c r="Y768" s="6"/>
       <c r="Z768" s="6"/>
     </row>
-    <row r="769" customHeight="1" spans="1:26">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1">
       <c r="A769" s="10"/>
       <c r="B769" s="9"/>
       <c r="C769" s="4"/>
@@ -22626,7 +22015,7 @@
       <c r="Y769" s="6"/>
       <c r="Z769" s="6"/>
     </row>
-    <row r="770" customHeight="1" spans="1:26">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1">
       <c r="A770" s="10"/>
       <c r="B770" s="9"/>
       <c r="C770" s="4"/>
@@ -22654,7 +22043,7 @@
       <c r="Y770" s="6"/>
       <c r="Z770" s="6"/>
     </row>
-    <row r="771" customHeight="1" spans="1:26">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1">
       <c r="A771" s="10"/>
       <c r="B771" s="9"/>
       <c r="C771" s="4"/>
@@ -22682,7 +22071,7 @@
       <c r="Y771" s="6"/>
       <c r="Z771" s="6"/>
     </row>
-    <row r="772" customHeight="1" spans="1:26">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1">
       <c r="A772" s="10"/>
       <c r="B772" s="9"/>
       <c r="C772" s="4"/>
@@ -22710,7 +22099,7 @@
       <c r="Y772" s="6"/>
       <c r="Z772" s="6"/>
     </row>
-    <row r="773" customHeight="1" spans="1:26">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1">
       <c r="A773" s="10"/>
       <c r="B773" s="9"/>
       <c r="C773" s="4"/>
@@ -22738,7 +22127,7 @@
       <c r="Y773" s="6"/>
       <c r="Z773" s="6"/>
     </row>
-    <row r="774" customHeight="1" spans="1:26">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1">
       <c r="A774" s="10"/>
       <c r="B774" s="9"/>
       <c r="C774" s="4"/>
@@ -22766,7 +22155,7 @@
       <c r="Y774" s="6"/>
       <c r="Z774" s="6"/>
     </row>
-    <row r="775" customHeight="1" spans="1:26">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1">
       <c r="A775" s="10"/>
       <c r="B775" s="9"/>
       <c r="C775" s="4"/>
@@ -22794,7 +22183,7 @@
       <c r="Y775" s="6"/>
       <c r="Z775" s="6"/>
     </row>
-    <row r="776" customHeight="1" spans="1:26">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1">
       <c r="A776" s="10"/>
       <c r="B776" s="9"/>
       <c r="C776" s="4"/>
@@ -22822,7 +22211,7 @@
       <c r="Y776" s="6"/>
       <c r="Z776" s="6"/>
     </row>
-    <row r="777" customHeight="1" spans="1:26">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1">
       <c r="A777" s="10"/>
       <c r="B777" s="9"/>
       <c r="C777" s="4"/>
@@ -22850,7 +22239,7 @@
       <c r="Y777" s="6"/>
       <c r="Z777" s="6"/>
     </row>
-    <row r="778" customHeight="1" spans="1:26">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1">
       <c r="A778" s="10"/>
       <c r="B778" s="9"/>
       <c r="C778" s="4"/>
@@ -22878,7 +22267,7 @@
       <c r="Y778" s="6"/>
       <c r="Z778" s="6"/>
     </row>
-    <row r="779" customHeight="1" spans="1:26">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1">
       <c r="A779" s="10"/>
       <c r="B779" s="9"/>
       <c r="C779" s="4"/>
@@ -22906,7 +22295,7 @@
       <c r="Y779" s="6"/>
       <c r="Z779" s="6"/>
     </row>
-    <row r="780" customHeight="1" spans="1:26">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1">
       <c r="A780" s="10"/>
       <c r="B780" s="9"/>
       <c r="C780" s="4"/>
@@ -22934,7 +22323,7 @@
       <c r="Y780" s="6"/>
       <c r="Z780" s="6"/>
     </row>
-    <row r="781" customHeight="1" spans="1:26">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1">
       <c r="A781" s="10"/>
       <c r="B781" s="9"/>
       <c r="C781" s="4"/>
@@ -22962,7 +22351,7 @@
       <c r="Y781" s="6"/>
       <c r="Z781" s="6"/>
     </row>
-    <row r="782" customHeight="1" spans="1:26">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1">
       <c r="A782" s="10"/>
       <c r="B782" s="9"/>
       <c r="C782" s="4"/>
@@ -22990,7 +22379,7 @@
       <c r="Y782" s="6"/>
       <c r="Z782" s="6"/>
     </row>
-    <row r="783" customHeight="1" spans="1:26">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1">
       <c r="A783" s="10"/>
       <c r="B783" s="9"/>
       <c r="C783" s="4"/>
@@ -23018,7 +22407,7 @@
       <c r="Y783" s="6"/>
       <c r="Z783" s="6"/>
     </row>
-    <row r="784" customHeight="1" spans="1:26">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1">
       <c r="A784" s="10"/>
       <c r="B784" s="9"/>
       <c r="C784" s="4"/>
@@ -23046,7 +22435,7 @@
       <c r="Y784" s="6"/>
       <c r="Z784" s="6"/>
     </row>
-    <row r="785" customHeight="1" spans="1:26">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1">
       <c r="A785" s="10"/>
       <c r="B785" s="9"/>
       <c r="C785" s="4"/>
@@ -23074,7 +22463,7 @@
       <c r="Y785" s="6"/>
       <c r="Z785" s="6"/>
     </row>
-    <row r="786" customHeight="1" spans="1:26">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1">
       <c r="A786" s="10"/>
       <c r="B786" s="9"/>
       <c r="C786" s="4"/>
@@ -23102,7 +22491,7 @@
       <c r="Y786" s="6"/>
       <c r="Z786" s="6"/>
     </row>
-    <row r="787" customHeight="1" spans="1:26">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1">
       <c r="A787" s="10"/>
       <c r="B787" s="9"/>
       <c r="C787" s="4"/>
@@ -23130,7 +22519,7 @@
       <c r="Y787" s="6"/>
       <c r="Z787" s="6"/>
     </row>
-    <row r="788" customHeight="1" spans="1:26">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1">
       <c r="A788" s="10"/>
       <c r="B788" s="9"/>
       <c r="C788" s="4"/>
@@ -23158,7 +22547,7 @@
       <c r="Y788" s="6"/>
       <c r="Z788" s="6"/>
     </row>
-    <row r="789" customHeight="1" spans="1:26">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1">
       <c r="A789" s="10"/>
       <c r="B789" s="9"/>
       <c r="C789" s="4"/>
@@ -23186,7 +22575,7 @@
       <c r="Y789" s="6"/>
       <c r="Z789" s="6"/>
     </row>
-    <row r="790" customHeight="1" spans="1:26">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1">
       <c r="A790" s="10"/>
       <c r="B790" s="9"/>
       <c r="C790" s="4"/>
@@ -23214,7 +22603,7 @@
       <c r="Y790" s="6"/>
       <c r="Z790" s="6"/>
     </row>
-    <row r="791" customHeight="1" spans="1:26">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1">
       <c r="A791" s="10"/>
       <c r="B791" s="9"/>
       <c r="C791" s="4"/>
@@ -23242,7 +22631,7 @@
       <c r="Y791" s="6"/>
       <c r="Z791" s="6"/>
     </row>
-    <row r="792" customHeight="1" spans="1:26">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1">
       <c r="A792" s="10"/>
       <c r="B792" s="9"/>
       <c r="C792" s="4"/>
@@ -23270,7 +22659,7 @@
       <c r="Y792" s="6"/>
       <c r="Z792" s="6"/>
     </row>
-    <row r="793" customHeight="1" spans="1:26">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1">
       <c r="A793" s="10"/>
       <c r="B793" s="9"/>
       <c r="C793" s="4"/>
@@ -23298,7 +22687,7 @@
       <c r="Y793" s="6"/>
       <c r="Z793" s="6"/>
     </row>
-    <row r="794" customHeight="1" spans="1:26">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1">
       <c r="A794" s="10"/>
       <c r="B794" s="9"/>
       <c r="C794" s="4"/>
@@ -23326,7 +22715,7 @@
       <c r="Y794" s="6"/>
       <c r="Z794" s="6"/>
     </row>
-    <row r="795" customHeight="1" spans="1:26">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1">
       <c r="A795" s="10"/>
       <c r="B795" s="9"/>
       <c r="C795" s="4"/>
@@ -23354,7 +22743,7 @@
       <c r="Y795" s="6"/>
       <c r="Z795" s="6"/>
     </row>
-    <row r="796" customHeight="1" spans="1:26">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1">
       <c r="A796" s="10"/>
       <c r="B796" s="9"/>
       <c r="C796" s="4"/>
@@ -23382,7 +22771,7 @@
       <c r="Y796" s="6"/>
       <c r="Z796" s="6"/>
     </row>
-    <row r="797" customHeight="1" spans="1:26">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1">
       <c r="A797" s="10"/>
       <c r="B797" s="9"/>
       <c r="C797" s="4"/>
@@ -23410,7 +22799,7 @@
       <c r="Y797" s="6"/>
       <c r="Z797" s="6"/>
     </row>
-    <row r="798" customHeight="1" spans="1:26">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1">
       <c r="A798" s="10"/>
       <c r="B798" s="9"/>
       <c r="C798" s="4"/>
@@ -23438,7 +22827,7 @@
       <c r="Y798" s="6"/>
       <c r="Z798" s="6"/>
     </row>
-    <row r="799" customHeight="1" spans="1:26">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1">
       <c r="A799" s="10"/>
       <c r="B799" s="9"/>
       <c r="C799" s="4"/>
@@ -23466,7 +22855,7 @@
       <c r="Y799" s="6"/>
       <c r="Z799" s="6"/>
     </row>
-    <row r="800" customHeight="1" spans="1:26">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1">
       <c r="A800" s="10"/>
       <c r="B800" s="9"/>
       <c r="C800" s="4"/>
@@ -23494,7 +22883,7 @@
       <c r="Y800" s="6"/>
       <c r="Z800" s="6"/>
     </row>
-    <row r="801" customHeight="1" spans="1:26">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1">
       <c r="A801" s="10"/>
       <c r="B801" s="9"/>
       <c r="C801" s="4"/>
@@ -23522,7 +22911,7 @@
       <c r="Y801" s="6"/>
       <c r="Z801" s="6"/>
     </row>
-    <row r="802" customHeight="1" spans="1:26">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1">
       <c r="A802" s="10"/>
       <c r="B802" s="9"/>
       <c r="C802" s="4"/>
@@ -23550,7 +22939,7 @@
       <c r="Y802" s="6"/>
       <c r="Z802" s="6"/>
     </row>
-    <row r="803" customHeight="1" spans="1:26">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1">
       <c r="A803" s="10"/>
       <c r="B803" s="9"/>
       <c r="C803" s="4"/>
@@ -23578,7 +22967,7 @@
       <c r="Y803" s="6"/>
       <c r="Z803" s="6"/>
     </row>
-    <row r="804" customHeight="1" spans="1:26">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1">
       <c r="A804" s="10"/>
       <c r="B804" s="9"/>
       <c r="C804" s="4"/>
@@ -23606,7 +22995,7 @@
       <c r="Y804" s="6"/>
       <c r="Z804" s="6"/>
     </row>
-    <row r="805" customHeight="1" spans="1:26">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1">
       <c r="A805" s="10"/>
       <c r="B805" s="9"/>
       <c r="C805" s="4"/>
@@ -23634,7 +23023,7 @@
       <c r="Y805" s="6"/>
       <c r="Z805" s="6"/>
     </row>
-    <row r="806" customHeight="1" spans="1:26">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1">
       <c r="A806" s="10"/>
       <c r="B806" s="9"/>
       <c r="C806" s="4"/>
@@ -23662,7 +23051,7 @@
       <c r="Y806" s="6"/>
       <c r="Z806" s="6"/>
     </row>
-    <row r="807" customHeight="1" spans="1:26">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1">
       <c r="A807" s="10"/>
       <c r="B807" s="9"/>
       <c r="C807" s="4"/>
@@ -23690,7 +23079,7 @@
       <c r="Y807" s="6"/>
       <c r="Z807" s="6"/>
     </row>
-    <row r="808" customHeight="1" spans="1:26">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1">
       <c r="A808" s="10"/>
       <c r="B808" s="9"/>
       <c r="C808" s="4"/>
@@ -23718,7 +23107,7 @@
       <c r="Y808" s="6"/>
       <c r="Z808" s="6"/>
     </row>
-    <row r="809" customHeight="1" spans="1:26">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1">
       <c r="A809" s="10"/>
       <c r="B809" s="9"/>
       <c r="C809" s="4"/>
@@ -23746,7 +23135,7 @@
       <c r="Y809" s="6"/>
       <c r="Z809" s="6"/>
     </row>
-    <row r="810" customHeight="1" spans="1:26">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1">
       <c r="A810" s="10"/>
       <c r="B810" s="9"/>
       <c r="C810" s="4"/>
@@ -23774,7 +23163,7 @@
       <c r="Y810" s="6"/>
       <c r="Z810" s="6"/>
     </row>
-    <row r="811" customHeight="1" spans="1:26">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1">
       <c r="A811" s="10"/>
       <c r="B811" s="9"/>
       <c r="C811" s="4"/>
@@ -23802,7 +23191,7 @@
       <c r="Y811" s="6"/>
       <c r="Z811" s="6"/>
     </row>
-    <row r="812" customHeight="1" spans="1:26">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1">
       <c r="A812" s="10"/>
       <c r="B812" s="9"/>
       <c r="C812" s="4"/>
@@ -23830,7 +23219,7 @@
       <c r="Y812" s="6"/>
       <c r="Z812" s="6"/>
     </row>
-    <row r="813" customHeight="1" spans="1:26">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1">
       <c r="A813" s="10"/>
       <c r="B813" s="9"/>
       <c r="C813" s="4"/>
@@ -23858,7 +23247,7 @@
       <c r="Y813" s="6"/>
       <c r="Z813" s="6"/>
     </row>
-    <row r="814" customHeight="1" spans="1:26">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1">
       <c r="A814" s="10"/>
       <c r="B814" s="9"/>
       <c r="C814" s="4"/>
@@ -23886,7 +23275,7 @@
       <c r="Y814" s="6"/>
       <c r="Z814" s="6"/>
     </row>
-    <row r="815" customHeight="1" spans="1:26">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1">
       <c r="A815" s="10"/>
       <c r="B815" s="9"/>
       <c r="C815" s="4"/>
@@ -23914,7 +23303,7 @@
       <c r="Y815" s="6"/>
       <c r="Z815" s="6"/>
     </row>
-    <row r="816" customHeight="1" spans="1:26">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1">
       <c r="A816" s="10"/>
       <c r="B816" s="9"/>
       <c r="C816" s="4"/>
@@ -23942,7 +23331,7 @@
       <c r="Y816" s="6"/>
       <c r="Z816" s="6"/>
     </row>
-    <row r="817" customHeight="1" spans="1:26">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1">
       <c r="A817" s="10"/>
       <c r="B817" s="9"/>
       <c r="C817" s="4"/>
@@ -23970,7 +23359,7 @@
       <c r="Y817" s="6"/>
       <c r="Z817" s="6"/>
     </row>
-    <row r="818" customHeight="1" spans="1:26">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1">
       <c r="A818" s="10"/>
       <c r="B818" s="9"/>
       <c r="C818" s="4"/>
@@ -23998,7 +23387,7 @@
       <c r="Y818" s="6"/>
       <c r="Z818" s="6"/>
     </row>
-    <row r="819" customHeight="1" spans="1:26">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1">
       <c r="A819" s="10"/>
       <c r="B819" s="9"/>
       <c r="C819" s="4"/>
@@ -24026,7 +23415,7 @@
       <c r="Y819" s="6"/>
       <c r="Z819" s="6"/>
     </row>
-    <row r="820" customHeight="1" spans="1:26">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1">
       <c r="A820" s="10"/>
       <c r="B820" s="9"/>
       <c r="C820" s="4"/>
@@ -24054,7 +23443,7 @@
       <c r="Y820" s="6"/>
       <c r="Z820" s="6"/>
     </row>
-    <row r="821" customHeight="1" spans="1:26">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1">
       <c r="A821" s="10"/>
       <c r="B821" s="9"/>
       <c r="C821" s="4"/>
@@ -24082,7 +23471,7 @@
       <c r="Y821" s="6"/>
       <c r="Z821" s="6"/>
     </row>
-    <row r="822" customHeight="1" spans="1:26">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1">
       <c r="A822" s="10"/>
       <c r="B822" s="9"/>
       <c r="C822" s="4"/>
@@ -24110,7 +23499,7 @@
       <c r="Y822" s="6"/>
       <c r="Z822" s="6"/>
     </row>
-    <row r="823" customHeight="1" spans="1:26">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1">
       <c r="A823" s="10"/>
       <c r="B823" s="9"/>
       <c r="C823" s="4"/>
@@ -24138,7 +23527,7 @@
       <c r="Y823" s="6"/>
       <c r="Z823" s="6"/>
     </row>
-    <row r="824" customHeight="1" spans="1:26">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1">
       <c r="A824" s="10"/>
       <c r="B824" s="9"/>
       <c r="C824" s="4"/>
@@ -24166,7 +23555,7 @@
       <c r="Y824" s="6"/>
       <c r="Z824" s="6"/>
     </row>
-    <row r="825" customHeight="1" spans="1:26">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1">
       <c r="A825" s="10"/>
       <c r="B825" s="9"/>
       <c r="C825" s="4"/>
@@ -24194,7 +23583,7 @@
       <c r="Y825" s="6"/>
       <c r="Z825" s="6"/>
     </row>
-    <row r="826" customHeight="1" spans="1:26">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1">
       <c r="A826" s="10"/>
       <c r="B826" s="9"/>
       <c r="C826" s="4"/>
@@ -24222,7 +23611,7 @@
       <c r="Y826" s="6"/>
       <c r="Z826" s="6"/>
     </row>
-    <row r="827" customHeight="1" spans="1:26">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1">
       <c r="A827" s="10"/>
       <c r="B827" s="9"/>
       <c r="C827" s="4"/>
@@ -24250,7 +23639,7 @@
       <c r="Y827" s="6"/>
       <c r="Z827" s="6"/>
     </row>
-    <row r="828" customHeight="1" spans="1:26">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1">
       <c r="A828" s="10"/>
       <c r="B828" s="9"/>
       <c r="C828" s="4"/>
@@ -24278,7 +23667,7 @@
       <c r="Y828" s="6"/>
       <c r="Z828" s="6"/>
     </row>
-    <row r="829" customHeight="1" spans="1:26">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1">
       <c r="A829" s="10"/>
       <c r="B829" s="9"/>
       <c r="C829" s="4"/>
@@ -24306,7 +23695,7 @@
       <c r="Y829" s="6"/>
       <c r="Z829" s="6"/>
     </row>
-    <row r="830" customHeight="1" spans="1:26">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1">
       <c r="A830" s="10"/>
       <c r="B830" s="9"/>
       <c r="C830" s="4"/>
@@ -24334,7 +23723,7 @@
       <c r="Y830" s="6"/>
       <c r="Z830" s="6"/>
     </row>
-    <row r="831" customHeight="1" spans="1:26">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1">
       <c r="A831" s="10"/>
       <c r="B831" s="9"/>
       <c r="C831" s="4"/>
@@ -24362,7 +23751,7 @@
       <c r="Y831" s="6"/>
       <c r="Z831" s="6"/>
     </row>
-    <row r="832" customHeight="1" spans="1:26">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1">
       <c r="A832" s="10"/>
       <c r="B832" s="9"/>
       <c r="C832" s="4"/>
@@ -24390,7 +23779,7 @@
       <c r="Y832" s="6"/>
       <c r="Z832" s="6"/>
     </row>
-    <row r="833" customHeight="1" spans="1:26">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1">
       <c r="A833" s="10"/>
       <c r="B833" s="9"/>
       <c r="C833" s="4"/>
@@ -24418,7 +23807,7 @@
       <c r="Y833" s="6"/>
       <c r="Z833" s="6"/>
     </row>
-    <row r="834" customHeight="1" spans="1:26">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1">
       <c r="A834" s="10"/>
       <c r="B834" s="9"/>
       <c r="C834" s="4"/>
@@ -24446,7 +23835,7 @@
       <c r="Y834" s="6"/>
       <c r="Z834" s="6"/>
     </row>
-    <row r="835" customHeight="1" spans="1:26">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1">
       <c r="A835" s="10"/>
       <c r="B835" s="9"/>
       <c r="C835" s="4"/>
@@ -24474,7 +23863,7 @@
       <c r="Y835" s="6"/>
       <c r="Z835" s="6"/>
     </row>
-    <row r="836" customHeight="1" spans="1:26">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1">
       <c r="A836" s="10"/>
       <c r="B836" s="9"/>
       <c r="C836" s="4"/>
@@ -24502,7 +23891,7 @@
       <c r="Y836" s="6"/>
       <c r="Z836" s="6"/>
     </row>
-    <row r="837" customHeight="1" spans="1:26">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1">
       <c r="A837" s="10"/>
       <c r="B837" s="9"/>
       <c r="C837" s="4"/>
@@ -24530,7 +23919,7 @@
       <c r="Y837" s="6"/>
       <c r="Z837" s="6"/>
     </row>
-    <row r="838" customHeight="1" spans="1:26">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1">
       <c r="A838" s="10"/>
       <c r="B838" s="9"/>
       <c r="C838" s="4"/>
@@ -24558,7 +23947,7 @@
       <c r="Y838" s="6"/>
       <c r="Z838" s="6"/>
     </row>
-    <row r="839" customHeight="1" spans="1:26">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1">
       <c r="A839" s="10"/>
       <c r="B839" s="9"/>
       <c r="C839" s="4"/>
@@ -24586,7 +23975,7 @@
       <c r="Y839" s="6"/>
       <c r="Z839" s="6"/>
     </row>
-    <row r="840" customHeight="1" spans="1:26">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1">
       <c r="A840" s="10"/>
       <c r="B840" s="9"/>
       <c r="C840" s="4"/>
@@ -24614,7 +24003,7 @@
       <c r="Y840" s="6"/>
       <c r="Z840" s="6"/>
     </row>
-    <row r="841" customHeight="1" spans="1:26">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1">
       <c r="A841" s="10"/>
       <c r="B841" s="9"/>
       <c r="C841" s="4"/>
@@ -24642,7 +24031,7 @@
       <c r="Y841" s="6"/>
       <c r="Z841" s="6"/>
     </row>
-    <row r="842" customHeight="1" spans="1:26">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1">
       <c r="A842" s="10"/>
       <c r="B842" s="9"/>
       <c r="C842" s="4"/>
@@ -24670,7 +24059,7 @@
       <c r="Y842" s="6"/>
       <c r="Z842" s="6"/>
     </row>
-    <row r="843" customHeight="1" spans="1:26">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1">
       <c r="A843" s="10"/>
       <c r="B843" s="9"/>
       <c r="C843" s="4"/>
@@ -24698,7 +24087,7 @@
       <c r="Y843" s="6"/>
       <c r="Z843" s="6"/>
     </row>
-    <row r="844" customHeight="1" spans="1:26">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1">
       <c r="A844" s="10"/>
       <c r="B844" s="9"/>
       <c r="C844" s="4"/>
@@ -24726,7 +24115,7 @@
       <c r="Y844" s="6"/>
       <c r="Z844" s="6"/>
     </row>
-    <row r="845" customHeight="1" spans="1:26">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1">
       <c r="A845" s="10"/>
       <c r="B845" s="9"/>
       <c r="C845" s="4"/>
@@ -24754,7 +24143,7 @@
       <c r="Y845" s="6"/>
       <c r="Z845" s="6"/>
     </row>
-    <row r="846" customHeight="1" spans="1:26">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1">
       <c r="A846" s="10"/>
       <c r="B846" s="9"/>
       <c r="C846" s="4"/>
@@ -24782,7 +24171,7 @@
       <c r="Y846" s="6"/>
       <c r="Z846" s="6"/>
     </row>
-    <row r="847" customHeight="1" spans="1:26">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1">
       <c r="A847" s="10"/>
       <c r="B847" s="9"/>
       <c r="C847" s="4"/>
@@ -24810,7 +24199,7 @@
       <c r="Y847" s="6"/>
       <c r="Z847" s="6"/>
     </row>
-    <row r="848" customHeight="1" spans="1:26">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1">
       <c r="A848" s="10"/>
       <c r="B848" s="9"/>
       <c r="C848" s="4"/>
@@ -24838,7 +24227,7 @@
       <c r="Y848" s="6"/>
       <c r="Z848" s="6"/>
     </row>
-    <row r="849" customHeight="1" spans="1:26">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1">
       <c r="A849" s="10"/>
       <c r="B849" s="9"/>
       <c r="C849" s="4"/>
@@ -24866,7 +24255,7 @@
       <c r="Y849" s="6"/>
       <c r="Z849" s="6"/>
     </row>
-    <row r="850" customHeight="1" spans="1:26">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1">
       <c r="A850" s="10"/>
       <c r="B850" s="9"/>
       <c r="C850" s="4"/>
@@ -24894,7 +24283,7 @@
       <c r="Y850" s="6"/>
       <c r="Z850" s="6"/>
     </row>
-    <row r="851" customHeight="1" spans="1:26">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1">
       <c r="A851" s="10"/>
       <c r="B851" s="9"/>
       <c r="C851" s="4"/>
@@ -24922,7 +24311,7 @@
       <c r="Y851" s="6"/>
       <c r="Z851" s="6"/>
     </row>
-    <row r="852" customHeight="1" spans="1:26">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1">
       <c r="A852" s="10"/>
       <c r="B852" s="9"/>
       <c r="C852" s="4"/>
@@ -24950,7 +24339,7 @@
       <c r="Y852" s="6"/>
       <c r="Z852" s="6"/>
     </row>
-    <row r="853" customHeight="1" spans="1:26">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1">
       <c r="A853" s="10"/>
       <c r="B853" s="9"/>
       <c r="C853" s="4"/>
@@ -24978,7 +24367,7 @@
       <c r="Y853" s="6"/>
       <c r="Z853" s="6"/>
     </row>
-    <row r="854" customHeight="1" spans="1:26">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1">
       <c r="A854" s="10"/>
       <c r="B854" s="9"/>
       <c r="C854" s="4"/>
@@ -25006,7 +24395,7 @@
       <c r="Y854" s="6"/>
       <c r="Z854" s="6"/>
     </row>
-    <row r="855" customHeight="1" spans="1:26">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1">
       <c r="A855" s="10"/>
       <c r="B855" s="9"/>
       <c r="C855" s="4"/>
@@ -25034,7 +24423,7 @@
       <c r="Y855" s="6"/>
       <c r="Z855" s="6"/>
     </row>
-    <row r="856" customHeight="1" spans="1:26">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1">
       <c r="A856" s="10"/>
       <c r="B856" s="9"/>
       <c r="C856" s="4"/>
@@ -25062,7 +24451,7 @@
       <c r="Y856" s="6"/>
       <c r="Z856" s="6"/>
     </row>
-    <row r="857" customHeight="1" spans="1:26">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1">
       <c r="A857" s="10"/>
       <c r="B857" s="9"/>
       <c r="C857" s="4"/>
@@ -25090,7 +24479,7 @@
       <c r="Y857" s="6"/>
       <c r="Z857" s="6"/>
     </row>
-    <row r="858" customHeight="1" spans="1:26">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1">
       <c r="A858" s="10"/>
       <c r="B858" s="9"/>
       <c r="C858" s="4"/>
@@ -25118,7 +24507,7 @@
       <c r="Y858" s="6"/>
       <c r="Z858" s="6"/>
     </row>
-    <row r="859" customHeight="1" spans="1:26">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1">
       <c r="A859" s="10"/>
       <c r="B859" s="9"/>
       <c r="C859" s="4"/>
@@ -25146,7 +24535,7 @@
       <c r="Y859" s="6"/>
       <c r="Z859" s="6"/>
     </row>
-    <row r="860" customHeight="1" spans="1:26">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1">
       <c r="A860" s="10"/>
       <c r="B860" s="9"/>
       <c r="C860" s="4"/>
@@ -25174,7 +24563,7 @@
       <c r="Y860" s="6"/>
       <c r="Z860" s="6"/>
     </row>
-    <row r="861" customHeight="1" spans="1:26">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1">
       <c r="A861" s="10"/>
       <c r="B861" s="9"/>
       <c r="C861" s="4"/>
@@ -25202,7 +24591,7 @@
       <c r="Y861" s="6"/>
       <c r="Z861" s="6"/>
     </row>
-    <row r="862" customHeight="1" spans="1:26">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1">
       <c r="A862" s="10"/>
       <c r="B862" s="9"/>
       <c r="C862" s="4"/>
@@ -25230,7 +24619,7 @@
       <c r="Y862" s="6"/>
       <c r="Z862" s="6"/>
     </row>
-    <row r="863" customHeight="1" spans="1:26">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1">
       <c r="A863" s="10"/>
       <c r="B863" s="9"/>
       <c r="C863" s="4"/>
@@ -25258,7 +24647,7 @@
       <c r="Y863" s="6"/>
       <c r="Z863" s="6"/>
     </row>
-    <row r="864" customHeight="1" spans="1:26">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1">
       <c r="A864" s="10"/>
       <c r="B864" s="9"/>
       <c r="C864" s="4"/>
@@ -25286,7 +24675,7 @@
       <c r="Y864" s="6"/>
       <c r="Z864" s="6"/>
     </row>
-    <row r="865" customHeight="1" spans="1:26">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1">
       <c r="A865" s="10"/>
       <c r="B865" s="9"/>
       <c r="C865" s="4"/>
@@ -25314,7 +24703,7 @@
       <c r="Y865" s="6"/>
       <c r="Z865" s="6"/>
     </row>
-    <row r="866" customHeight="1" spans="1:26">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1">
       <c r="A866" s="10"/>
       <c r="B866" s="9"/>
       <c r="C866" s="4"/>
@@ -25342,7 +24731,7 @@
       <c r="Y866" s="6"/>
       <c r="Z866" s="6"/>
     </row>
-    <row r="867" customHeight="1" spans="1:26">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1">
       <c r="A867" s="10"/>
       <c r="B867" s="9"/>
       <c r="C867" s="4"/>
@@ -25370,7 +24759,7 @@
       <c r="Y867" s="6"/>
       <c r="Z867" s="6"/>
     </row>
-    <row r="868" customHeight="1" spans="1:26">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1">
       <c r="A868" s="10"/>
       <c r="B868" s="9"/>
       <c r="C868" s="4"/>
@@ -25398,7 +24787,7 @@
       <c r="Y868" s="6"/>
       <c r="Z868" s="6"/>
     </row>
-    <row r="869" customHeight="1" spans="1:26">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1">
       <c r="A869" s="10"/>
       <c r="B869" s="9"/>
       <c r="C869" s="4"/>
@@ -25426,7 +24815,7 @@
       <c r="Y869" s="6"/>
       <c r="Z869" s="6"/>
     </row>
-    <row r="870" customHeight="1" spans="1:26">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1">
       <c r="A870" s="10"/>
       <c r="B870" s="9"/>
       <c r="C870" s="4"/>
@@ -25454,7 +24843,7 @@
       <c r="Y870" s="6"/>
       <c r="Z870" s="6"/>
     </row>
-    <row r="871" customHeight="1" spans="1:26">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1">
       <c r="A871" s="10"/>
       <c r="B871" s="9"/>
       <c r="C871" s="4"/>
@@ -25482,7 +24871,7 @@
       <c r="Y871" s="6"/>
       <c r="Z871" s="6"/>
     </row>
-    <row r="872" customHeight="1" spans="1:26">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1">
       <c r="A872" s="10"/>
       <c r="B872" s="9"/>
       <c r="C872" s="4"/>
@@ -25510,7 +24899,7 @@
       <c r="Y872" s="6"/>
       <c r="Z872" s="6"/>
     </row>
-    <row r="873" customHeight="1" spans="1:26">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1">
       <c r="A873" s="10"/>
       <c r="B873" s="9"/>
       <c r="C873" s="4"/>
@@ -25538,7 +24927,7 @@
       <c r="Y873" s="6"/>
       <c r="Z873" s="6"/>
     </row>
-    <row r="874" customHeight="1" spans="1:26">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1">
       <c r="A874" s="10"/>
       <c r="B874" s="9"/>
       <c r="C874" s="4"/>
@@ -25566,7 +24955,7 @@
       <c r="Y874" s="6"/>
       <c r="Z874" s="6"/>
     </row>
-    <row r="875" customHeight="1" spans="1:26">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1">
       <c r="A875" s="10"/>
       <c r="B875" s="9"/>
       <c r="C875" s="4"/>
@@ -25594,7 +24983,7 @@
       <c r="Y875" s="6"/>
       <c r="Z875" s="6"/>
     </row>
-    <row r="876" customHeight="1" spans="1:26">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1">
       <c r="A876" s="10"/>
       <c r="B876" s="9"/>
       <c r="C876" s="4"/>
@@ -25622,7 +25011,7 @@
       <c r="Y876" s="6"/>
       <c r="Z876" s="6"/>
     </row>
-    <row r="877" customHeight="1" spans="1:26">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1">
       <c r="A877" s="10"/>
       <c r="B877" s="9"/>
       <c r="C877" s="4"/>
@@ -25650,7 +25039,7 @@
       <c r="Y877" s="6"/>
       <c r="Z877" s="6"/>
     </row>
-    <row r="878" customHeight="1" spans="1:26">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1">
       <c r="A878" s="10"/>
       <c r="B878" s="9"/>
       <c r="C878" s="4"/>
@@ -25678,7 +25067,7 @@
       <c r="Y878" s="6"/>
       <c r="Z878" s="6"/>
     </row>
-    <row r="879" customHeight="1" spans="1:26">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1">
       <c r="A879" s="10"/>
       <c r="B879" s="9"/>
       <c r="C879" s="4"/>
@@ -25706,7 +25095,7 @@
       <c r="Y879" s="6"/>
       <c r="Z879" s="6"/>
     </row>
-    <row r="880" customHeight="1" spans="1:26">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1">
       <c r="A880" s="10"/>
       <c r="B880" s="9"/>
       <c r="C880" s="4"/>
@@ -25734,7 +25123,7 @@
       <c r="Y880" s="6"/>
       <c r="Z880" s="6"/>
     </row>
-    <row r="881" customHeight="1" spans="1:26">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1">
       <c r="A881" s="10"/>
       <c r="B881" s="9"/>
       <c r="C881" s="4"/>
@@ -25762,7 +25151,7 @@
       <c r="Y881" s="6"/>
       <c r="Z881" s="6"/>
     </row>
-    <row r="882" customHeight="1" spans="1:26">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1">
       <c r="A882" s="10"/>
       <c r="B882" s="9"/>
       <c r="C882" s="4"/>
@@ -25790,7 +25179,7 @@
       <c r="Y882" s="6"/>
       <c r="Z882" s="6"/>
     </row>
-    <row r="883" customHeight="1" spans="1:26">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1">
       <c r="A883" s="10"/>
       <c r="B883" s="9"/>
       <c r="C883" s="4"/>
@@ -25818,7 +25207,7 @@
       <c r="Y883" s="6"/>
       <c r="Z883" s="6"/>
     </row>
-    <row r="884" customHeight="1" spans="1:26">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1">
       <c r="A884" s="10"/>
       <c r="B884" s="9"/>
       <c r="C884" s="4"/>
@@ -25846,7 +25235,7 @@
       <c r="Y884" s="6"/>
       <c r="Z884" s="6"/>
     </row>
-    <row r="885" customHeight="1" spans="1:26">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1">
       <c r="A885" s="10"/>
       <c r="B885" s="9"/>
       <c r="C885" s="4"/>
@@ -25874,7 +25263,7 @@
       <c r="Y885" s="6"/>
       <c r="Z885" s="6"/>
     </row>
-    <row r="886" customHeight="1" spans="1:26">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1">
       <c r="A886" s="10"/>
       <c r="B886" s="9"/>
       <c r="C886" s="4"/>
@@ -25902,7 +25291,7 @@
       <c r="Y886" s="6"/>
       <c r="Z886" s="6"/>
     </row>
-    <row r="887" customHeight="1" spans="1:26">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1">
       <c r="A887" s="10"/>
       <c r="B887" s="9"/>
       <c r="C887" s="4"/>
@@ -25930,7 +25319,7 @@
       <c r="Y887" s="6"/>
       <c r="Z887" s="6"/>
     </row>
-    <row r="888" customHeight="1" spans="1:26">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1">
       <c r="A888" s="10"/>
       <c r="B888" s="9"/>
       <c r="C888" s="4"/>
@@ -25958,7 +25347,7 @@
       <c r="Y888" s="6"/>
       <c r="Z888" s="6"/>
     </row>
-    <row r="889" customHeight="1" spans="1:26">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1">
       <c r="A889" s="10"/>
       <c r="B889" s="9"/>
       <c r="C889" s="4"/>
@@ -25986,7 +25375,7 @@
       <c r="Y889" s="6"/>
       <c r="Z889" s="6"/>
     </row>
-    <row r="890" customHeight="1" spans="1:26">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1">
       <c r="A890" s="10"/>
       <c r="B890" s="9"/>
       <c r="C890" s="4"/>
@@ -26014,7 +25403,7 @@
       <c r="Y890" s="6"/>
       <c r="Z890" s="6"/>
     </row>
-    <row r="891" customHeight="1" spans="1:26">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1">
       <c r="A891" s="10"/>
       <c r="B891" s="9"/>
       <c r="C891" s="4"/>
@@ -26042,7 +25431,7 @@
       <c r="Y891" s="6"/>
       <c r="Z891" s="6"/>
     </row>
-    <row r="892" customHeight="1" spans="1:26">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1">
       <c r="A892" s="10"/>
       <c r="B892" s="9"/>
       <c r="C892" s="4"/>
@@ -26070,7 +25459,7 @@
       <c r="Y892" s="6"/>
       <c r="Z892" s="6"/>
     </row>
-    <row r="893" customHeight="1" spans="1:26">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1">
       <c r="A893" s="10"/>
       <c r="B893" s="9"/>
       <c r="C893" s="4"/>
@@ -26098,7 +25487,7 @@
       <c r="Y893" s="6"/>
       <c r="Z893" s="6"/>
     </row>
-    <row r="894" customHeight="1" spans="1:26">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1">
       <c r="A894" s="10"/>
       <c r="B894" s="9"/>
       <c r="C894" s="4"/>
@@ -26126,7 +25515,7 @@
       <c r="Y894" s="6"/>
       <c r="Z894" s="6"/>
     </row>
-    <row r="895" customHeight="1" spans="1:26">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1">
       <c r="A895" s="10"/>
       <c r="B895" s="9"/>
       <c r="C895" s="4"/>
@@ -26154,7 +25543,7 @@
       <c r="Y895" s="6"/>
       <c r="Z895" s="6"/>
     </row>
-    <row r="896" customHeight="1" spans="1:26">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1">
       <c r="A896" s="10"/>
       <c r="B896" s="9"/>
       <c r="C896" s="4"/>
@@ -26182,7 +25571,7 @@
       <c r="Y896" s="6"/>
       <c r="Z896" s="6"/>
     </row>
-    <row r="897" customHeight="1" spans="1:26">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1">
       <c r="A897" s="10"/>
       <c r="B897" s="9"/>
       <c r="C897" s="4"/>
@@ -26210,7 +25599,7 @@
       <c r="Y897" s="6"/>
       <c r="Z897" s="6"/>
     </row>
-    <row r="898" customHeight="1" spans="1:26">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1">
       <c r="A898" s="10"/>
       <c r="B898" s="9"/>
       <c r="C898" s="4"/>
@@ -26238,7 +25627,7 @@
       <c r="Y898" s="6"/>
       <c r="Z898" s="6"/>
     </row>
-    <row r="899" customHeight="1" spans="1:26">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1">
       <c r="A899" s="10"/>
       <c r="B899" s="9"/>
       <c r="C899" s="4"/>
@@ -26266,7 +25655,7 @@
       <c r="Y899" s="6"/>
       <c r="Z899" s="6"/>
     </row>
-    <row r="900" customHeight="1" spans="1:26">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1">
       <c r="A900" s="10"/>
       <c r="B900" s="9"/>
       <c r="C900" s="4"/>
@@ -26294,7 +25683,7 @@
       <c r="Y900" s="6"/>
       <c r="Z900" s="6"/>
     </row>
-    <row r="901" customHeight="1" spans="1:26">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1">
       <c r="A901" s="10"/>
       <c r="B901" s="9"/>
       <c r="C901" s="4"/>
@@ -26322,7 +25711,7 @@
       <c r="Y901" s="6"/>
       <c r="Z901" s="6"/>
     </row>
-    <row r="902" customHeight="1" spans="1:26">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1">
       <c r="A902" s="10"/>
       <c r="B902" s="9"/>
       <c r="C902" s="4"/>
@@ -26350,7 +25739,7 @@
       <c r="Y902" s="6"/>
       <c r="Z902" s="6"/>
     </row>
-    <row r="903" customHeight="1" spans="1:26">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1">
       <c r="A903" s="10"/>
       <c r="B903" s="9"/>
       <c r="C903" s="4"/>
@@ -26378,7 +25767,7 @@
       <c r="Y903" s="6"/>
       <c r="Z903" s="6"/>
     </row>
-    <row r="904" customHeight="1" spans="1:26">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1">
       <c r="A904" s="10"/>
       <c r="B904" s="9"/>
       <c r="C904" s="4"/>
@@ -26406,7 +25795,7 @@
       <c r="Y904" s="6"/>
       <c r="Z904" s="6"/>
     </row>
-    <row r="905" customHeight="1" spans="1:26">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1">
       <c r="A905" s="10"/>
       <c r="B905" s="9"/>
       <c r="C905" s="4"/>
@@ -26434,7 +25823,7 @@
       <c r="Y905" s="6"/>
       <c r="Z905" s="6"/>
     </row>
-    <row r="906" customHeight="1" spans="1:26">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1">
       <c r="A906" s="10"/>
       <c r="B906" s="9"/>
       <c r="C906" s="4"/>
@@ -26462,7 +25851,7 @@
       <c r="Y906" s="6"/>
       <c r="Z906" s="6"/>
     </row>
-    <row r="907" customHeight="1" spans="1:26">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1">
       <c r="A907" s="10"/>
       <c r="B907" s="9"/>
       <c r="C907" s="4"/>
@@ -26490,7 +25879,7 @@
       <c r="Y907" s="6"/>
       <c r="Z907" s="6"/>
     </row>
-    <row r="908" customHeight="1" spans="1:26">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1">
       <c r="A908" s="10"/>
       <c r="B908" s="9"/>
       <c r="C908" s="4"/>
@@ -26518,7 +25907,7 @@
       <c r="Y908" s="6"/>
       <c r="Z908" s="6"/>
     </row>
-    <row r="909" customHeight="1" spans="1:26">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1">
       <c r="A909" s="10"/>
       <c r="B909" s="9"/>
       <c r="C909" s="4"/>
@@ -26546,7 +25935,7 @@
       <c r="Y909" s="6"/>
       <c r="Z909" s="6"/>
     </row>
-    <row r="910" customHeight="1" spans="1:26">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1">
       <c r="A910" s="10"/>
       <c r="B910" s="9"/>
       <c r="C910" s="4"/>
@@ -26574,7 +25963,7 @@
       <c r="Y910" s="6"/>
       <c r="Z910" s="6"/>
     </row>
-    <row r="911" customHeight="1" spans="1:26">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1">
       <c r="A911" s="10"/>
       <c r="B911" s="9"/>
       <c r="C911" s="4"/>
@@ -26602,7 +25991,7 @@
       <c r="Y911" s="6"/>
       <c r="Z911" s="6"/>
     </row>
-    <row r="912" customHeight="1" spans="1:26">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1">
       <c r="A912" s="10"/>
       <c r="B912" s="9"/>
       <c r="C912" s="4"/>
@@ -26630,7 +26019,7 @@
       <c r="Y912" s="6"/>
       <c r="Z912" s="6"/>
     </row>
-    <row r="913" customHeight="1" spans="1:26">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1">
       <c r="A913" s="10"/>
       <c r="B913" s="9"/>
       <c r="C913" s="4"/>
@@ -26658,7 +26047,7 @@
       <c r="Y913" s="6"/>
       <c r="Z913" s="6"/>
     </row>
-    <row r="914" customHeight="1" spans="1:26">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1">
       <c r="A914" s="10"/>
       <c r="B914" s="9"/>
       <c r="C914" s="4"/>
@@ -26686,7 +26075,7 @@
       <c r="Y914" s="6"/>
       <c r="Z914" s="6"/>
     </row>
-    <row r="915" customHeight="1" spans="1:26">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1">
       <c r="A915" s="10"/>
       <c r="B915" s="9"/>
       <c r="C915" s="4"/>
@@ -26714,7 +26103,7 @@
       <c r="Y915" s="6"/>
       <c r="Z915" s="6"/>
     </row>
-    <row r="916" customHeight="1" spans="1:26">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1">
       <c r="A916" s="10"/>
       <c r="B916" s="9"/>
       <c r="C916" s="4"/>
@@ -26742,7 +26131,7 @@
       <c r="Y916" s="6"/>
       <c r="Z916" s="6"/>
     </row>
-    <row r="917" customHeight="1" spans="1:26">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1">
       <c r="A917" s="10"/>
       <c r="B917" s="9"/>
       <c r="C917" s="4"/>
@@ -26770,7 +26159,7 @@
       <c r="Y917" s="6"/>
       <c r="Z917" s="6"/>
     </row>
-    <row r="918" customHeight="1" spans="1:26">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1">
       <c r="A918" s="10"/>
       <c r="B918" s="9"/>
       <c r="C918" s="4"/>
@@ -26798,7 +26187,7 @@
       <c r="Y918" s="6"/>
       <c r="Z918" s="6"/>
     </row>
-    <row r="919" customHeight="1" spans="1:26">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1">
       <c r="A919" s="10"/>
       <c r="B919" s="9"/>
       <c r="C919" s="4"/>
@@ -26826,7 +26215,7 @@
       <c r="Y919" s="6"/>
       <c r="Z919" s="6"/>
     </row>
-    <row r="920" customHeight="1" spans="1:26">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1">
       <c r="A920" s="10"/>
       <c r="B920" s="9"/>
       <c r="C920" s="4"/>
@@ -26854,7 +26243,7 @@
       <c r="Y920" s="6"/>
       <c r="Z920" s="6"/>
     </row>
-    <row r="921" customHeight="1" spans="1:26">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1">
       <c r="A921" s="10"/>
       <c r="B921" s="9"/>
       <c r="C921" s="4"/>
@@ -26882,7 +26271,7 @@
       <c r="Y921" s="6"/>
       <c r="Z921" s="6"/>
     </row>
-    <row r="922" customHeight="1" spans="1:26">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1">
       <c r="A922" s="10"/>
       <c r="B922" s="9"/>
       <c r="C922" s="4"/>
@@ -26910,7 +26299,7 @@
       <c r="Y922" s="6"/>
       <c r="Z922" s="6"/>
     </row>
-    <row r="923" customHeight="1" spans="1:26">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1">
       <c r="A923" s="10"/>
       <c r="B923" s="9"/>
       <c r="C923" s="4"/>
@@ -26938,7 +26327,7 @@
       <c r="Y923" s="6"/>
       <c r="Z923" s="6"/>
     </row>
-    <row r="924" customHeight="1" spans="1:26">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1">
       <c r="A924" s="10"/>
       <c r="B924" s="9"/>
       <c r="C924" s="4"/>
@@ -26966,7 +26355,7 @@
       <c r="Y924" s="6"/>
       <c r="Z924" s="6"/>
     </row>
-    <row r="925" customHeight="1" spans="1:26">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1">
       <c r="A925" s="10"/>
       <c r="B925" s="9"/>
       <c r="C925" s="4"/>
@@ -26994,7 +26383,7 @@
       <c r="Y925" s="6"/>
       <c r="Z925" s="6"/>
     </row>
-    <row r="926" customHeight="1" spans="1:26">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1">
       <c r="A926" s="10"/>
       <c r="B926" s="9"/>
       <c r="C926" s="4"/>
@@ -27022,7 +26411,7 @@
       <c r="Y926" s="6"/>
       <c r="Z926" s="6"/>
     </row>
-    <row r="927" customHeight="1" spans="1:26">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1">
       <c r="A927" s="10"/>
       <c r="B927" s="9"/>
       <c r="C927" s="4"/>
@@ -27050,7 +26439,7 @@
       <c r="Y927" s="6"/>
       <c r="Z927" s="6"/>
     </row>
-    <row r="928" customHeight="1" spans="1:26">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1">
       <c r="A928" s="10"/>
       <c r="B928" s="9"/>
       <c r="C928" s="4"/>
@@ -27078,7 +26467,7 @@
       <c r="Y928" s="6"/>
       <c r="Z928" s="6"/>
     </row>
-    <row r="929" customHeight="1" spans="1:26">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1">
       <c r="A929" s="10"/>
       <c r="B929" s="9"/>
       <c r="C929" s="4"/>
@@ -27106,7 +26495,7 @@
       <c r="Y929" s="6"/>
       <c r="Z929" s="6"/>
     </row>
-    <row r="930" customHeight="1" spans="1:26">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1">
       <c r="A930" s="10"/>
       <c r="B930" s="9"/>
       <c r="C930" s="4"/>
@@ -27134,7 +26523,7 @@
       <c r="Y930" s="6"/>
       <c r="Z930" s="6"/>
     </row>
-    <row r="931" customHeight="1" spans="1:26">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1">
       <c r="A931" s="10"/>
       <c r="B931" s="9"/>
       <c r="C931" s="4"/>
@@ -27162,7 +26551,7 @@
       <c r="Y931" s="6"/>
       <c r="Z931" s="6"/>
     </row>
-    <row r="932" customHeight="1" spans="1:26">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1">
       <c r="A932" s="10"/>
       <c r="B932" s="9"/>
       <c r="C932" s="4"/>
@@ -27190,7 +26579,7 @@
       <c r="Y932" s="6"/>
       <c r="Z932" s="6"/>
     </row>
-    <row r="933" customHeight="1" spans="1:26">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1">
       <c r="A933" s="10"/>
       <c r="B933" s="9"/>
       <c r="C933" s="4"/>
@@ -27218,7 +26607,7 @@
       <c r="Y933" s="6"/>
       <c r="Z933" s="6"/>
     </row>
-    <row r="934" customHeight="1" spans="1:26">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1">
       <c r="A934" s="10"/>
       <c r="B934" s="9"/>
       <c r="C934" s="4"/>
@@ -27246,7 +26635,7 @@
       <c r="Y934" s="6"/>
       <c r="Z934" s="6"/>
     </row>
-    <row r="935" customHeight="1" spans="1:26">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1">
       <c r="A935" s="10"/>
       <c r="B935" s="9"/>
       <c r="C935" s="4"/>
@@ -27274,7 +26663,7 @@
       <c r="Y935" s="6"/>
       <c r="Z935" s="6"/>
     </row>
-    <row r="936" customHeight="1" spans="1:26">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1">
       <c r="A936" s="10"/>
       <c r="B936" s="9"/>
       <c r="C936" s="4"/>
@@ -27302,7 +26691,7 @@
       <c r="Y936" s="6"/>
       <c r="Z936" s="6"/>
     </row>
-    <row r="937" customHeight="1" spans="1:26">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1">
       <c r="A937" s="10"/>
       <c r="B937" s="9"/>
       <c r="C937" s="4"/>
@@ -27330,7 +26719,7 @@
       <c r="Y937" s="6"/>
       <c r="Z937" s="6"/>
     </row>
-    <row r="938" customHeight="1" spans="1:26">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1">
       <c r="A938" s="10"/>
       <c r="B938" s="9"/>
       <c r="C938" s="4"/>
@@ -27358,7 +26747,7 @@
       <c r="Y938" s="6"/>
       <c r="Z938" s="6"/>
     </row>
-    <row r="939" customHeight="1" spans="1:26">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1">
       <c r="A939" s="10"/>
       <c r="B939" s="9"/>
       <c r="C939" s="4"/>
@@ -27386,7 +26775,7 @@
       <c r="Y939" s="6"/>
       <c r="Z939" s="6"/>
     </row>
-    <row r="940" customHeight="1" spans="1:26">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1">
       <c r="A940" s="10"/>
       <c r="B940" s="9"/>
       <c r="C940" s="4"/>
@@ -27414,7 +26803,7 @@
       <c r="Y940" s="6"/>
       <c r="Z940" s="6"/>
     </row>
-    <row r="941" customHeight="1" spans="1:26">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1">
       <c r="A941" s="10"/>
       <c r="B941" s="9"/>
       <c r="C941" s="4"/>
@@ -27442,7 +26831,7 @@
       <c r="Y941" s="6"/>
       <c r="Z941" s="6"/>
     </row>
-    <row r="942" customHeight="1" spans="1:26">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1">
       <c r="A942" s="10"/>
       <c r="B942" s="9"/>
       <c r="C942" s="4"/>
@@ -27470,7 +26859,7 @@
       <c r="Y942" s="6"/>
       <c r="Z942" s="6"/>
     </row>
-    <row r="943" customHeight="1" spans="1:26">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1">
       <c r="A943" s="10"/>
       <c r="B943" s="9"/>
       <c r="C943" s="4"/>
@@ -27498,7 +26887,7 @@
       <c r="Y943" s="6"/>
       <c r="Z943" s="6"/>
     </row>
-    <row r="944" customHeight="1" spans="1:26">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1">
       <c r="A944" s="10"/>
       <c r="B944" s="9"/>
       <c r="C944" s="4"/>
@@ -27526,7 +26915,7 @@
       <c r="Y944" s="6"/>
       <c r="Z944" s="6"/>
     </row>
-    <row r="945" customHeight="1" spans="1:26">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1">
       <c r="A945" s="10"/>
       <c r="B945" s="9"/>
       <c r="C945" s="4"/>
@@ -27554,7 +26943,7 @@
       <c r="Y945" s="6"/>
       <c r="Z945" s="6"/>
     </row>
-    <row r="946" customHeight="1" spans="1:26">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1">
       <c r="A946" s="10"/>
       <c r="B946" s="9"/>
       <c r="C946" s="4"/>
@@ -27582,7 +26971,7 @@
       <c r="Y946" s="6"/>
       <c r="Z946" s="6"/>
     </row>
-    <row r="947" customHeight="1" spans="1:26">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1">
       <c r="A947" s="10"/>
       <c r="B947" s="9"/>
       <c r="C947" s="4"/>
@@ -27610,7 +26999,7 @@
       <c r="Y947" s="6"/>
       <c r="Z947" s="6"/>
     </row>
-    <row r="948" customHeight="1" spans="1:26">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1">
       <c r="A948" s="10"/>
       <c r="B948" s="9"/>
       <c r="C948" s="4"/>
@@ -27638,7 +27027,7 @@
       <c r="Y948" s="6"/>
       <c r="Z948" s="6"/>
     </row>
-    <row r="949" customHeight="1" spans="1:26">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1">
       <c r="A949" s="10"/>
       <c r="B949" s="9"/>
       <c r="C949" s="4"/>
@@ -27666,7 +27055,7 @@
       <c r="Y949" s="6"/>
       <c r="Z949" s="6"/>
     </row>
-    <row r="950" customHeight="1" spans="1:26">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1">
       <c r="A950" s="10"/>
       <c r="B950" s="9"/>
       <c r="C950" s="4"/>
@@ -27694,7 +27083,7 @@
       <c r="Y950" s="6"/>
       <c r="Z950" s="6"/>
     </row>
-    <row r="951" customHeight="1" spans="1:26">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1">
       <c r="A951" s="10"/>
       <c r="B951" s="9"/>
       <c r="C951" s="4"/>
@@ -27722,7 +27111,7 @@
       <c r="Y951" s="6"/>
       <c r="Z951" s="6"/>
     </row>
-    <row r="952" customHeight="1" spans="1:26">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1">
       <c r="A952" s="10"/>
       <c r="B952" s="9"/>
       <c r="C952" s="4"/>
@@ -27750,7 +27139,7 @@
       <c r="Y952" s="6"/>
       <c r="Z952" s="6"/>
     </row>
-    <row r="953" customHeight="1" spans="1:26">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1">
       <c r="A953" s="10"/>
       <c r="B953" s="9"/>
       <c r="C953" s="4"/>
@@ -27778,7 +27167,7 @@
       <c r="Y953" s="6"/>
       <c r="Z953" s="6"/>
     </row>
-    <row r="954" customHeight="1" spans="1:26">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1">
       <c r="A954" s="10"/>
       <c r="B954" s="9"/>
       <c r="C954" s="4"/>
@@ -27806,7 +27195,7 @@
       <c r="Y954" s="6"/>
       <c r="Z954" s="6"/>
     </row>
-    <row r="955" customHeight="1" spans="1:26">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1">
       <c r="A955" s="10"/>
       <c r="B955" s="9"/>
       <c r="C955" s="4"/>
@@ -27834,7 +27223,7 @@
       <c r="Y955" s="6"/>
       <c r="Z955" s="6"/>
     </row>
-    <row r="956" customHeight="1" spans="1:26">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1">
       <c r="A956" s="10"/>
       <c r="B956" s="9"/>
       <c r="C956" s="4"/>
@@ -27862,7 +27251,7 @@
       <c r="Y956" s="6"/>
       <c r="Z956" s="6"/>
     </row>
-    <row r="957" customHeight="1" spans="1:26">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1">
       <c r="A957" s="10"/>
       <c r="B957" s="9"/>
       <c r="C957" s="4"/>
@@ -27890,7 +27279,7 @@
       <c r="Y957" s="6"/>
       <c r="Z957" s="6"/>
     </row>
-    <row r="958" customHeight="1" spans="1:26">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1">
       <c r="A958" s="10"/>
       <c r="B958" s="9"/>
       <c r="C958" s="4"/>
@@ -27918,7 +27307,7 @@
       <c r="Y958" s="6"/>
       <c r="Z958" s="6"/>
     </row>
-    <row r="959" customHeight="1" spans="1:26">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1">
       <c r="A959" s="10"/>
       <c r="B959" s="9"/>
       <c r="C959" s="4"/>
@@ -27946,7 +27335,7 @@
       <c r="Y959" s="6"/>
       <c r="Z959" s="6"/>
     </row>
-    <row r="960" customHeight="1" spans="1:26">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1">
       <c r="A960" s="10"/>
       <c r="B960" s="9"/>
       <c r="C960" s="4"/>
@@ -27974,7 +27363,7 @@
       <c r="Y960" s="6"/>
       <c r="Z960" s="6"/>
     </row>
-    <row r="961" customHeight="1" spans="1:26">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1">
       <c r="A961" s="10"/>
       <c r="B961" s="9"/>
       <c r="C961" s="4"/>
@@ -28002,7 +27391,7 @@
       <c r="Y961" s="6"/>
       <c r="Z961" s="6"/>
     </row>
-    <row r="962" customHeight="1" spans="1:26">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1">
       <c r="A962" s="10"/>
       <c r="B962" s="9"/>
       <c r="C962" s="4"/>
@@ -28030,7 +27419,7 @@
       <c r="Y962" s="6"/>
       <c r="Z962" s="6"/>
     </row>
-    <row r="963" customHeight="1" spans="1:26">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1">
       <c r="A963" s="10"/>
       <c r="B963" s="9"/>
       <c r="C963" s="4"/>
@@ -28058,7 +27447,7 @@
       <c r="Y963" s="6"/>
       <c r="Z963" s="6"/>
     </row>
-    <row r="964" customHeight="1" spans="1:26">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1">
       <c r="A964" s="10"/>
       <c r="B964" s="9"/>
       <c r="C964" s="4"/>
@@ -28086,7 +27475,7 @@
       <c r="Y964" s="6"/>
       <c r="Z964" s="6"/>
     </row>
-    <row r="965" customHeight="1" spans="1:26">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1">
       <c r="A965" s="10"/>
       <c r="B965" s="9"/>
       <c r="C965" s="4"/>
@@ -28114,7 +27503,7 @@
       <c r="Y965" s="6"/>
       <c r="Z965" s="6"/>
     </row>
-    <row r="966" customHeight="1" spans="1:26">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1">
       <c r="A966" s="10"/>
       <c r="B966" s="9"/>
       <c r="C966" s="4"/>
@@ -28142,7 +27531,7 @@
       <c r="Y966" s="6"/>
       <c r="Z966" s="6"/>
     </row>
-    <row r="967" customHeight="1" spans="1:26">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1">
       <c r="A967" s="10"/>
       <c r="B967" s="9"/>
       <c r="C967" s="4"/>
@@ -28170,7 +27559,7 @@
       <c r="Y967" s="6"/>
       <c r="Z967" s="6"/>
     </row>
-    <row r="968" customHeight="1" spans="1:26">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1">
       <c r="A968" s="10"/>
       <c r="B968" s="9"/>
       <c r="C968" s="4"/>
@@ -28198,7 +27587,7 @@
       <c r="Y968" s="6"/>
       <c r="Z968" s="6"/>
     </row>
-    <row r="969" customHeight="1" spans="1:26">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1">
       <c r="A969" s="10"/>
       <c r="B969" s="9"/>
       <c r="C969" s="4"/>
@@ -28226,7 +27615,7 @@
       <c r="Y969" s="6"/>
       <c r="Z969" s="6"/>
     </row>
-    <row r="970" customHeight="1" spans="1:26">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1">
       <c r="A970" s="10"/>
       <c r="B970" s="9"/>
       <c r="C970" s="4"/>
@@ -28254,7 +27643,7 @@
       <c r="Y970" s="6"/>
       <c r="Z970" s="6"/>
     </row>
-    <row r="971" customHeight="1" spans="1:26">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1">
       <c r="A971" s="10"/>
       <c r="B971" s="9"/>
       <c r="C971" s="4"/>
@@ -28282,7 +27671,7 @@
       <c r="Y971" s="6"/>
       <c r="Z971" s="6"/>
     </row>
-    <row r="972" customHeight="1" spans="1:26">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1">
       <c r="A972" s="10"/>
       <c r="B972" s="9"/>
       <c r="C972" s="4"/>
@@ -28310,7 +27699,7 @@
       <c r="Y972" s="6"/>
       <c r="Z972" s="6"/>
     </row>
-    <row r="973" customHeight="1" spans="1:26">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1">
       <c r="A973" s="10"/>
       <c r="B973" s="9"/>
       <c r="C973" s="4"/>
@@ -28338,7 +27727,7 @@
       <c r="Y973" s="6"/>
       <c r="Z973" s="6"/>
     </row>
-    <row r="974" customHeight="1" spans="1:26">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1">
       <c r="A974" s="10"/>
       <c r="B974" s="9"/>
       <c r="C974" s="4"/>
@@ -28366,7 +27755,7 @@
       <c r="Y974" s="6"/>
       <c r="Z974" s="6"/>
     </row>
-    <row r="975" customHeight="1" spans="1:26">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1">
       <c r="A975" s="10"/>
       <c r="B975" s="9"/>
       <c r="C975" s="4"/>
@@ -28394,7 +27783,7 @@
       <c r="Y975" s="6"/>
       <c r="Z975" s="6"/>
     </row>
-    <row r="976" customHeight="1" spans="1:26">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1">
       <c r="A976" s="10"/>
       <c r="B976" s="9"/>
       <c r="C976" s="4"/>
@@ -28422,7 +27811,7 @@
       <c r="Y976" s="6"/>
       <c r="Z976" s="6"/>
     </row>
-    <row r="977" customHeight="1" spans="1:26">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1">
       <c r="A977" s="10"/>
       <c r="B977" s="9"/>
       <c r="C977" s="4"/>
@@ -28450,7 +27839,7 @@
       <c r="Y977" s="6"/>
       <c r="Z977" s="6"/>
     </row>
-    <row r="978" customHeight="1" spans="1:26">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1">
       <c r="A978" s="10"/>
       <c r="B978" s="9"/>
       <c r="C978" s="4"/>
@@ -28478,7 +27867,7 @@
       <c r="Y978" s="6"/>
       <c r="Z978" s="6"/>
     </row>
-    <row r="979" customHeight="1" spans="1:26">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1">
       <c r="A979" s="10"/>
       <c r="B979" s="9"/>
       <c r="C979" s="4"/>
@@ -28506,7 +27895,7 @@
       <c r="Y979" s="6"/>
       <c r="Z979" s="6"/>
     </row>
-    <row r="980" customHeight="1" spans="1:26">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1">
       <c r="A980" s="10"/>
       <c r="B980" s="9"/>
       <c r="C980" s="4"/>
@@ -28534,7 +27923,7 @@
       <c r="Y980" s="6"/>
       <c r="Z980" s="6"/>
     </row>
-    <row r="981" customHeight="1" spans="1:26">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1">
       <c r="A981" s="10"/>
       <c r="B981" s="9"/>
       <c r="C981" s="4"/>
@@ -28562,7 +27951,7 @@
       <c r="Y981" s="6"/>
       <c r="Z981" s="6"/>
     </row>
-    <row r="982" customHeight="1" spans="1:26">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1">
       <c r="A982" s="10"/>
       <c r="B982" s="9"/>
       <c r="C982" s="4"/>
@@ -28590,7 +27979,7 @@
       <c r="Y982" s="6"/>
       <c r="Z982" s="6"/>
     </row>
-    <row r="983" customHeight="1" spans="1:26">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1">
       <c r="A983" s="10"/>
       <c r="B983" s="9"/>
       <c r="C983" s="4"/>
@@ -28618,7 +28007,7 @@
       <c r="Y983" s="6"/>
       <c r="Z983" s="6"/>
     </row>
-    <row r="984" customHeight="1" spans="1:26">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1">
       <c r="A984" s="10"/>
       <c r="B984" s="9"/>
       <c r="C984" s="4"/>
@@ -28646,7 +28035,7 @@
       <c r="Y984" s="6"/>
       <c r="Z984" s="6"/>
     </row>
-    <row r="985" customHeight="1" spans="1:26">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1">
       <c r="A985" s="10"/>
       <c r="B985" s="9"/>
       <c r="C985" s="4"/>
@@ -28674,7 +28063,7 @@
       <c r="Y985" s="6"/>
       <c r="Z985" s="6"/>
     </row>
-    <row r="986" customHeight="1" spans="1:26">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1">
       <c r="A986" s="10"/>
       <c r="B986" s="9"/>
       <c r="C986" s="4"/>
@@ -28702,7 +28091,7 @@
       <c r="Y986" s="6"/>
       <c r="Z986" s="6"/>
     </row>
-    <row r="987" customHeight="1" spans="1:26">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1">
       <c r="A987" s="10"/>
       <c r="B987" s="9"/>
       <c r="C987" s="4"/>
@@ -28730,7 +28119,7 @@
       <c r="Y987" s="6"/>
       <c r="Z987" s="6"/>
     </row>
-    <row r="988" customHeight="1" spans="1:26">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1">
       <c r="A988" s="10"/>
       <c r="B988" s="9"/>
       <c r="C988" s="4"/>
@@ -28758,7 +28147,7 @@
       <c r="Y988" s="6"/>
       <c r="Z988" s="6"/>
     </row>
-    <row r="989" customHeight="1" spans="1:26">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1">
       <c r="A989" s="10"/>
       <c r="B989" s="9"/>
       <c r="C989" s="4"/>
@@ -28786,7 +28175,7 @@
       <c r="Y989" s="6"/>
       <c r="Z989" s="6"/>
     </row>
-    <row r="990" customHeight="1" spans="1:26">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1">
       <c r="A990" s="10"/>
       <c r="B990" s="9"/>
       <c r="C990" s="4"/>
@@ -28814,7 +28203,7 @@
       <c r="Y990" s="6"/>
       <c r="Z990" s="6"/>
     </row>
-    <row r="991" customHeight="1" spans="1:26">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1">
       <c r="A991" s="10"/>
       <c r="B991" s="9"/>
       <c r="C991" s="4"/>
@@ -28842,7 +28231,7 @@
       <c r="Y991" s="6"/>
       <c r="Z991" s="6"/>
     </row>
-    <row r="992" customHeight="1" spans="1:26">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1">
       <c r="A992" s="10"/>
       <c r="B992" s="9"/>
       <c r="C992" s="4"/>
@@ -28870,7 +28259,7 @@
       <c r="Y992" s="6"/>
       <c r="Z992" s="6"/>
     </row>
-    <row r="993" customHeight="1" spans="1:26">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1">
       <c r="A993" s="10"/>
       <c r="B993" s="9"/>
       <c r="C993" s="4"/>
@@ -28898,7 +28287,7 @@
       <c r="Y993" s="6"/>
       <c r="Z993" s="6"/>
     </row>
-    <row r="994" customHeight="1" spans="1:26">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1">
       <c r="A994" s="10"/>
       <c r="B994" s="9"/>
       <c r="C994" s="4"/>
@@ -28926,7 +28315,7 @@
       <c r="Y994" s="6"/>
       <c r="Z994" s="6"/>
     </row>
-    <row r="995" customHeight="1" spans="1:26">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1">
       <c r="A995" s="10"/>
       <c r="B995" s="9"/>
       <c r="C995" s="4"/>
@@ -28954,7 +28343,7 @@
       <c r="Y995" s="6"/>
       <c r="Z995" s="6"/>
     </row>
-    <row r="996" customHeight="1" spans="1:26">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1">
       <c r="A996" s="10"/>
       <c r="B996" s="9"/>
       <c r="C996" s="4"/>
@@ -28982,7 +28371,7 @@
       <c r="Y996" s="6"/>
       <c r="Z996" s="6"/>
     </row>
-    <row r="997" customHeight="1" spans="1:26">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1">
       <c r="A997" s="10"/>
       <c r="B997" s="9"/>
       <c r="C997" s="4"/>
@@ -29010,7 +28399,7 @@
       <c r="Y997" s="6"/>
       <c r="Z997" s="6"/>
     </row>
-    <row r="998" customHeight="1" spans="1:26">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1">
       <c r="A998" s="10"/>
       <c r="B998" s="9"/>
       <c r="C998" s="4"/>
@@ -29038,7 +28427,7 @@
       <c r="Y998" s="6"/>
       <c r="Z998" s="6"/>
     </row>
-    <row r="999" customHeight="1" spans="1:26">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1">
       <c r="A999" s="10"/>
       <c r="B999" s="9"/>
       <c r="C999" s="4"/>
@@ -29066,7 +28455,7 @@
       <c r="Y999" s="6"/>
       <c r="Z999" s="6"/>
     </row>
-    <row r="1000" customHeight="1" spans="1:26">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1000" s="10"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="4"/>
@@ -29096,7 +28485,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Scraped data/Property Listing Report.xlsx
+++ b/Scraped data/Property Listing Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\CarousellWebScraping\Scraped data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5FD84-EF9F-44C9-8A34-777B67A17E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465B611C-0A54-4C35-84B3-E4CFD34191EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mmm\ d"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -352,9 +352,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -820,11 +820,21 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="8">
+        <v>44270</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>259</v>
+      </c>
+      <c r="D13" s="4">
+        <v>259</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -848,11 +858,21 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="8">
+        <v>44274</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>260</v>
+      </c>
+      <c r="D14" s="4">
+        <v>260</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
